--- a/VerbConjugation/XLSX/TransStemmed.xlsx
+++ b/VerbConjugation/XLSX/TransStemmed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/.shortcut-targets-by-id/1Wid6qZFUIaNGhhY-jObhH0MzMkW03Wt7/Teheran or general Persian Armenian/2021 kickstart /Archive/iranian_armenian/VerbConjugation/XLSX/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hovsep/Library/CloudStorage/GoogleDrive-hovsep443@hotmail.com/My Drive/Dialectal kickstarts/2021 kickstart  - Tehran/Archive/iranian_armenian/VerbConjugation/XLSX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D02F865-9540-554F-B765-68C17C08B288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC624B5-3A58-2D4D-A894-789AD632370B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9020" yWindow="2600" windowWidth="28040" windowHeight="15760" xr2:uid="{F4A8DE63-4361-ED43-8851-AA04255BF1C7}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15460" xr2:uid="{F4A8DE63-4361-ED43-8851-AA04255BF1C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4133" uniqueCount="1356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4163" uniqueCount="1359">
   <si>
     <t>Class</t>
   </si>
@@ -4103,6 +4103,15 @@
   </si>
   <si>
     <t>t͡ʃʰ{Xpst}t͡sʰɒv</t>
+  </si>
+  <si>
+    <t>ɒɻʒem</t>
+  </si>
+  <si>
+    <t>{X} = ɒɻʒ-</t>
+  </si>
+  <si>
+    <t>to be worth</t>
   </si>
 </sst>
 </file>
@@ -4461,15 +4470,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74E9808-725B-4140-9F3A-E401D057D6B9}">
-  <dimension ref="A1:AC152"/>
+  <dimension ref="A1:AD152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" topLeftCell="L16" workbookViewId="0">
+      <selection activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4543,7 +4552,7 @@
         <v>7</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>8</v>
@@ -4555,10 +4564,13 @@
         <v>8</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -4632,7 +4644,7 @@
         <v>7</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>8</v>
@@ -4644,10 +4656,13 @@
         <v>8</v>
       </c>
       <c r="AC2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -4721,13 +4736,13 @@
         <v>15</v>
       </c>
       <c r="Y3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>14</v>
@@ -4735,8 +4750,11 @@
       <c r="AC3" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="AD3" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -4810,22 +4828,25 @@
         <v>39</v>
       </c>
       <c r="Y4" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="Z4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
@@ -4899,22 +4920,25 @@
         <v>67</v>
       </c>
       <c r="Y5" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="Z5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -4988,22 +5012,25 @@
         <v>95</v>
       </c>
       <c r="Y6" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="Z6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>101</v>
       </c>
@@ -5072,23 +5099,24 @@
       </c>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-      <c r="Y7" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="Y7" s="1"/>
       <c r="Z7" s="1" t="s">
         <v>102</v>
       </c>
       <c r="AA7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB7" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AC7" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AD7" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>110</v>
       </c>
@@ -5139,11 +5167,12 @@
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
-      <c r="AC8" s="1" t="s">
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>116</v>
       </c>
@@ -5195,8 +5224,9 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>119</v>
       </c>
@@ -5265,23 +5295,24 @@
       </c>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
-      <c r="Y10" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="Y10" s="1"/>
       <c r="Z10" s="1" t="s">
         <v>120</v>
       </c>
       <c r="AA10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB10" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AB10" s="1" t="s">
+      <c r="AC10" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AC10" s="1" t="s">
+      <c r="AD10" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>127</v>
       </c>
@@ -5350,23 +5381,24 @@
       </c>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-      <c r="Y11" s="1" t="s">
-        <v>128</v>
-      </c>
+      <c r="Y11" s="1"/>
       <c r="Z11" s="1" t="s">
         <v>128</v>
       </c>
       <c r="AA11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB11" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AB11" s="1" t="s">
+      <c r="AC11" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AC11" s="1" t="s">
+      <c r="AD11" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>137</v>
       </c>
@@ -5435,23 +5467,24 @@
       </c>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
-      <c r="Y12" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="Y12" s="1"/>
       <c r="Z12" s="1" t="s">
         <v>138</v>
       </c>
       <c r="AA12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB12" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AB12" s="1" t="s">
+      <c r="AC12" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AC12" s="1" t="s">
+      <c r="AD12" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>144</v>
       </c>
@@ -5520,23 +5553,24 @@
       </c>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="Y13" s="1"/>
       <c r="Z13" s="1" t="s">
         <v>102</v>
       </c>
       <c r="AA13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB13" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AB13" s="1" t="s">
+      <c r="AC13" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AC13" s="1" t="s">
+      <c r="AD13" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>144</v>
       </c>
@@ -5605,23 +5639,24 @@
       </c>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="Y14" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="Y14" s="1"/>
       <c r="Z14" s="1" t="s">
         <v>151</v>
       </c>
       <c r="AA14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB14" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AB14" s="1" t="s">
+      <c r="AC14" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AC14" s="1" t="s">
+      <c r="AD14" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>158</v>
       </c>
@@ -5690,23 +5725,24 @@
       </c>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
-      <c r="Y15" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="Y15" s="1"/>
       <c r="Z15" s="1" t="s">
         <v>159</v>
       </c>
       <c r="AA15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB15" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="AB15" s="1" t="s">
+      <c r="AC15" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AC15" s="1" t="s">
+      <c r="AD15" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>167</v>
       </c>
@@ -5775,23 +5811,24 @@
       </c>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
-      <c r="Y16" s="1" t="s">
-        <v>168</v>
-      </c>
+      <c r="Y16" s="1"/>
       <c r="Z16" s="1" t="s">
         <v>168</v>
       </c>
       <c r="AA16" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB16" s="1" t="s">
         <v>1285</v>
       </c>
-      <c r="AB16" s="1" t="s">
+      <c r="AC16" s="1" t="s">
         <v>1283</v>
       </c>
-      <c r="AC16" s="1" t="s">
+      <c r="AD16" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>172</v>
       </c>
@@ -5865,22 +5902,25 @@
         <v>179</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Z17" s="1" t="s">
         <v>173</v>
       </c>
       <c r="AA17" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB17" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AB17" s="1" t="s">
+      <c r="AC17" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="AC17" s="1" t="s">
+      <c r="AD17" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>181</v>
       </c>
@@ -5954,22 +5994,25 @@
         <v>188</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Z18" s="1" t="s">
         <v>182</v>
       </c>
       <c r="AA18" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB18" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="AB18" s="1" t="s">
+      <c r="AC18" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AC18" s="1" t="s">
+      <c r="AD18" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>190</v>
       </c>
@@ -6043,22 +6086,25 @@
         <v>168</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="Z19" s="1" t="s">
         <v>191</v>
       </c>
       <c r="AA19" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB19" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="AB19" s="1" t="s">
+      <c r="AC19" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AC19" s="1" t="s">
+      <c r="AD19" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>197</v>
       </c>
@@ -6132,22 +6178,25 @@
         <v>204</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Z20" s="1" t="s">
         <v>198</v>
       </c>
       <c r="AA20" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB20" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AB20" s="1" t="s">
+      <c r="AC20" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AC20" s="1" t="s">
+      <c r="AD20" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>206</v>
       </c>
@@ -6221,22 +6270,25 @@
         <v>213</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Z21" s="1" t="s">
         <v>207</v>
       </c>
       <c r="AA21" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB21" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="AB21" s="1" t="s">
+      <c r="AC21" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="AC21" s="1" t="s">
+      <c r="AD21" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>215</v>
       </c>
@@ -6310,22 +6362,25 @@
         <v>222</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Z22" s="1" t="s">
         <v>216</v>
       </c>
       <c r="AA22" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB22" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AB22" s="1" t="s">
+      <c r="AC22" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AC22" s="1" t="s">
+      <c r="AD22" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>224</v>
       </c>
@@ -6399,22 +6454,25 @@
         <v>231</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Z23" s="1" t="s">
         <v>225</v>
       </c>
       <c r="AA23" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB23" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="AB23" s="1" t="s">
+      <c r="AC23" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AC23" s="1" t="s">
+      <c r="AD23" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>233</v>
       </c>
@@ -6488,22 +6546,25 @@
         <v>240</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Z24" s="1" t="s">
         <v>234</v>
       </c>
       <c r="AA24" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB24" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="AB24" s="1" t="s">
+      <c r="AC24" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="AC24" s="1" t="s">
+      <c r="AD24" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>242</v>
       </c>
@@ -6577,22 +6638,25 @@
         <v>248</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Z25" s="1" t="s">
         <v>243</v>
       </c>
       <c r="AA25" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB25" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="AB25" s="1" t="s">
+      <c r="AC25" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="AC25" s="1" t="s">
+      <c r="AD25" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>250</v>
       </c>
@@ -6666,22 +6730,25 @@
         <v>257</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Z26" s="1" t="s">
         <v>251</v>
       </c>
       <c r="AA26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AB26" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="AB26" s="1" t="s">
+      <c r="AC26" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="AC26" s="1" t="s">
+      <c r="AD26" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>259</v>
       </c>
@@ -6755,22 +6822,25 @@
         <v>266</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Z27" s="1" t="s">
         <v>260</v>
       </c>
       <c r="AA27" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB27" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="AB27" s="1" t="s">
+      <c r="AC27" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="AC27" s="1" t="s">
+      <c r="AD27" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>268</v>
       </c>
@@ -6844,22 +6914,25 @@
         <v>275</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Z28" s="1" t="s">
         <v>269</v>
       </c>
       <c r="AA28" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB28" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="AB28" s="1" t="s">
+      <c r="AC28" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="AC28" s="1" t="s">
+      <c r="AD28" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>277</v>
       </c>
@@ -6933,22 +7006,25 @@
         <v>284</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Z29" s="1" t="s">
         <v>278</v>
       </c>
       <c r="AA29" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AB29" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="AB29" s="1" t="s">
+      <c r="AC29" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="AC29" s="1" t="s">
+      <c r="AD29" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>286</v>
       </c>
@@ -7022,22 +7098,25 @@
         <v>293</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Z30" s="1" t="s">
         <v>287</v>
       </c>
       <c r="AA30" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB30" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="AB30" s="1" t="s">
+      <c r="AC30" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="AC30" s="1" t="s">
+      <c r="AD30" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>295</v>
       </c>
@@ -7111,22 +7190,25 @@
         <v>151</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>296</v>
+        <v>151</v>
       </c>
       <c r="Z31" s="1" t="s">
         <v>296</v>
       </c>
       <c r="AA31" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AB31" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AB31" s="1" t="s">
+      <c r="AC31" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AC31" s="1" t="s">
+      <c r="AD31" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>303</v>
       </c>
@@ -7200,22 +7282,25 @@
         <v>310</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Z32" s="1" t="s">
         <v>304</v>
       </c>
       <c r="AA32" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB32" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="AB32" s="1" t="s">
+      <c r="AC32" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="AC32" s="1" t="s">
+      <c r="AD32" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>312</v>
       </c>
@@ -7289,22 +7374,25 @@
         <v>319</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Z33" s="1" t="s">
         <v>313</v>
       </c>
       <c r="AA33" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB33" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="AB33" s="1" t="s">
+      <c r="AC33" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="AC33" s="1" t="s">
+      <c r="AD33" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>321</v>
       </c>
@@ -7372,28 +7460,31 @@
         <v>326</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>309</v>
+        <v>964</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>310</v>
+        <v>963</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>322</v>
+        <v>963</v>
       </c>
       <c r="Z34" s="1" t="s">
         <v>322</v>
       </c>
       <c r="AA34" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB34" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="AB34" s="1" t="s">
+      <c r="AC34" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="AC34" s="1" t="s">
+      <c r="AD34" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>328</v>
       </c>
@@ -7467,22 +7558,25 @@
         <v>335</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="Z35" s="1" t="s">
         <v>329</v>
       </c>
       <c r="AA35" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="AB35" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="AB35" s="1" t="s">
+      <c r="AC35" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="AC35" s="1" t="s">
+      <c r="AD35" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>337</v>
       </c>
@@ -7556,22 +7650,25 @@
         <v>344</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="Z36" s="1" t="s">
         <v>338</v>
       </c>
       <c r="AA36" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AB36" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="AB36" s="1" t="s">
+      <c r="AC36" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="AC36" s="1" t="s">
+      <c r="AD36" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>346</v>
       </c>
@@ -7645,22 +7742,25 @@
         <v>353</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="Z37" s="1" t="s">
         <v>347</v>
       </c>
       <c r="AA37" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB37" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="AB37" s="1" t="s">
+      <c r="AC37" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="AC37" s="1" t="s">
+      <c r="AD37" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>355</v>
       </c>
@@ -7734,22 +7834,25 @@
         <v>362</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="Z38" s="1" t="s">
         <v>356</v>
       </c>
       <c r="AA38" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="AB38" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="AB38" s="1" t="s">
+      <c r="AC38" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="AC38" s="1" t="s">
+      <c r="AD38" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>364</v>
       </c>
@@ -7823,22 +7926,25 @@
         <v>371</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="Z39" s="1" t="s">
         <v>365</v>
       </c>
       <c r="AA39" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB39" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="AB39" s="1" t="s">
+      <c r="AC39" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="AC39" s="1" t="s">
+      <c r="AD39" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>373</v>
       </c>
@@ -7912,22 +8018,25 @@
         <v>362</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="Z40" s="1" t="s">
         <v>374</v>
       </c>
       <c r="AA40" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AB40" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="AB40" s="1" t="s">
+      <c r="AC40" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="AC40" s="1" t="s">
+      <c r="AD40" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>380</v>
       </c>
@@ -7996,23 +8105,24 @@
       </c>
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
-      <c r="Y41" s="1" t="s">
-        <v>381</v>
-      </c>
+      <c r="Y41" s="1"/>
       <c r="Z41" s="1" t="s">
         <v>381</v>
       </c>
       <c r="AA41" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AB41" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="AB41" s="1" t="s">
+      <c r="AC41" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="AC41" s="1" t="s">
+      <c r="AD41" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>389</v>
       </c>
@@ -8081,23 +8191,24 @@
       </c>
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
-      <c r="Y42" s="1" t="s">
-        <v>390</v>
-      </c>
+      <c r="Y42" s="1"/>
       <c r="Z42" s="1" t="s">
         <v>390</v>
       </c>
       <c r="AA42" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="AB42" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="AB42" s="1" t="s">
+      <c r="AC42" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="AC42" s="1" t="s">
+      <c r="AD42" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>398</v>
       </c>
@@ -8166,23 +8277,24 @@
       </c>
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
-      <c r="Y43" s="1" t="s">
-        <v>399</v>
-      </c>
+      <c r="Y43" s="1"/>
       <c r="Z43" s="1" t="s">
         <v>399</v>
       </c>
       <c r="AA43" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB43" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="AB43" s="1" t="s">
+      <c r="AC43" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="AC43" s="1" t="s">
+      <c r="AD43" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>407</v>
       </c>
@@ -8250,23 +8362,23 @@
         <v>414</v>
       </c>
       <c r="W44" s="1"/>
-      <c r="Y44" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="Z44" s="1" t="s">
         <v>408</v>
       </c>
       <c r="AA44" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="AB44" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="AB44" s="1" t="s">
+      <c r="AC44" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="AC44" s="1" t="s">
+      <c r="AD44" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>416</v>
       </c>
@@ -8335,23 +8447,24 @@
       </c>
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
-      <c r="Y45" s="1" t="s">
-        <v>417</v>
-      </c>
+      <c r="Y45" s="1"/>
       <c r="Z45" s="1" t="s">
         <v>417</v>
       </c>
       <c r="AA45" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="AB45" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="AB45" s="1" t="s">
+      <c r="AC45" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="AC45" s="1" t="s">
+      <c r="AD45" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>425</v>
       </c>
@@ -8420,23 +8533,24 @@
       </c>
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
-      <c r="Y46" s="1" t="s">
-        <v>426</v>
-      </c>
+      <c r="Y46" s="1"/>
       <c r="Z46" s="1" t="s">
         <v>426</v>
       </c>
       <c r="AA46" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="AB46" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="AB46" s="1" t="s">
+      <c r="AC46" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="AC46" s="1" t="s">
+      <c r="AD46" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>434</v>
       </c>
@@ -8504,23 +8618,23 @@
         <v>441</v>
       </c>
       <c r="W47" s="1"/>
-      <c r="Y47" s="1" t="s">
-        <v>435</v>
-      </c>
       <c r="Z47" s="1" t="s">
         <v>435</v>
       </c>
       <c r="AA47" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="AB47" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="AB47" s="1" t="s">
+      <c r="AC47" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="AC47" s="1" t="s">
+      <c r="AD47" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>443</v>
       </c>
@@ -8588,23 +8702,23 @@
         <v>450</v>
       </c>
       <c r="W48" s="1"/>
-      <c r="Y48" s="1" t="s">
-        <v>444</v>
-      </c>
       <c r="Z48" s="1" t="s">
         <v>444</v>
       </c>
       <c r="AA48" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="AB48" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="AB48" s="1" t="s">
+      <c r="AC48" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="AC48" s="1" t="s">
+      <c r="AD48" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>452</v>
       </c>
@@ -8673,23 +8787,24 @@
       </c>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
-      <c r="Y49" s="1" t="s">
-        <v>453</v>
-      </c>
+      <c r="Y49" s="1"/>
       <c r="Z49" s="1" t="s">
         <v>453</v>
       </c>
       <c r="AA49" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="AB49" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="AB49" s="1" t="s">
+      <c r="AC49" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="AC49" s="1" t="s">
+      <c r="AD49" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>461</v>
       </c>
@@ -8757,23 +8872,23 @@
         <v>468</v>
       </c>
       <c r="W50" s="1"/>
-      <c r="Y50" s="1" t="s">
-        <v>462</v>
-      </c>
       <c r="Z50" s="1" t="s">
         <v>462</v>
       </c>
       <c r="AA50" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="AB50" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="AB50" s="1" t="s">
+      <c r="AC50" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="AC50" s="1" t="s">
+      <c r="AD50" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>470</v>
       </c>
@@ -8841,23 +8956,23 @@
         <v>477</v>
       </c>
       <c r="W51" s="1"/>
-      <c r="Y51" s="1" t="s">
-        <v>471</v>
-      </c>
       <c r="Z51" s="1" t="s">
         <v>471</v>
       </c>
       <c r="AA51" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="AB51" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="AB51" s="1" t="s">
+      <c r="AC51" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="AC51" s="1" t="s">
+      <c r="AD51" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>479</v>
       </c>
@@ -8925,23 +9040,23 @@
         <v>486</v>
       </c>
       <c r="W52" s="1"/>
-      <c r="Y52" s="1" t="s">
-        <v>480</v>
-      </c>
       <c r="Z52" s="1" t="s">
         <v>480</v>
       </c>
       <c r="AA52" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="AB52" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="AB52" s="1" t="s">
+      <c r="AC52" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="AC52" s="1" t="s">
+      <c r="AD52" s="1" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>488</v>
       </c>
@@ -9010,23 +9125,24 @@
       </c>
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
-      <c r="Y53" s="1" t="s">
-        <v>489</v>
-      </c>
+      <c r="Y53" s="1"/>
       <c r="Z53" s="1" t="s">
         <v>489</v>
       </c>
       <c r="AA53" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="AB53" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="AB53" s="1" t="s">
+      <c r="AC53" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="AC53" s="1" t="s">
+      <c r="AD53" s="1" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>497</v>
       </c>
@@ -9095,23 +9211,24 @@
       </c>
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
-      <c r="Y54" s="1" t="s">
-        <v>498</v>
-      </c>
+      <c r="Y54" s="1"/>
       <c r="Z54" s="1" t="s">
         <v>498</v>
       </c>
       <c r="AA54" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="AB54" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="AB54" s="1" t="s">
+      <c r="AC54" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="AC54" s="1" t="s">
+      <c r="AD54" s="1" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>506</v>
       </c>
@@ -9180,23 +9297,24 @@
       </c>
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
-      <c r="Y55" s="1" t="s">
-        <v>507</v>
-      </c>
+      <c r="Y55" s="1"/>
       <c r="Z55" s="1" t="s">
         <v>507</v>
       </c>
       <c r="AA55" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="AB55" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="AB55" s="1" t="s">
+      <c r="AC55" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="AC55" s="1" t="s">
+      <c r="AD55" s="1" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>515</v>
       </c>
@@ -9264,23 +9382,23 @@
         <v>522</v>
       </c>
       <c r="W56" s="1"/>
-      <c r="Y56" s="1" t="s">
-        <v>516</v>
-      </c>
       <c r="Z56" s="1" t="s">
         <v>516</v>
       </c>
       <c r="AA56" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="AB56" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="AB56" s="1" t="s">
+      <c r="AC56" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="AC56" s="1" t="s">
+      <c r="AD56" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>524</v>
       </c>
@@ -9349,23 +9467,24 @@
       </c>
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
-      <c r="Y57" s="1" t="s">
-        <v>525</v>
-      </c>
+      <c r="Y57" s="1"/>
       <c r="Z57" s="1" t="s">
         <v>525</v>
       </c>
       <c r="AA57" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="AB57" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="AB57" s="1" t="s">
+      <c r="AC57" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="AC57" s="1" t="s">
+      <c r="AD57" s="1" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>533</v>
       </c>
@@ -9434,23 +9553,24 @@
       </c>
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
-      <c r="Y58" s="1" t="s">
-        <v>534</v>
-      </c>
+      <c r="Y58" s="1"/>
       <c r="Z58" s="1" t="s">
         <v>534</v>
       </c>
       <c r="AA58" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="AB58" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="AB58" s="1" t="s">
+      <c r="AC58" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="AC58" s="1" t="s">
+      <c r="AD58" s="1" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>542</v>
       </c>
@@ -9518,23 +9638,23 @@
         <v>549</v>
       </c>
       <c r="W59" s="1"/>
-      <c r="Y59" s="1" t="s">
-        <v>543</v>
-      </c>
       <c r="Z59" s="1" t="s">
         <v>543</v>
       </c>
       <c r="AA59" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="AB59" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="AB59" s="1" t="s">
+      <c r="AC59" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="AC59" s="1" t="s">
+      <c r="AD59" s="1" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>551</v>
       </c>
@@ -9603,23 +9723,24 @@
       </c>
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
-      <c r="Y60" s="1" t="s">
-        <v>552</v>
-      </c>
+      <c r="Y60" s="1"/>
       <c r="Z60" s="1" t="s">
         <v>552</v>
       </c>
       <c r="AA60" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB60" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="AB60" s="1" t="s">
+      <c r="AC60" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="AC60" s="1" t="s">
+      <c r="AD60" s="1" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>560</v>
       </c>
@@ -9687,23 +9808,23 @@
         <v>567</v>
       </c>
       <c r="W61" s="1"/>
-      <c r="Y61" s="1" t="s">
-        <v>561</v>
-      </c>
       <c r="Z61" s="1" t="s">
         <v>561</v>
       </c>
       <c r="AA61" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="AB61" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="AB61" s="1" t="s">
+      <c r="AC61" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="AC61" s="1" t="s">
+      <c r="AD61" s="1" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>569</v>
       </c>
@@ -9771,23 +9892,23 @@
         <v>576</v>
       </c>
       <c r="W62" s="1"/>
-      <c r="Y62" s="1" t="s">
-        <v>570</v>
-      </c>
       <c r="Z62" s="1" t="s">
         <v>570</v>
       </c>
       <c r="AA62" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="AB62" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="AB62" s="1" t="s">
+      <c r="AC62" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="AC62" s="1" t="s">
+      <c r="AD62" s="1" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>578</v>
       </c>
@@ -9855,23 +9976,23 @@
         <v>585</v>
       </c>
       <c r="W63" s="1"/>
-      <c r="Y63" s="1" t="s">
-        <v>579</v>
-      </c>
       <c r="Z63" s="1" t="s">
         <v>579</v>
       </c>
       <c r="AA63" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="AB63" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="AB63" s="1" t="s">
+      <c r="AC63" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="AC63" s="1" t="s">
+      <c r="AD63" s="1" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>587</v>
       </c>
@@ -9939,23 +10060,23 @@
         <v>594</v>
       </c>
       <c r="W64" s="1"/>
-      <c r="Y64" s="1" t="s">
-        <v>588</v>
-      </c>
       <c r="Z64" s="1" t="s">
         <v>588</v>
       </c>
       <c r="AA64" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="AB64" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="AB64" s="1" t="s">
+      <c r="AC64" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="AC64" s="1" t="s">
+      <c r="AD64" s="1" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>596</v>
       </c>
@@ -10023,23 +10144,23 @@
         <v>601</v>
       </c>
       <c r="W65" s="1"/>
-      <c r="Y65" s="1" t="s">
-        <v>597</v>
-      </c>
       <c r="Z65" s="1" t="s">
         <v>597</v>
       </c>
       <c r="AA65" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="AB65" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="AB65" s="1" t="s">
+      <c r="AC65" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="AC65" s="1" t="s">
+      <c r="AD65" s="1" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>604</v>
       </c>
@@ -10107,23 +10228,23 @@
         <v>609</v>
       </c>
       <c r="W66" s="1"/>
-      <c r="Y66" s="1" t="s">
-        <v>605</v>
-      </c>
       <c r="Z66" s="1" t="s">
         <v>605</v>
       </c>
       <c r="AA66" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="AB66" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="AB66" s="1" t="s">
+      <c r="AC66" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="AC66" s="1" t="s">
+      <c r="AD66" s="1" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>612</v>
       </c>
@@ -10191,23 +10312,23 @@
         <v>617</v>
       </c>
       <c r="W67" s="1"/>
-      <c r="Y67" s="1" t="s">
-        <v>613</v>
-      </c>
       <c r="Z67" s="1" t="s">
         <v>613</v>
       </c>
       <c r="AA67" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="AB67" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="AB67" s="1" t="s">
+      <c r="AC67" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="AC67" s="1" t="s">
+      <c r="AD67" s="1" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>620</v>
       </c>
@@ -10275,23 +10396,23 @@
         <v>625</v>
       </c>
       <c r="W68" s="1"/>
-      <c r="Y68" s="1" t="s">
-        <v>621</v>
-      </c>
       <c r="Z68" s="1" t="s">
         <v>621</v>
       </c>
       <c r="AA68" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="AB68" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="AB68" s="1" t="s">
+      <c r="AC68" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="AC68" s="1" t="s">
+      <c r="AD68" s="1" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>628</v>
       </c>
@@ -10359,23 +10480,23 @@
         <v>633</v>
       </c>
       <c r="W69" s="1"/>
-      <c r="Y69" s="1" t="s">
-        <v>629</v>
-      </c>
       <c r="Z69" s="1" t="s">
         <v>629</v>
       </c>
       <c r="AA69" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="AB69" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="AB69" s="1" t="s">
+      <c r="AC69" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="AC69" s="1" t="s">
+      <c r="AD69" s="1" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>636</v>
       </c>
@@ -10443,23 +10564,23 @@
         <v>641</v>
       </c>
       <c r="W70" s="1"/>
-      <c r="Y70" s="1" t="s">
-        <v>637</v>
-      </c>
       <c r="Z70" s="1" t="s">
         <v>637</v>
       </c>
       <c r="AA70" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="AB70" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="AB70" s="1" t="s">
+      <c r="AC70" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="AC70" s="1" t="s">
+      <c r="AD70" s="1" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>644</v>
       </c>
@@ -10528,23 +10649,24 @@
       </c>
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
-      <c r="Y71" s="1" t="s">
-        <v>645</v>
-      </c>
+      <c r="Y71" s="1"/>
       <c r="Z71" s="1" t="s">
         <v>645</v>
       </c>
       <c r="AA71" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AB71" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="AB71" s="1" t="s">
+      <c r="AC71" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AC71" s="1" t="s">
+      <c r="AD71" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>652</v>
       </c>
@@ -10613,23 +10735,24 @@
       </c>
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
-      <c r="Y72" s="1" t="s">
-        <v>653</v>
-      </c>
+      <c r="Y72" s="1"/>
       <c r="Z72" s="1" t="s">
         <v>653</v>
       </c>
       <c r="AA72" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="AB72" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="AB72" s="1" t="s">
+      <c r="AC72" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="AC72" s="1" t="s">
+      <c r="AD72" s="1" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>660</v>
       </c>
@@ -10698,23 +10821,24 @@
       </c>
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
-      <c r="Y73" s="1" t="s">
-        <v>661</v>
-      </c>
+      <c r="Y73" s="1"/>
       <c r="Z73" s="1" t="s">
         <v>661</v>
       </c>
       <c r="AA73" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="AB73" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="AB73" s="1" t="s">
+      <c r="AC73" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="AC73" s="1" t="s">
+      <c r="AD73" s="1" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>668</v>
       </c>
@@ -10782,23 +10906,23 @@
         <v>673</v>
       </c>
       <c r="W74" s="1"/>
-      <c r="Y74" s="1" t="s">
-        <v>669</v>
-      </c>
       <c r="Z74" s="1" t="s">
         <v>669</v>
       </c>
       <c r="AA74" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="AB74" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="AB74" s="1" t="s">
+      <c r="AC74" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="AC74" s="1" t="s">
+      <c r="AD74" s="1" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>676</v>
       </c>
@@ -10867,23 +10991,24 @@
       </c>
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
-      <c r="Y75" s="1" t="s">
-        <v>677</v>
-      </c>
+      <c r="Y75" s="1"/>
       <c r="Z75" s="1" t="s">
         <v>677</v>
       </c>
       <c r="AA75" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="AB75" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="AB75" s="1" t="s">
+      <c r="AC75" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="AC75" s="1" t="s">
+      <c r="AD75" s="1" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>684</v>
       </c>
@@ -10952,23 +11077,24 @@
       </c>
       <c r="W76" s="1"/>
       <c r="X76" s="1"/>
-      <c r="Y76" s="1" t="s">
-        <v>685</v>
-      </c>
+      <c r="Y76" s="1"/>
       <c r="Z76" s="1" t="s">
         <v>685</v>
       </c>
       <c r="AA76" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="AB76" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="AB76" s="1" t="s">
+      <c r="AC76" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="AC76" s="1" t="s">
+      <c r="AD76" s="1" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>692</v>
       </c>
@@ -11036,23 +11162,23 @@
         <v>697</v>
       </c>
       <c r="W77" s="1"/>
-      <c r="Y77" s="1" t="s">
-        <v>693</v>
-      </c>
       <c r="Z77" s="1" t="s">
         <v>693</v>
       </c>
       <c r="AA77" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="AB77" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="AB77" s="1" t="s">
+      <c r="AC77" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="AC77" s="1" t="s">
+      <c r="AD77" s="1" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>700</v>
       </c>
@@ -11120,23 +11246,23 @@
         <v>705</v>
       </c>
       <c r="W78" s="1"/>
-      <c r="Y78" s="1" t="s">
-        <v>701</v>
-      </c>
       <c r="Z78" s="1" t="s">
         <v>701</v>
       </c>
       <c r="AA78" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="AB78" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="AB78" s="1" t="s">
+      <c r="AC78" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="AC78" s="1" t="s">
+      <c r="AD78" s="1" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>708</v>
       </c>
@@ -11204,23 +11330,23 @@
         <v>713</v>
       </c>
       <c r="W79" s="1"/>
-      <c r="Y79" s="1" t="s">
-        <v>709</v>
-      </c>
       <c r="Z79" s="1" t="s">
         <v>709</v>
       </c>
       <c r="AA79" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="AB79" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="AB79" s="1" t="s">
+      <c r="AC79" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="AC79" s="1" t="s">
+      <c r="AD79" s="1" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>716</v>
       </c>
@@ -11288,23 +11414,23 @@
         <v>625</v>
       </c>
       <c r="W80" s="1"/>
-      <c r="Y80" s="1" t="s">
-        <v>621</v>
-      </c>
       <c r="Z80" s="1" t="s">
         <v>621</v>
       </c>
       <c r="AA80" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="AB80" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="AB80" s="1" t="s">
+      <c r="AC80" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="AC80" s="1" t="s">
+      <c r="AD80" s="1" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>717</v>
       </c>
@@ -11372,23 +11498,23 @@
         <v>633</v>
       </c>
       <c r="W81" s="1"/>
-      <c r="Y81" s="1" t="s">
-        <v>629</v>
-      </c>
       <c r="Z81" s="1" t="s">
         <v>629</v>
       </c>
       <c r="AA81" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="AB81" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="AB81" s="1" t="s">
+      <c r="AC81" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="AC81" s="1" t="s">
+      <c r="AD81" s="1" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>718</v>
       </c>
@@ -11456,23 +11582,23 @@
         <v>641</v>
       </c>
       <c r="W82" s="1"/>
-      <c r="Y82" s="1" t="s">
-        <v>637</v>
-      </c>
       <c r="Z82" s="1" t="s">
         <v>637</v>
       </c>
       <c r="AA82" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="AB82" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="AB82" s="1" t="s">
+      <c r="AC82" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="AC82" s="1" t="s">
+      <c r="AD82" s="1" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>719</v>
       </c>
@@ -11541,23 +11667,24 @@
       </c>
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
-      <c r="Y83" s="1" t="s">
-        <v>720</v>
-      </c>
+      <c r="Y83" s="1"/>
       <c r="Z83" s="1" t="s">
         <v>720</v>
       </c>
       <c r="AA83" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="AB83" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="AB83" s="1" t="s">
+      <c r="AC83" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="AC83" s="1" t="s">
+      <c r="AD83" s="1" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>727</v>
       </c>
@@ -11626,23 +11753,24 @@
       </c>
       <c r="W84" s="1"/>
       <c r="X84" s="1"/>
-      <c r="Y84" s="1" t="s">
-        <v>728</v>
-      </c>
+      <c r="Y84" s="1"/>
       <c r="Z84" s="1" t="s">
         <v>728</v>
       </c>
       <c r="AA84" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="AB84" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="AB84" s="1" t="s">
+      <c r="AC84" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="AC84" s="1" t="s">
+      <c r="AD84" s="1" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>735</v>
       </c>
@@ -11711,23 +11839,24 @@
       </c>
       <c r="W85" s="1"/>
       <c r="X85" s="1"/>
-      <c r="Y85" s="1" t="s">
-        <v>736</v>
-      </c>
+      <c r="Y85" s="1"/>
       <c r="Z85" s="1" t="s">
         <v>736</v>
       </c>
       <c r="AA85" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="AB85" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="AB85" s="1" t="s">
+      <c r="AC85" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="AC85" s="1" t="s">
+      <c r="AD85" s="1" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>743</v>
       </c>
@@ -11795,23 +11924,23 @@
         <v>748</v>
       </c>
       <c r="W86" s="1"/>
-      <c r="Y86" s="1" t="s">
-        <v>744</v>
-      </c>
       <c r="Z86" s="1" t="s">
         <v>744</v>
       </c>
       <c r="AA86" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="AB86" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="AB86" s="1" t="s">
+      <c r="AC86" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="AC86" s="1" t="s">
+      <c r="AD86" s="1" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>751</v>
       </c>
@@ -11880,23 +12009,24 @@
       </c>
       <c r="W87" s="1"/>
       <c r="X87" s="1"/>
-      <c r="Y87" s="1" t="s">
-        <v>752</v>
-      </c>
+      <c r="Y87" s="1"/>
       <c r="Z87" s="1" t="s">
         <v>752</v>
       </c>
       <c r="AA87" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="AB87" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="AB87" s="1" t="s">
+      <c r="AC87" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="AC87" s="1" t="s">
+      <c r="AD87" s="1" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>759</v>
       </c>
@@ -11965,23 +12095,24 @@
       </c>
       <c r="W88" s="1"/>
       <c r="X88" s="1"/>
-      <c r="Y88" s="1" t="s">
-        <v>760</v>
-      </c>
+      <c r="Y88" s="1"/>
       <c r="Z88" s="1" t="s">
         <v>760</v>
       </c>
       <c r="AA88" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="AB88" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="AB88" s="1" t="s">
+      <c r="AC88" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="AC88" s="1" t="s">
+      <c r="AD88" s="1" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>767</v>
       </c>
@@ -12050,23 +12181,24 @@
       </c>
       <c r="W89" s="1"/>
       <c r="X89" s="1"/>
-      <c r="Y89" s="1" t="s">
-        <v>178</v>
-      </c>
+      <c r="Y89" s="1"/>
       <c r="Z89" s="1" t="s">
         <v>178</v>
       </c>
       <c r="AA89" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB89" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="AB89" s="1" t="s">
+      <c r="AC89" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="AC89" s="1" t="s">
+      <c r="AD89" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>775</v>
       </c>
@@ -12135,23 +12267,24 @@
       </c>
       <c r="W90" s="1"/>
       <c r="X90" s="1"/>
-      <c r="Y90" s="1" t="s">
-        <v>301</v>
-      </c>
+      <c r="Y90" s="1"/>
       <c r="Z90" s="1" t="s">
         <v>301</v>
       </c>
       <c r="AA90" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AB90" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="AB90" s="1" t="s">
+      <c r="AC90" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="AC90" s="1" t="s">
+      <c r="AD90" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>783</v>
       </c>
@@ -12220,23 +12353,24 @@
       </c>
       <c r="W91" s="1"/>
       <c r="X91" s="1"/>
-      <c r="Y91" s="1" t="s">
-        <v>1344</v>
-      </c>
+      <c r="Y91" s="1"/>
       <c r="Z91" s="1" t="s">
         <v>1344</v>
       </c>
       <c r="AA91" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="AB91" s="1" t="s">
         <v>1349</v>
       </c>
-      <c r="AB91" s="1" t="s">
+      <c r="AC91" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="AC91" s="1" t="s">
+      <c r="AD91" s="1" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>785</v>
       </c>
@@ -12305,23 +12439,24 @@
       </c>
       <c r="W92" s="1"/>
       <c r="X92" s="1"/>
-      <c r="Y92" s="1" t="s">
-        <v>203</v>
-      </c>
+      <c r="Y92" s="1"/>
       <c r="Z92" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AA92" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB92" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="AB92" s="1" t="s">
+      <c r="AC92" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="AC92" s="1" t="s">
+      <c r="AD92" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>793</v>
       </c>
@@ -12390,23 +12525,24 @@
       </c>
       <c r="W93" s="1"/>
       <c r="X93" s="1"/>
-      <c r="Y93" s="1" t="s">
-        <v>212</v>
-      </c>
+      <c r="Y93" s="1"/>
       <c r="Z93" s="1" t="s">
         <v>212</v>
       </c>
       <c r="AA93" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB93" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="AB93" s="1" t="s">
+      <c r="AC93" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="AC93" s="1" t="s">
+      <c r="AD93" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>801</v>
       </c>
@@ -12475,23 +12611,24 @@
       </c>
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
-      <c r="Y94" s="1" t="s">
-        <v>221</v>
-      </c>
+      <c r="Y94" s="1"/>
       <c r="Z94" s="1" t="s">
         <v>221</v>
       </c>
       <c r="AA94" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB94" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="AB94" s="1" t="s">
+      <c r="AC94" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="AC94" s="1" t="s">
+      <c r="AD94" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>809</v>
       </c>
@@ -12560,23 +12697,24 @@
       </c>
       <c r="W95" s="1"/>
       <c r="X95" s="1"/>
-      <c r="Y95" s="1" t="s">
-        <v>230</v>
-      </c>
+      <c r="Y95" s="1"/>
       <c r="Z95" s="1" t="s">
         <v>230</v>
       </c>
       <c r="AA95" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB95" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="AB95" s="1" t="s">
+      <c r="AC95" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="AC95" s="1" t="s">
+      <c r="AD95" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>817</v>
       </c>
@@ -12645,23 +12783,24 @@
       </c>
       <c r="W96" s="1"/>
       <c r="X96" s="1"/>
-      <c r="Y96" s="1" t="s">
-        <v>352</v>
-      </c>
+      <c r="Y96" s="1"/>
       <c r="Z96" s="1" t="s">
         <v>352</v>
       </c>
       <c r="AA96" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB96" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="AB96" s="1" t="s">
+      <c r="AC96" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="AC96" s="1" t="s">
+      <c r="AD96" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>825</v>
       </c>
@@ -12730,23 +12869,24 @@
       </c>
       <c r="W97" s="1"/>
       <c r="X97" s="1"/>
-      <c r="Y97" s="1" t="s">
-        <v>1350</v>
-      </c>
+      <c r="Y97" s="1"/>
       <c r="Z97" s="1" t="s">
         <v>1350</v>
       </c>
       <c r="AA97" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="AB97" s="1" t="s">
         <v>1355</v>
       </c>
-      <c r="AB97" s="1" t="s">
+      <c r="AC97" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="AC97" s="1" t="s">
+      <c r="AD97" s="1" t="s">
         <v>1350</v>
       </c>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>828</v>
       </c>
@@ -12815,23 +12955,24 @@
       </c>
       <c r="W98" s="1"/>
       <c r="X98" s="1"/>
-      <c r="Y98" s="1" t="s">
-        <v>256</v>
-      </c>
+      <c r="Y98" s="1"/>
       <c r="Z98" s="1" t="s">
         <v>256</v>
       </c>
       <c r="AA98" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB98" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="AB98" s="1" t="s">
+      <c r="AC98" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="AC98" s="1" t="s">
+      <c r="AD98" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>836</v>
       </c>
@@ -12900,23 +13041,24 @@
       </c>
       <c r="W99" s="1"/>
       <c r="X99" s="1"/>
-      <c r="Y99" s="1" t="s">
-        <v>265</v>
-      </c>
+      <c r="Y99" s="1"/>
       <c r="Z99" s="1" t="s">
         <v>265</v>
       </c>
       <c r="AA99" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB99" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="AB99" s="1" t="s">
+      <c r="AC99" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="AC99" s="1" t="s">
+      <c r="AD99" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>844</v>
       </c>
@@ -12985,23 +13127,24 @@
       </c>
       <c r="W100" s="1"/>
       <c r="X100" s="1"/>
-      <c r="Y100" s="1" t="s">
-        <v>274</v>
-      </c>
+      <c r="Y100" s="1"/>
       <c r="Z100" s="1" t="s">
         <v>274</v>
       </c>
       <c r="AA100" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB100" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="AB100" s="1" t="s">
+      <c r="AC100" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="AC100" s="1" t="s">
+      <c r="AD100" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>852</v>
       </c>
@@ -13070,23 +13213,24 @@
       </c>
       <c r="W101" s="1"/>
       <c r="X101" s="1"/>
-      <c r="Y101" s="1" t="s">
-        <v>179</v>
-      </c>
+      <c r="Y101" s="1"/>
       <c r="Z101" s="1" t="s">
         <v>179</v>
       </c>
       <c r="AA101" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB101" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="AB101" s="1" t="s">
+      <c r="AC101" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="AC101" s="1" t="s">
+      <c r="AD101" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>859</v>
       </c>
@@ -13155,23 +13299,24 @@
       </c>
       <c r="W102" s="1"/>
       <c r="X102" s="1"/>
-      <c r="Y102" s="1" t="s">
-        <v>188</v>
-      </c>
+      <c r="Y102" s="1"/>
       <c r="Z102" s="1" t="s">
         <v>188</v>
       </c>
       <c r="AA102" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB102" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="AB102" s="1" t="s">
+      <c r="AC102" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="AC102" s="1" t="s">
+      <c r="AD102" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>866</v>
       </c>
@@ -13240,23 +13385,24 @@
       </c>
       <c r="W103" s="1"/>
       <c r="X103" s="1"/>
-      <c r="Y103" s="1" t="s">
-        <v>168</v>
-      </c>
+      <c r="Y103" s="1"/>
       <c r="Z103" s="1" t="s">
         <v>168</v>
       </c>
       <c r="AA103" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB103" s="1" t="s">
         <v>1285</v>
       </c>
-      <c r="AB103" s="1" t="s">
+      <c r="AC103" s="1" t="s">
         <v>1283</v>
       </c>
-      <c r="AC103" s="1" t="s">
+      <c r="AD103" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>867</v>
       </c>
@@ -13325,23 +13471,24 @@
       </c>
       <c r="W104" s="1"/>
       <c r="X104" s="1"/>
-      <c r="Y104" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="Y104" s="1"/>
       <c r="Z104" s="1" t="s">
         <v>204</v>
       </c>
       <c r="AA104" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB104" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="AB104" s="1" t="s">
+      <c r="AC104" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="AC104" s="1" t="s">
+      <c r="AD104" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>874</v>
       </c>
@@ -13410,23 +13557,24 @@
       </c>
       <c r="W105" s="1"/>
       <c r="X105" s="1"/>
-      <c r="Y105" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="Y105" s="1"/>
       <c r="Z105" s="1" t="s">
         <v>213</v>
       </c>
       <c r="AA105" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB105" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="AB105" s="1" t="s">
+      <c r="AC105" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="AC105" s="1" t="s">
+      <c r="AD105" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>881</v>
       </c>
@@ -13495,23 +13643,24 @@
       </c>
       <c r="W106" s="1"/>
       <c r="X106" s="1"/>
-      <c r="Y106" s="1" t="s">
-        <v>222</v>
-      </c>
+      <c r="Y106" s="1"/>
       <c r="Z106" s="1" t="s">
         <v>222</v>
       </c>
       <c r="AA106" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB106" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="AB106" s="1" t="s">
+      <c r="AC106" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="AC106" s="1" t="s">
+      <c r="AD106" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>888</v>
       </c>
@@ -13580,23 +13729,24 @@
       </c>
       <c r="W107" s="1"/>
       <c r="X107" s="1"/>
-      <c r="Y107" s="1" t="s">
-        <v>231</v>
-      </c>
+      <c r="Y107" s="1"/>
       <c r="Z107" s="1" t="s">
         <v>231</v>
       </c>
       <c r="AA107" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB107" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="AB107" s="1" t="s">
+      <c r="AC107" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="AC107" s="1" t="s">
+      <c r="AD107" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>895</v>
       </c>
@@ -13665,23 +13815,24 @@
       </c>
       <c r="W108" s="1"/>
       <c r="X108" s="1"/>
-      <c r="Y108" s="1" t="s">
-        <v>240</v>
-      </c>
+      <c r="Y108" s="1"/>
       <c r="Z108" s="1" t="s">
         <v>240</v>
       </c>
       <c r="AA108" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB108" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="AB108" s="1" t="s">
+      <c r="AC108" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="AC108" s="1" t="s">
+      <c r="AD108" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>902</v>
       </c>
@@ -13750,23 +13901,24 @@
       </c>
       <c r="W109" s="1"/>
       <c r="X109" s="1"/>
-      <c r="Y109" s="1" t="s">
-        <v>248</v>
-      </c>
+      <c r="Y109" s="1"/>
       <c r="Z109" s="1" t="s">
         <v>248</v>
       </c>
       <c r="AA109" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AB109" s="1" t="s">
         <v>1289</v>
       </c>
-      <c r="AB109" s="1" t="s">
+      <c r="AC109" s="1" t="s">
         <v>1287</v>
       </c>
-      <c r="AC109" s="1" t="s">
+      <c r="AD109" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>906</v>
       </c>
@@ -13835,23 +13987,24 @@
       </c>
       <c r="W110" s="1"/>
       <c r="X110" s="1"/>
-      <c r="Y110" s="1" t="s">
-        <v>257</v>
-      </c>
+      <c r="Y110" s="1"/>
       <c r="Z110" s="1" t="s">
         <v>257</v>
       </c>
       <c r="AA110" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AB110" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="AB110" s="1" t="s">
+      <c r="AC110" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="AC110" s="1" t="s">
+      <c r="AD110" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>913</v>
       </c>
@@ -13920,23 +14073,24 @@
       </c>
       <c r="W111" s="1"/>
       <c r="X111" s="1"/>
-      <c r="Y111" s="1" t="s">
-        <v>266</v>
-      </c>
+      <c r="Y111" s="1"/>
       <c r="Z111" s="1" t="s">
         <v>266</v>
       </c>
       <c r="AA111" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB111" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="AB111" s="1" t="s">
+      <c r="AC111" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="AC111" s="1" t="s">
+      <c r="AD111" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>920</v>
       </c>
@@ -14005,23 +14159,24 @@
       </c>
       <c r="W112" s="1"/>
       <c r="X112" s="1"/>
-      <c r="Y112" s="1" t="s">
-        <v>275</v>
-      </c>
+      <c r="Y112" s="1"/>
       <c r="Z112" s="1" t="s">
         <v>275</v>
       </c>
       <c r="AA112" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB112" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="AB112" s="1" t="s">
+      <c r="AC112" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="AC112" s="1" t="s">
+      <c r="AD112" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>927</v>
       </c>
@@ -14090,23 +14245,24 @@
       </c>
       <c r="W113" s="1"/>
       <c r="X113" s="1"/>
-      <c r="Y113" s="1" t="s">
-        <v>284</v>
-      </c>
+      <c r="Y113" s="1"/>
       <c r="Z113" s="1" t="s">
         <v>284</v>
       </c>
       <c r="AA113" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB113" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="AB113" s="1" t="s">
+      <c r="AC113" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="AC113" s="1" t="s">
+      <c r="AD113" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>934</v>
       </c>
@@ -14175,23 +14331,24 @@
       </c>
       <c r="W114" s="1"/>
       <c r="X114" s="1"/>
-      <c r="Y114" s="1" t="s">
-        <v>293</v>
-      </c>
+      <c r="Y114" s="1"/>
       <c r="Z114" s="1" t="s">
         <v>293</v>
       </c>
       <c r="AA114" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AB114" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="AB114" s="1" t="s">
+      <c r="AC114" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="AC114" s="1" t="s">
+      <c r="AD114" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>941</v>
       </c>
@@ -14260,23 +14417,24 @@
       </c>
       <c r="W115" s="1"/>
       <c r="X115" s="1"/>
-      <c r="Y115" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="Y115" s="1"/>
       <c r="Z115" s="1" t="s">
         <v>151</v>
       </c>
       <c r="AA115" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB115" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="AB115" s="1" t="s">
+      <c r="AC115" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="AC115" s="1" t="s">
+      <c r="AD115" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>948</v>
       </c>
@@ -14345,23 +14503,24 @@
       </c>
       <c r="W116" s="1"/>
       <c r="X116" s="1"/>
-      <c r="Y116" s="1" t="s">
-        <v>310</v>
-      </c>
+      <c r="Y116" s="1"/>
       <c r="Z116" s="1" t="s">
         <v>310</v>
       </c>
       <c r="AA116" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AB116" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="AB116" s="1" t="s">
+      <c r="AC116" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="AC116" s="1" t="s">
+      <c r="AD116" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>955</v>
       </c>
@@ -14430,23 +14589,24 @@
       </c>
       <c r="W117" s="1"/>
       <c r="X117" s="1"/>
-      <c r="Y117" s="1" t="s">
-        <v>319</v>
-      </c>
+      <c r="Y117" s="1"/>
       <c r="Z117" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AA117" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB117" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="AB117" s="1" t="s">
+      <c r="AC117" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="AC117" s="1" t="s">
+      <c r="AD117" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>962</v>
       </c>
@@ -14515,23 +14675,24 @@
       </c>
       <c r="W118" s="1"/>
       <c r="X118" s="1"/>
-      <c r="Y118" s="1" t="s">
-        <v>963</v>
-      </c>
+      <c r="Y118" s="1"/>
       <c r="Z118" s="1" t="s">
         <v>963</v>
       </c>
       <c r="AA118" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="AB118" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="AB118" s="1" t="s">
+      <c r="AC118" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="AC118" s="1" t="s">
+      <c r="AD118" s="1" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>971</v>
       </c>
@@ -14600,23 +14761,24 @@
       </c>
       <c r="W119" s="1"/>
       <c r="X119" s="1"/>
-      <c r="Y119" s="1" t="s">
-        <v>335</v>
-      </c>
+      <c r="Y119" s="1"/>
       <c r="Z119" s="1" t="s">
         <v>335</v>
       </c>
       <c r="AA119" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="AB119" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="AB119" s="1" t="s">
+      <c r="AC119" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="AC119" s="1" t="s">
+      <c r="AD119" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>978</v>
       </c>
@@ -14685,23 +14847,24 @@
       </c>
       <c r="W120" s="1"/>
       <c r="X120" s="1"/>
-      <c r="Y120" s="1" t="s">
-        <v>344</v>
-      </c>
+      <c r="Y120" s="1"/>
       <c r="Z120" s="1" t="s">
         <v>344</v>
       </c>
       <c r="AA120" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AB120" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="AB120" s="1" t="s">
+      <c r="AC120" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="AC120" s="1" t="s">
+      <c r="AD120" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>985</v>
       </c>
@@ -14770,23 +14933,24 @@
       </c>
       <c r="W121" s="1"/>
       <c r="X121" s="1"/>
-      <c r="Y121" s="1" t="s">
-        <v>353</v>
-      </c>
+      <c r="Y121" s="1"/>
       <c r="Z121" s="1" t="s">
         <v>353</v>
       </c>
       <c r="AA121" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AB121" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="AB121" s="1" t="s">
+      <c r="AC121" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="AC121" s="1" t="s">
+      <c r="AD121" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>992</v>
       </c>
@@ -14854,23 +15018,23 @@
         <v>997</v>
       </c>
       <c r="W122" s="1"/>
-      <c r="Y122" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="Z122" s="1" t="s">
         <v>362</v>
       </c>
       <c r="AA122" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AB122" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="AB122" s="1" t="s">
+      <c r="AC122" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="AC122" s="1" t="s">
+      <c r="AD122" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>999</v>
       </c>
@@ -14939,23 +15103,24 @@
       </c>
       <c r="W123" s="1"/>
       <c r="X123" s="1"/>
-      <c r="Y123" s="1" t="s">
-        <v>371</v>
-      </c>
+      <c r="Y123" s="1"/>
       <c r="Z123" s="1" t="s">
         <v>371</v>
       </c>
       <c r="AA123" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB123" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="AB123" s="1" t="s">
+      <c r="AC123" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="AC123" s="1" t="s">
+      <c r="AD123" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>1006</v>
       </c>
@@ -15024,23 +15189,24 @@
       </c>
       <c r="W124" s="1"/>
       <c r="X124" s="1"/>
-      <c r="Y124" s="1" t="s">
-        <v>1007</v>
-      </c>
+      <c r="Y124" s="1"/>
       <c r="Z124" s="1" t="s">
         <v>1007</v>
       </c>
       <c r="AA124" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AB124" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="AB124" s="1" t="s">
+      <c r="AC124" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="AC124" s="1" t="s">
+      <c r="AD124" s="1" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>1015</v>
       </c>
@@ -15109,23 +15275,24 @@
       </c>
       <c r="W125" s="1"/>
       <c r="X125" s="1"/>
-      <c r="Y125" s="1" t="s">
+      <c r="Y125" s="1"/>
+      <c r="Z125" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="Z125" s="1" t="s">
+      <c r="AA125" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="AA125" s="1" t="s">
+      <c r="AB125" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="AB125" s="1" t="s">
+      <c r="AC125" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="AC125" s="1" t="s">
+      <c r="AD125" s="1" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>1030</v>
       </c>
@@ -15194,23 +15361,24 @@
       </c>
       <c r="W126" s="1"/>
       <c r="X126" s="1"/>
-      <c r="Y126" s="1" t="s">
+      <c r="Y126" s="1"/>
+      <c r="Z126" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="Z126" s="1" t="s">
+      <c r="AA126" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="AA126" s="1" t="s">
+      <c r="AB126" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="AB126" s="1" t="s">
+      <c r="AC126" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="AC126" s="1" t="s">
+      <c r="AD126" s="1" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>1045</v>
       </c>
@@ -15279,23 +15447,24 @@
       </c>
       <c r="W127" s="1"/>
       <c r="X127" s="1"/>
-      <c r="Y127" s="1" t="s">
+      <c r="Y127" s="1"/>
+      <c r="Z127" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="Z127" s="1" t="s">
+      <c r="AA127" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="AA127" s="1" t="s">
+      <c r="AB127" s="1" t="s">
         <v>1295</v>
       </c>
-      <c r="AB127" s="1" t="s">
+      <c r="AC127" s="1" t="s">
         <v>1291</v>
       </c>
-      <c r="AC127" s="1" t="s">
+      <c r="AD127" s="1" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>1054</v>
       </c>
@@ -15363,23 +15532,23 @@
         <v>1067</v>
       </c>
       <c r="W128" s="1"/>
-      <c r="Y128" s="1" t="s">
+      <c r="Z128" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="Z128" s="1" t="s">
+      <c r="AA128" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="AA128" s="1" t="s">
+      <c r="AB128" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="AB128" s="1" t="s">
+      <c r="AC128" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="AC128" s="1" t="s">
+      <c r="AD128" s="1" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>1069</v>
       </c>
@@ -15448,23 +15617,24 @@
       </c>
       <c r="W129" s="1"/>
       <c r="X129" s="1"/>
-      <c r="Y129" s="1" t="s">
+      <c r="Y129" s="1"/>
+      <c r="Z129" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="Z129" s="1" t="s">
+      <c r="AA129" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="AA129" s="1" t="s">
+      <c r="AB129" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="AB129" s="1" t="s">
+      <c r="AC129" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="AC129" s="1" t="s">
+      <c r="AD129" s="1" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>1084</v>
       </c>
@@ -15533,23 +15703,24 @@
       </c>
       <c r="W130" s="1"/>
       <c r="X130" s="1"/>
-      <c r="Y130" s="1" t="s">
+      <c r="Y130" s="1"/>
+      <c r="Z130" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="Z130" s="1" t="s">
+      <c r="AA130" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="AA130" s="1" t="s">
+      <c r="AB130" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="AB130" s="1" t="s">
+      <c r="AC130" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="AC130" s="1" t="s">
+      <c r="AD130" s="1" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>1099</v>
       </c>
@@ -15617,23 +15788,23 @@
         <v>1302</v>
       </c>
       <c r="W131" s="1"/>
-      <c r="Y131" s="1" t="s">
-        <v>1100</v>
-      </c>
       <c r="Z131" s="1" t="s">
         <v>1100</v>
       </c>
       <c r="AA131" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="AB131" s="1" t="s">
         <v>1303</v>
       </c>
-      <c r="AB131" s="1" t="s">
+      <c r="AC131" s="1" t="s">
         <v>1301</v>
       </c>
-      <c r="AC131" s="1" t="s">
+      <c r="AD131" s="1" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>1104</v>
       </c>
@@ -15702,23 +15873,24 @@
       </c>
       <c r="W132" s="1"/>
       <c r="X132" s="1"/>
-      <c r="Y132" s="1" t="s">
-        <v>1105</v>
-      </c>
+      <c r="Y132" s="1"/>
       <c r="Z132" s="1" t="s">
         <v>1105</v>
       </c>
       <c r="AA132" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="AB132" s="1" t="s">
         <v>1307</v>
       </c>
-      <c r="AB132" s="1" t="s">
+      <c r="AC132" s="1" t="s">
         <v>1305</v>
       </c>
-      <c r="AC132" s="1" t="s">
+      <c r="AD132" s="1" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>1109</v>
       </c>
@@ -15787,23 +15959,24 @@
       </c>
       <c r="W133" s="1"/>
       <c r="X133" s="1"/>
-      <c r="Y133" s="1" t="s">
-        <v>1110</v>
-      </c>
+      <c r="Y133" s="1"/>
       <c r="Z133" s="1" t="s">
         <v>1110</v>
       </c>
       <c r="AA133" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AB133" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="AB133" s="1" t="s">
+      <c r="AC133" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="AC133" s="1" t="s">
+      <c r="AD133" s="1" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>1114</v>
       </c>
@@ -15871,23 +16044,23 @@
         <v>1310</v>
       </c>
       <c r="W134" s="1"/>
-      <c r="Y134" s="1" t="s">
-        <v>1115</v>
-      </c>
       <c r="Z134" s="1" t="s">
         <v>1115</v>
       </c>
       <c r="AA134" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="AB134" s="1" t="s">
         <v>1311</v>
       </c>
-      <c r="AB134" s="1" t="s">
+      <c r="AC134" s="1" t="s">
         <v>1309</v>
       </c>
-      <c r="AC134" s="1" t="s">
+      <c r="AD134" s="1" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="135" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>1119</v>
       </c>
@@ -15955,23 +16128,23 @@
         <v>1314</v>
       </c>
       <c r="W135" s="1"/>
-      <c r="Y135" s="1" t="s">
-        <v>1120</v>
-      </c>
       <c r="Z135" s="1" t="s">
         <v>1120</v>
       </c>
       <c r="AA135" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="AB135" s="1" t="s">
         <v>1315</v>
       </c>
-      <c r="AB135" s="1" t="s">
+      <c r="AC135" s="1" t="s">
         <v>1313</v>
       </c>
-      <c r="AC135" s="1" t="s">
+      <c r="AD135" s="1" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>1124</v>
       </c>
@@ -16040,23 +16213,24 @@
       </c>
       <c r="W136" s="1"/>
       <c r="X136" s="1"/>
-      <c r="Y136" s="1" t="s">
-        <v>1125</v>
-      </c>
+      <c r="Y136" s="1"/>
       <c r="Z136" s="1" t="s">
         <v>1125</v>
       </c>
       <c r="AA136" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="AB136" s="1" t="s">
         <v>1319</v>
       </c>
-      <c r="AB136" s="1" t="s">
+      <c r="AC136" s="1" t="s">
         <v>1317</v>
       </c>
-      <c r="AC136" s="1" t="s">
+      <c r="AD136" s="1" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>1129</v>
       </c>
@@ -16125,23 +16299,24 @@
       </c>
       <c r="W137" s="1"/>
       <c r="X137" s="1"/>
-      <c r="Y137" s="1" t="s">
+      <c r="Y137" s="1"/>
+      <c r="Z137" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="Z137" s="1" t="s">
+      <c r="AA137" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="AA137" s="1" t="s">
+      <c r="AB137" s="1" t="s">
         <v>1143</v>
       </c>
-      <c r="AB137" s="1" t="s">
+      <c r="AC137" s="1" t="s">
         <v>1133</v>
       </c>
-      <c r="AC137" s="1" t="s">
+      <c r="AD137" s="1" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>1144</v>
       </c>
@@ -16210,23 +16385,24 @@
       </c>
       <c r="W138" s="1"/>
       <c r="X138" s="1"/>
-      <c r="Y138" s="1" t="s">
+      <c r="Y138" s="1"/>
+      <c r="Z138" s="1" t="s">
         <v>1145</v>
       </c>
-      <c r="Z138" s="1" t="s">
+      <c r="AA138" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="AA138" s="1" t="s">
+      <c r="AB138" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="AB138" s="1" t="s">
+      <c r="AC138" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="AC138" s="1" t="s">
+      <c r="AD138" s="1" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>1159</v>
       </c>
@@ -16295,23 +16471,24 @@
       </c>
       <c r="W139" s="1"/>
       <c r="X139" s="1"/>
-      <c r="Y139" s="1" t="s">
+      <c r="Y139" s="1"/>
+      <c r="Z139" s="1" t="s">
         <v>1160</v>
       </c>
-      <c r="Z139" s="1" t="s">
+      <c r="AA139" s="1" t="s">
         <v>1161</v>
       </c>
-      <c r="AA139" s="1" t="s">
+      <c r="AB139" s="1" t="s">
         <v>1173</v>
       </c>
-      <c r="AB139" s="1" t="s">
+      <c r="AC139" s="1" t="s">
         <v>1163</v>
       </c>
-      <c r="AC139" s="1" t="s">
+      <c r="AD139" s="1" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>1174</v>
       </c>
@@ -16379,23 +16556,23 @@
         <v>1187</v>
       </c>
       <c r="W140" s="1"/>
-      <c r="Y140" s="1" t="s">
+      <c r="Z140" s="1" t="s">
         <v>1175</v>
       </c>
-      <c r="Z140" s="1" t="s">
+      <c r="AA140" s="1" t="s">
         <v>1176</v>
       </c>
-      <c r="AA140" s="1" t="s">
+      <c r="AB140" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="AB140" s="1" t="s">
+      <c r="AC140" s="1" t="s">
         <v>1178</v>
       </c>
-      <c r="AC140" s="1" t="s">
+      <c r="AD140" s="1" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>1189</v>
       </c>
@@ -16464,23 +16641,24 @@
       </c>
       <c r="W141" s="1"/>
       <c r="X141" s="1"/>
-      <c r="Y141" s="1" t="s">
+      <c r="Y141" s="1"/>
+      <c r="Z141" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="Z141" s="1" t="s">
+      <c r="AA141" s="1" t="s">
         <v>1191</v>
       </c>
-      <c r="AA141" s="1" t="s">
+      <c r="AB141" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="AB141" s="1" t="s">
+      <c r="AC141" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="AC141" s="1" t="s">
+      <c r="AD141" s="1" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>1204</v>
       </c>
@@ -16549,23 +16727,24 @@
       </c>
       <c r="W142" s="1"/>
       <c r="X142" s="1"/>
-      <c r="Y142" s="1" t="s">
+      <c r="Y142" s="1"/>
+      <c r="Z142" s="1" t="s">
         <v>1205</v>
       </c>
-      <c r="Z142" s="1" t="s">
+      <c r="AA142" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="AA142" s="1" t="s">
+      <c r="AB142" s="1" t="s">
         <v>1218</v>
       </c>
-      <c r="AB142" s="1" t="s">
+      <c r="AC142" s="1" t="s">
         <v>1208</v>
       </c>
-      <c r="AC142" s="1" t="s">
+      <c r="AD142" s="1" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>1219</v>
       </c>
@@ -16634,23 +16813,24 @@
       </c>
       <c r="W143" s="1"/>
       <c r="X143" s="1"/>
-      <c r="Y143" s="1" t="s">
-        <v>1220</v>
-      </c>
+      <c r="Y143" s="1"/>
       <c r="Z143" s="1" t="s">
         <v>1220</v>
       </c>
       <c r="AA143" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="AB143" s="1" t="s">
         <v>1323</v>
       </c>
-      <c r="AB143" s="1" t="s">
+      <c r="AC143" s="1" t="s">
         <v>1321</v>
       </c>
-      <c r="AC143" s="1" t="s">
+      <c r="AD143" s="1" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>1224</v>
       </c>
@@ -16719,23 +16899,24 @@
       </c>
       <c r="W144" s="1"/>
       <c r="X144" s="1"/>
-      <c r="Y144" s="1" t="s">
-        <v>1225</v>
-      </c>
+      <c r="Y144" s="1"/>
       <c r="Z144" s="1" t="s">
         <v>1225</v>
       </c>
       <c r="AA144" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="AB144" s="1" t="s">
         <v>1327</v>
       </c>
-      <c r="AB144" s="1" t="s">
+      <c r="AC144" s="1" t="s">
         <v>1325</v>
       </c>
-      <c r="AC144" s="1" t="s">
+      <c r="AD144" s="1" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>1229</v>
       </c>
@@ -16804,23 +16985,24 @@
       </c>
       <c r="W145" s="1"/>
       <c r="X145" s="1"/>
-      <c r="Y145" s="1" t="s">
-        <v>1230</v>
-      </c>
+      <c r="Y145" s="1"/>
       <c r="Z145" s="1" t="s">
         <v>1230</v>
       </c>
       <c r="AA145" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="AB145" s="1" t="s">
         <v>1331</v>
       </c>
-      <c r="AB145" s="1" t="s">
+      <c r="AC145" s="1" t="s">
         <v>1329</v>
       </c>
-      <c r="AC145" s="1" t="s">
+      <c r="AD145" s="1" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>1234</v>
       </c>
@@ -16888,23 +17070,23 @@
         <v>1334</v>
       </c>
       <c r="W146" s="1"/>
-      <c r="Y146" s="1" t="s">
-        <v>1235</v>
-      </c>
       <c r="Z146" s="1" t="s">
         <v>1235</v>
       </c>
       <c r="AA146" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="AB146" s="1" t="s">
         <v>1335</v>
       </c>
-      <c r="AB146" s="1" t="s">
+      <c r="AC146" s="1" t="s">
         <v>1333</v>
       </c>
-      <c r="AC146" s="1" t="s">
+      <c r="AD146" s="1" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>1239</v>
       </c>
@@ -16973,23 +17155,24 @@
       </c>
       <c r="W147" s="1"/>
       <c r="X147" s="1"/>
-      <c r="Y147" s="1" t="s">
-        <v>1240</v>
-      </c>
+      <c r="Y147" s="1"/>
       <c r="Z147" s="1" t="s">
         <v>1240</v>
       </c>
       <c r="AA147" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="AB147" s="1" t="s">
         <v>1339</v>
       </c>
-      <c r="AB147" s="1" t="s">
+      <c r="AC147" s="1" t="s">
         <v>1337</v>
       </c>
-      <c r="AC147" s="1" t="s">
+      <c r="AD147" s="1" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>1244</v>
       </c>
@@ -17058,23 +17241,24 @@
       </c>
       <c r="W148" s="1"/>
       <c r="X148" s="1"/>
-      <c r="Y148" s="1" t="s">
-        <v>1245</v>
-      </c>
+      <c r="Y148" s="1"/>
       <c r="Z148" s="1" t="s">
         <v>1245</v>
       </c>
       <c r="AA148" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="AB148" s="1" t="s">
         <v>1343</v>
       </c>
-      <c r="AB148" s="1" t="s">
+      <c r="AC148" s="1" t="s">
         <v>1341</v>
       </c>
-      <c r="AC148" s="1" t="s">
+      <c r="AD148" s="1" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>1249</v>
       </c>
@@ -17143,23 +17327,24 @@
       </c>
       <c r="W149" s="1"/>
       <c r="X149" s="1"/>
-      <c r="Y149" s="1" t="s">
+      <c r="Y149" s="1"/>
+      <c r="Z149" s="1" t="s">
         <v>1253</v>
       </c>
-      <c r="Z149" s="1" t="s">
+      <c r="AA149" s="1" t="s">
         <v>1250</v>
       </c>
-      <c r="AA149" s="1" t="s">
+      <c r="AB149" s="1" t="s">
         <v>1257</v>
       </c>
-      <c r="AB149" s="1" t="s">
+      <c r="AC149" s="1" t="s">
         <v>1253</v>
       </c>
-      <c r="AC149" s="1" t="s">
+      <c r="AD149" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>1258</v>
       </c>
@@ -17228,23 +17413,24 @@
       </c>
       <c r="W150" s="1"/>
       <c r="X150" s="1"/>
-      <c r="Y150" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="Y150" s="1"/>
       <c r="Z150" s="1" t="s">
         <v>213</v>
       </c>
       <c r="AA150" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB150" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="AB150" s="1" t="s">
+      <c r="AC150" s="1" t="s">
         <v>1260</v>
       </c>
-      <c r="AC150" s="1" t="s">
+      <c r="AD150" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>1265</v>
       </c>
@@ -17313,23 +17499,24 @@
       </c>
       <c r="W151" s="1"/>
       <c r="X151" s="1"/>
-      <c r="Y151" s="1" t="s">
+      <c r="Y151" s="1"/>
+      <c r="Z151" s="1" t="s">
         <v>1270</v>
       </c>
-      <c r="Z151" s="1" t="s">
+      <c r="AA151" s="1" t="s">
         <v>1267</v>
       </c>
-      <c r="AA151" s="1" t="s">
+      <c r="AB151" s="1" t="s">
         <v>1274</v>
       </c>
-      <c r="AB151" s="1" t="s">
+      <c r="AC151" s="1" t="s">
         <v>1270</v>
       </c>
-      <c r="AC151" s="1" t="s">
+      <c r="AD151" s="1" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>1275</v>
       </c>
@@ -17398,19 +17585,20 @@
       </c>
       <c r="W152" s="1"/>
       <c r="X152" s="1"/>
-      <c r="Y152" s="1" t="s">
-        <v>1276</v>
-      </c>
+      <c r="Y152" s="1"/>
       <c r="Z152" s="1" t="s">
         <v>1276</v>
       </c>
       <c r="AA152" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="AB152" s="1" t="s">
         <v>1282</v>
       </c>
-      <c r="AB152" s="1" t="s">
+      <c r="AC152" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="AC152" s="1" t="s">
+      <c r="AD152" s="1" t="s">
         <v>1276</v>
       </c>
     </row>

--- a/VerbConjugation/XLSX/TransStemmed.xlsx
+++ b/VerbConjugation/XLSX/TransStemmed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hovsep/Library/CloudStorage/GoogleDrive-hovsep443@hotmail.com/My Drive/Dialectal kickstarts/2021 kickstart  - Tehran/Archive/iranian_armenian/VerbConjugation/XLSX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28558465-8A91-404E-BEE8-A81E6B7F702B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C936ED-B0A3-BF49-8D0D-FCCF4123849D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="28040" windowHeight="15460" xr2:uid="{F4A8DE63-4361-ED43-8851-AA04255BF1C7}"/>
+    <workbookView xWindow="1160" yWindow="1080" windowWidth="28040" windowHeight="15460" xr2:uid="{F4A8DE63-4361-ED43-8851-AA04255BF1C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3013,39 +3013,21 @@
     <t>kə {X}em</t>
   </si>
   <si>
-    <t>k՚{X}em</t>
-  </si>
-  <si>
     <t>kə {X}ɒm</t>
   </si>
   <si>
     <t>kə {X}nɒm</t>
   </si>
   <si>
-    <t>k՚{X}nɒm</t>
-  </si>
-  <si>
     <t>kə {X}t͡sʰnem</t>
   </si>
   <si>
-    <t>k՚{X}t͡sʰnem</t>
-  </si>
-  <si>
     <t>kə {X}nem</t>
   </si>
   <si>
-    <t>k՚{X}nem</t>
-  </si>
-  <si>
-    <t>k՚{Xprs}em</t>
-  </si>
-  <si>
     <t>kə {Xprs}em</t>
   </si>
   <si>
-    <t>k՚{Xprs}ɒm</t>
-  </si>
-  <si>
     <t>kə {Xprs}ɒm</t>
   </si>
   <si>
@@ -3055,39 +3037,21 @@
     <t>kə {X}es</t>
   </si>
   <si>
-    <t>k՚{X}es</t>
-  </si>
-  <si>
     <t>kə {X}ɒs</t>
   </si>
   <si>
     <t>kə {X}nɒs</t>
   </si>
   <si>
-    <t>k՚{X}nɒs</t>
-  </si>
-  <si>
     <t>kə {X}t͡sʰnes</t>
   </si>
   <si>
-    <t>k՚{X}t͡sʰnes</t>
-  </si>
-  <si>
     <t>kə {X}nes</t>
   </si>
   <si>
-    <t>k՚{X}nes</t>
-  </si>
-  <si>
-    <t>k՚{Xprs}es</t>
-  </si>
-  <si>
     <t>kə {Xprs}es</t>
   </si>
   <si>
-    <t>k՚{Xprs}ɒs</t>
-  </si>
-  <si>
     <t>kə {Xprs}ɒs</t>
   </si>
   <si>
@@ -3097,63 +3061,33 @@
     <t>kə {X}i</t>
   </si>
   <si>
-    <t>k՚{X}i</t>
-  </si>
-  <si>
     <t>kə {X}t͡sʰni</t>
   </si>
   <si>
-    <t>k՚{X}t͡sʰni</t>
-  </si>
-  <si>
     <t>kə {X}ni</t>
   </si>
   <si>
-    <t>k՚{X}ni</t>
-  </si>
-  <si>
-    <t>k՚{Xprs}i</t>
-  </si>
-  <si>
     <t>kə {Xprs}i</t>
   </si>
   <si>
     <t>kə {X}eŋkʰ</t>
   </si>
   <si>
-    <t>k՚{X}eŋkʰ</t>
-  </si>
-  <si>
     <t>kə {X}ɒŋkʰ</t>
   </si>
   <si>
     <t>kə {X}nɒŋkʰ</t>
   </si>
   <si>
-    <t>k՚{X}nɒŋkʰ</t>
-  </si>
-  <si>
     <t>kə {X}t͡sʰneŋkʰ</t>
   </si>
   <si>
-    <t>k՚{X}t͡sʰneŋkʰ</t>
-  </si>
-  <si>
     <t>kə {X}neŋkʰ</t>
   </si>
   <si>
-    <t>k՚{X}neŋkʰ</t>
-  </si>
-  <si>
-    <t>k՚{Xprs}eŋkʰ</t>
-  </si>
-  <si>
     <t>kə {Xprs}eŋkʰ</t>
   </si>
   <si>
-    <t>k՚{Xprs}ɒŋkʰ</t>
-  </si>
-  <si>
     <t>kə {Xprs}ɒŋkʰ</t>
   </si>
   <si>
@@ -3163,39 +3097,21 @@
     <t>kə {X}ekʰ</t>
   </si>
   <si>
-    <t>k՚{X}ekʰ</t>
-  </si>
-  <si>
     <t>kə {X}ɒkʰ</t>
   </si>
   <si>
     <t>kə {X}nɒkʰ</t>
   </si>
   <si>
-    <t>k՚{X}nɒkʰ</t>
-  </si>
-  <si>
     <t>kə {X}t͡sʰnekʰ</t>
   </si>
   <si>
-    <t>k՚{X}t͡sʰnekʰ</t>
-  </si>
-  <si>
     <t>kə {X}nekʰ</t>
   </si>
   <si>
-    <t>k՚{X}nekʰ</t>
-  </si>
-  <si>
-    <t>k՚{Xprs}ekʰ</t>
-  </si>
-  <si>
     <t>kə {Xprs}ekʰ</t>
   </si>
   <si>
-    <t>k՚{Xprs}ɒkʰ</t>
-  </si>
-  <si>
     <t>kə {Xprs}ɒkʰ</t>
   </si>
   <si>
@@ -3205,39 +3121,21 @@
     <t>kə {X}en</t>
   </si>
   <si>
-    <t>k՚{X}en</t>
-  </si>
-  <si>
     <t>kə {X}ɒn</t>
   </si>
   <si>
     <t>kə {X}nɒn</t>
   </si>
   <si>
-    <t>k՚{X}nɒn</t>
-  </si>
-  <si>
     <t>kə {X}t͡sʰnen</t>
   </si>
   <si>
-    <t>k՚{X}t͡sʰnen</t>
-  </si>
-  <si>
     <t>kə {X}nen</t>
   </si>
   <si>
-    <t>k՚{X}nen</t>
-  </si>
-  <si>
-    <t>k՚{Xprs}en</t>
-  </si>
-  <si>
     <t>kə {Xprs}en</t>
   </si>
   <si>
-    <t>k՚{Xprs}ɒn</t>
-  </si>
-  <si>
     <t>kə {Xprs}ɒn</t>
   </si>
   <si>
@@ -3319,39 +3217,21 @@
     <t>kə {X}im</t>
   </si>
   <si>
-    <t>k՚{X}im</t>
-  </si>
-  <si>
     <t>kə {X}ɒjim</t>
   </si>
   <si>
     <t>kə {X}nɒjim</t>
   </si>
   <si>
-    <t>k՚{X}nɒjim</t>
-  </si>
-  <si>
     <t>kə {X}t͡sʰnim</t>
   </si>
   <si>
-    <t>k՚{X}t͡sʰnim</t>
-  </si>
-  <si>
     <t>kə {X}nim</t>
   </si>
   <si>
-    <t>k՚{X}nim</t>
-  </si>
-  <si>
-    <t>k՚{Xprs}im</t>
-  </si>
-  <si>
     <t>kə {Xprs}im</t>
   </si>
   <si>
-    <t>k՚{Xprs}ɒjim</t>
-  </si>
-  <si>
     <t>kə {Xprs}ɒjim</t>
   </si>
   <si>
@@ -3361,39 +3241,21 @@
     <t>kə {X}iɻ</t>
   </si>
   <si>
-    <t>k՚{X}iɻ</t>
-  </si>
-  <si>
     <t>kə {X}ɒjiɻ</t>
   </si>
   <si>
     <t>kə {X}nɒjiɻ</t>
   </si>
   <si>
-    <t>k՚{X}nɒjiɻ</t>
-  </si>
-  <si>
     <t>kə {X}t͡sʰniɻ</t>
   </si>
   <si>
-    <t>k՚{X}t͡sʰniɻ</t>
-  </si>
-  <si>
     <t>kə {X}niɻ</t>
   </si>
   <si>
-    <t>k՚{X}niɻ</t>
-  </si>
-  <si>
-    <t>k՚{Xprs}iɻ</t>
-  </si>
-  <si>
     <t>kə {Xprs}iɻ</t>
   </si>
   <si>
-    <t>k՚{Xprs}ɒjiɻ</t>
-  </si>
-  <si>
     <t>kə {Xprs}ɒjiɻ</t>
   </si>
   <si>
@@ -3403,39 +3265,21 @@
     <t>kə {X}eɻ</t>
   </si>
   <si>
-    <t>k՚{X}eɻ</t>
-  </si>
-  <si>
     <t>kə {X}ɒɻ</t>
   </si>
   <si>
     <t>kə {X}nɒɻ</t>
   </si>
   <si>
-    <t>k՚{X}nɒɻ</t>
-  </si>
-  <si>
     <t>kə {X}t͡sʰneɻ</t>
   </si>
   <si>
-    <t>k՚{X}t͡sʰneɻ</t>
-  </si>
-  <si>
     <t>kə {X}neɻ</t>
   </si>
   <si>
-    <t>k՚{X}neɻ</t>
-  </si>
-  <si>
-    <t>k՚{Xprs}eɻ</t>
-  </si>
-  <si>
     <t>kə {Xprs}eɻ</t>
   </si>
   <si>
-    <t>k՚{Xprs}ɒɻ</t>
-  </si>
-  <si>
     <t>kə {Xprs}ɒɻ</t>
   </si>
   <si>
@@ -3445,39 +3289,21 @@
     <t>kə {X}iŋkʰ</t>
   </si>
   <si>
-    <t>k՚{X}iŋkʰ</t>
-  </si>
-  <si>
     <t>kə {X}ɒjiŋkʰ</t>
   </si>
   <si>
     <t>kə {X}nɒjiŋkʰ</t>
   </si>
   <si>
-    <t>k՚{X}nɒjiŋkʰ</t>
-  </si>
-  <si>
     <t>kə {X}t͡sʰniŋkʰ</t>
   </si>
   <si>
-    <t>k՚{X}t͡sʰniŋkʰ</t>
-  </si>
-  <si>
     <t>kə {X}niŋkʰ</t>
   </si>
   <si>
-    <t>k՚{X}niŋkʰ</t>
-  </si>
-  <si>
-    <t>k՚{Xprs}iŋkʰ</t>
-  </si>
-  <si>
     <t>kə {Xprs}iŋkʰ</t>
   </si>
   <si>
-    <t>k՚{Xprs}ɒjiŋkʰ</t>
-  </si>
-  <si>
     <t>kə {Xprs}ɒjiŋkʰ</t>
   </si>
   <si>
@@ -3487,39 +3313,21 @@
     <t>kə {X}ikʰ</t>
   </si>
   <si>
-    <t>k՚{X}ikʰ</t>
-  </si>
-  <si>
     <t>kə {X}ɒjikʰ</t>
   </si>
   <si>
     <t>kə {X}nɒjikʰ</t>
   </si>
   <si>
-    <t>k՚{X}nɒjikʰ</t>
-  </si>
-  <si>
     <t>kə {X}t͡sʰnikʰ</t>
   </si>
   <si>
-    <t>k՚{X}t͡sʰnikʰ</t>
-  </si>
-  <si>
     <t>kə {X}nikʰ</t>
   </si>
   <si>
-    <t>k՚{X}nikʰ</t>
-  </si>
-  <si>
-    <t>k՚{Xprs}ikʰ</t>
-  </si>
-  <si>
     <t>kə {Xprs}ikʰ</t>
   </si>
   <si>
-    <t>k՚{Xprs}ɒjikʰ</t>
-  </si>
-  <si>
     <t>kə {Xprs}ɒjikʰ</t>
   </si>
   <si>
@@ -3529,39 +3337,21 @@
     <t>kə {X}in</t>
   </si>
   <si>
-    <t>k՚{X}in</t>
-  </si>
-  <si>
     <t>kə {X}ɒjin</t>
   </si>
   <si>
     <t>kə {X}nɒjin</t>
   </si>
   <si>
-    <t>k՚{X}nɒjin</t>
-  </si>
-  <si>
     <t>kə {X}t͡sʰnin</t>
   </si>
   <si>
-    <t>k՚{X}t͡sʰnin</t>
-  </si>
-  <si>
     <t>kə {X}nin</t>
   </si>
   <si>
-    <t>k՚{X}nin</t>
-  </si>
-  <si>
-    <t>k՚{Xprs}in</t>
-  </si>
-  <si>
     <t>kə {Xprs}in</t>
   </si>
   <si>
-    <t>k՚{Xprs}ɒjin</t>
-  </si>
-  <si>
     <t>kə {Xprs}ɒjin</t>
   </si>
   <si>
@@ -3769,12 +3559,6 @@
     <t>kə {X}nɒ</t>
   </si>
   <si>
-    <t>k՚{X}nɒ</t>
-  </si>
-  <si>
-    <t>k՚{Xprs}ɒ</t>
-  </si>
-  <si>
     <t>kə {Xprs}ɒ</t>
   </si>
   <si>
@@ -4006,42 +3790,6 @@
     <t>negative of synthetic future 3PL</t>
   </si>
   <si>
-    <t>synthetic future in the past 1SG</t>
-  </si>
-  <si>
-    <t>synthetic future in the past 2SG</t>
-  </si>
-  <si>
-    <t>synthetic future in the past 3SG</t>
-  </si>
-  <si>
-    <t>synthetic future in the past 1PL</t>
-  </si>
-  <si>
-    <t>synthetic future in the past 2PL</t>
-  </si>
-  <si>
-    <t>synthetic future in the past 3PL</t>
-  </si>
-  <si>
-    <t>negative of synthetic future in the past 1SG</t>
-  </si>
-  <si>
-    <t>negative of synthetic future in the past 2SG</t>
-  </si>
-  <si>
-    <t>negative of synthetic future in the past 3SG</t>
-  </si>
-  <si>
-    <t>negative of synthetic future in the past 1PL</t>
-  </si>
-  <si>
-    <t>negative of synthetic future in the past 2PL</t>
-  </si>
-  <si>
-    <t>negative of synthetic future in the past 3PL</t>
-  </si>
-  <si>
     <t>periphrastic future 1SG</t>
   </si>
   <si>
@@ -4078,40 +3826,292 @@
     <t>negative of periphrastic future 3PL</t>
   </si>
   <si>
-    <t>periphrastic future in the past 1SG</t>
-  </si>
-  <si>
-    <t>periphrastic future in the past 2SG</t>
-  </si>
-  <si>
-    <t>periphrastic future in the past 3SG</t>
-  </si>
-  <si>
-    <t>periphrastic future in the past 1PL</t>
-  </si>
-  <si>
-    <t>periphrastic future in the past 2PL</t>
-  </si>
-  <si>
-    <t>periphrastic future in the past 3PL</t>
-  </si>
-  <si>
-    <t>negative of periphrastic future in the past 1SG</t>
-  </si>
-  <si>
-    <t>negative of periphrastic future in the past 2SG</t>
-  </si>
-  <si>
-    <t>negative of periphrastic future in the past 3SG</t>
-  </si>
-  <si>
-    <t>negative of periphrastic future in the past 1PL</t>
-  </si>
-  <si>
-    <t>negative of periphrastic future in the past 2PL</t>
-  </si>
-  <si>
-    <t>negative of periphrastic future in the past 3PL</t>
+    <t>future in the past 1SG</t>
+  </si>
+  <si>
+    <t>future in the past 2SG</t>
+  </si>
+  <si>
+    <t>future in the past 3SG</t>
+  </si>
+  <si>
+    <t>future in the past 1PL</t>
+  </si>
+  <si>
+    <t>future in the past 2PL</t>
+  </si>
+  <si>
+    <t>future in the past 3PL</t>
+  </si>
+  <si>
+    <t>negative future in the past 1SG</t>
+  </si>
+  <si>
+    <t>negative future in the past 2SG</t>
+  </si>
+  <si>
+    <t>negative future in the past 3SG</t>
+  </si>
+  <si>
+    <t>negative future in the past 1PL</t>
+  </si>
+  <si>
+    <t>negative future in the past 2PL</t>
+  </si>
+  <si>
+    <t>negative future in the past 3PL</t>
+  </si>
+  <si>
+    <t>conditional past 1SG</t>
+  </si>
+  <si>
+    <t>conditional past 2SG</t>
+  </si>
+  <si>
+    <t>conditional past 3SG</t>
+  </si>
+  <si>
+    <t>conditional past 1PL</t>
+  </si>
+  <si>
+    <t>conditional past 2PL</t>
+  </si>
+  <si>
+    <t>conditional past 3PL</t>
+  </si>
+  <si>
+    <t>negative conditional past 1SG</t>
+  </si>
+  <si>
+    <t>negative conditional past 2SG</t>
+  </si>
+  <si>
+    <t>negative conditional past 3SG</t>
+  </si>
+  <si>
+    <t>negative conditional past 1PL</t>
+  </si>
+  <si>
+    <t>negative conditional past 2PL</t>
+  </si>
+  <si>
+    <t>negative conditional past 3PL</t>
+  </si>
+  <si>
+    <t>k{X}em</t>
+  </si>
+  <si>
+    <t>k{X}nɒm</t>
+  </si>
+  <si>
+    <t>k{X}t͡sʰnem</t>
+  </si>
+  <si>
+    <t>k{X}nem</t>
+  </si>
+  <si>
+    <t>k{Xprs}em</t>
+  </si>
+  <si>
+    <t>k{Xprs}ɒm</t>
+  </si>
+  <si>
+    <t>k{X}es</t>
+  </si>
+  <si>
+    <t>k{X}nɒs</t>
+  </si>
+  <si>
+    <t>k{X}t͡sʰnes</t>
+  </si>
+  <si>
+    <t>k{X}nes</t>
+  </si>
+  <si>
+    <t>k{Xprs}es</t>
+  </si>
+  <si>
+    <t>k{Xprs}ɒs</t>
+  </si>
+  <si>
+    <t>k{X}i</t>
+  </si>
+  <si>
+    <t>k{X}nɒ</t>
+  </si>
+  <si>
+    <t>k{X}t͡sʰni</t>
+  </si>
+  <si>
+    <t>k{X}ni</t>
+  </si>
+  <si>
+    <t>k{Xprs}i</t>
+  </si>
+  <si>
+    <t>k{Xprs}ɒ</t>
+  </si>
+  <si>
+    <t>k{X}eŋkʰ</t>
+  </si>
+  <si>
+    <t>k{X}nɒŋkʰ</t>
+  </si>
+  <si>
+    <t>k{X}t͡sʰneŋkʰ</t>
+  </si>
+  <si>
+    <t>k{X}neŋkʰ</t>
+  </si>
+  <si>
+    <t>k{Xprs}eŋkʰ</t>
+  </si>
+  <si>
+    <t>k{Xprs}ɒŋkʰ</t>
+  </si>
+  <si>
+    <t>k{X}ekʰ</t>
+  </si>
+  <si>
+    <t>k{X}nɒkʰ</t>
+  </si>
+  <si>
+    <t>k{X}t͡sʰnekʰ</t>
+  </si>
+  <si>
+    <t>k{X}nekʰ</t>
+  </si>
+  <si>
+    <t>k{Xprs}ekʰ</t>
+  </si>
+  <si>
+    <t>k{Xprs}ɒkʰ</t>
+  </si>
+  <si>
+    <t>k{X}en</t>
+  </si>
+  <si>
+    <t>k{X}nɒn</t>
+  </si>
+  <si>
+    <t>k{X}t͡sʰnen</t>
+  </si>
+  <si>
+    <t>k{X}nen</t>
+  </si>
+  <si>
+    <t>k{Xprs}en</t>
+  </si>
+  <si>
+    <t>k{Xprs}ɒn</t>
+  </si>
+  <si>
+    <t>k{X}im</t>
+  </si>
+  <si>
+    <t>k{X}nɒjim</t>
+  </si>
+  <si>
+    <t>k{X}t͡sʰnim</t>
+  </si>
+  <si>
+    <t>k{X}nim</t>
+  </si>
+  <si>
+    <t>k{Xprs}im</t>
+  </si>
+  <si>
+    <t>k{Xprs}ɒjim</t>
+  </si>
+  <si>
+    <t>k{X}iɻ</t>
+  </si>
+  <si>
+    <t>k{X}nɒjiɻ</t>
+  </si>
+  <si>
+    <t>k{X}t͡sʰniɻ</t>
+  </si>
+  <si>
+    <t>k{X}niɻ</t>
+  </si>
+  <si>
+    <t>k{Xprs}iɻ</t>
+  </si>
+  <si>
+    <t>k{Xprs}ɒjiɻ</t>
+  </si>
+  <si>
+    <t>k{X}eɻ</t>
+  </si>
+  <si>
+    <t>k{X}nɒɻ</t>
+  </si>
+  <si>
+    <t>k{X}t͡sʰneɻ</t>
+  </si>
+  <si>
+    <t>k{X}neɻ</t>
+  </si>
+  <si>
+    <t>k{Xprs}eɻ</t>
+  </si>
+  <si>
+    <t>k{Xprs}ɒɻ</t>
+  </si>
+  <si>
+    <t>k{X}iŋkʰ</t>
+  </si>
+  <si>
+    <t>k{X}nɒjiŋkʰ</t>
+  </si>
+  <si>
+    <t>k{X}t͡sʰniŋkʰ</t>
+  </si>
+  <si>
+    <t>k{X}niŋkʰ</t>
+  </si>
+  <si>
+    <t>k{Xprs}iŋkʰ</t>
+  </si>
+  <si>
+    <t>k{Xprs}ɒjiŋkʰ</t>
+  </si>
+  <si>
+    <t>k{X}ikʰ</t>
+  </si>
+  <si>
+    <t>k{X}nɒjikʰ</t>
+  </si>
+  <si>
+    <t>k{X}t͡sʰnikʰ</t>
+  </si>
+  <si>
+    <t>k{X}nikʰ</t>
+  </si>
+  <si>
+    <t>k{Xprs}ikʰ</t>
+  </si>
+  <si>
+    <t>k{Xprs}ɒjikʰ</t>
+  </si>
+  <si>
+    <t>k{X}in</t>
+  </si>
+  <si>
+    <t>k{X}nɒjin</t>
+  </si>
+  <si>
+    <t>k{X}t͡sʰnin</t>
+  </si>
+  <si>
+    <t>k{X}nin</t>
+  </si>
+  <si>
+    <t>k{Xprs}in</t>
+  </si>
+  <si>
+    <t>k{Xprs}ɒjin</t>
   </si>
 </sst>
 </file>
@@ -4472,8 +4472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74E9808-725B-4140-9F3A-E401D057D6B9}">
   <dimension ref="A1:AD152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O113" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129:XFD152"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="F145" sqref="F145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4828,7 +4828,7 @@
         <v>39</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>1308</v>
+        <v>1236</v>
       </c>
       <c r="Z4" s="1" t="s">
         <v>40</v>
@@ -4920,7 +4920,7 @@
         <v>67</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>1310</v>
+        <v>1238</v>
       </c>
       <c r="Z5" s="1" t="s">
         <v>68</v>
@@ -5012,7 +5012,7 @@
         <v>95</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>1309</v>
+        <v>1237</v>
       </c>
       <c r="Z6" s="1" t="s">
         <v>96</v>
@@ -5753,13 +5753,13 @@
         <v>168</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1202</v>
+        <v>1132</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1235</v>
+        <v>1165</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1235</v>
+        <v>1165</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>169</v>
@@ -5801,13 +5801,13 @@
         <v>171</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>1236</v>
+        <v>1166</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>1236</v>
+        <v>1166</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>1236</v>
+        <v>1166</v>
       </c>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
@@ -5819,10 +5819,10 @@
         <v>168</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>1237</v>
+        <v>1167</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>1235</v>
+        <v>1165</v>
       </c>
       <c r="AD16" s="1" t="s">
         <v>168</v>
@@ -6080,7 +6080,7 @@
         <v>195</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>1202</v>
+        <v>1132</v>
       </c>
       <c r="X19" s="1" t="s">
         <v>168</v>
@@ -6632,7 +6632,7 @@
         <v>247</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>1238</v>
+        <v>1168</v>
       </c>
       <c r="X25" s="1" t="s">
         <v>248</v>
@@ -10249,85 +10249,85 @@
         <v>759</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1296</v>
+        <v>1224</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1296</v>
+        <v>1224</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>120</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>1297</v>
+        <v>1225</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>1297</v>
+        <v>1225</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>1298</v>
+        <v>1226</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>1298</v>
+        <v>1226</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>1296</v>
+        <v>1224</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>1296</v>
+        <v>1224</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>1296</v>
+        <v>1224</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>1296</v>
+        <v>1224</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>1296</v>
+        <v>1224</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>1296</v>
+        <v>1224</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>1296</v>
+        <v>1224</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>1299</v>
+        <v>1227</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>1299</v>
+        <v>1227</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>1299</v>
+        <v>1227</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>1299</v>
+        <v>1227</v>
       </c>
       <c r="T67" s="1" t="s">
-        <v>1300</v>
+        <v>1228</v>
       </c>
       <c r="U67" s="1" t="s">
-        <v>1299</v>
+        <v>1227</v>
       </c>
       <c r="V67" s="1" t="s">
-        <v>1299</v>
+        <v>1227</v>
       </c>
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
       <c r="Z67" s="1" t="s">
-        <v>1296</v>
+        <v>1224</v>
       </c>
       <c r="AA67" s="1" t="s">
-        <v>1296</v>
+        <v>1224</v>
       </c>
       <c r="AB67" s="1" t="s">
-        <v>1301</v>
+        <v>1229</v>
       </c>
       <c r="AC67" s="1" t="s">
         <v>760</v>
       </c>
       <c r="AD67" s="1" t="s">
-        <v>1296</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.2">
@@ -10765,85 +10765,85 @@
         <v>801</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1302</v>
+        <v>1230</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1302</v>
+        <v>1230</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>802</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1303</v>
+        <v>1231</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>1303</v>
+        <v>1231</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>1304</v>
+        <v>1232</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>1304</v>
+        <v>1232</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>1302</v>
+        <v>1230</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>1302</v>
+        <v>1230</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>1302</v>
+        <v>1230</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>1302</v>
+        <v>1230</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>1302</v>
+        <v>1230</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>1302</v>
+        <v>1230</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>1302</v>
+        <v>1230</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>1305</v>
+        <v>1233</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>1305</v>
+        <v>1233</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>1305</v>
+        <v>1233</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>1305</v>
+        <v>1233</v>
       </c>
       <c r="T73" s="1" t="s">
-        <v>1306</v>
+        <v>1234</v>
       </c>
       <c r="U73" s="1" t="s">
-        <v>1305</v>
+        <v>1233</v>
       </c>
       <c r="V73" s="1" t="s">
-        <v>1305</v>
+        <v>1233</v>
       </c>
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1" t="s">
-        <v>1302</v>
+        <v>1230</v>
       </c>
       <c r="AA73" s="1" t="s">
-        <v>1302</v>
+        <v>1230</v>
       </c>
       <c r="AB73" s="1" t="s">
-        <v>1307</v>
+        <v>1235</v>
       </c>
       <c r="AC73" s="1" t="s">
         <v>803</v>
       </c>
       <c r="AD73" s="1" t="s">
-        <v>1302</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.2">
@@ -11287,13 +11287,13 @@
         <v>168</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1202</v>
+        <v>1132</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>1235</v>
+        <v>1165</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>1235</v>
+        <v>1165</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>169</v>
@@ -11335,13 +11335,13 @@
         <v>171</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>1236</v>
+        <v>1166</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>1236</v>
+        <v>1166</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>1236</v>
+        <v>1166</v>
       </c>
       <c r="W79" s="1"/>
       <c r="X79" s="1"/>
@@ -11353,10 +11353,10 @@
         <v>168</v>
       </c>
       <c r="AB79" s="1" t="s">
-        <v>1237</v>
+        <v>1167</v>
       </c>
       <c r="AC79" s="1" t="s">
-        <v>1235</v>
+        <v>1165</v>
       </c>
       <c r="AD79" s="1" t="s">
         <v>168</v>
@@ -11803,13 +11803,13 @@
         <v>248</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>1238</v>
+        <v>1168</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>1239</v>
+        <v>1169</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>1239</v>
+        <v>1169</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>879</v>
@@ -11851,13 +11851,13 @@
         <v>881</v>
       </c>
       <c r="T85" s="1" t="s">
-        <v>1240</v>
+        <v>1170</v>
       </c>
       <c r="U85" s="1" t="s">
-        <v>1240</v>
+        <v>1170</v>
       </c>
       <c r="V85" s="1" t="s">
-        <v>1240</v>
+        <v>1170</v>
       </c>
       <c r="W85" s="1"/>
       <c r="X85" s="1"/>
@@ -11869,10 +11869,10 @@
         <v>248</v>
       </c>
       <c r="AB85" s="1" t="s">
-        <v>1241</v>
+        <v>1171</v>
       </c>
       <c r="AC85" s="1" t="s">
-        <v>1239</v>
+        <v>1169</v>
       </c>
       <c r="AD85" s="1" t="s">
         <v>248</v>
@@ -13168,7 +13168,7 @@
     </row>
     <row r="101" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>1201</v>
+        <v>1131</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>168</v>
@@ -13177,19 +13177,19 @@
         <v>168</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>1202</v>
+        <v>1132</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>1203</v>
+        <v>1133</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>1203</v>
+        <v>1133</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>1204</v>
+        <v>1134</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>1204</v>
+        <v>1134</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>168</v>
@@ -13201,52 +13201,52 @@
         <v>168</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>1205</v>
+        <v>1135</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>1205</v>
+        <v>1135</v>
       </c>
       <c r="N101" s="1" t="s">
         <v>168</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>1205</v>
+        <v>1135</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>1206</v>
+        <v>1136</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>1207</v>
+        <v>1137</v>
       </c>
       <c r="R101" s="1" t="s">
-        <v>1206</v>
+        <v>1136</v>
       </c>
       <c r="S101" s="1" t="s">
-        <v>1208</v>
+        <v>1138</v>
       </c>
       <c r="T101" s="1" t="s">
-        <v>1207</v>
+        <v>1137</v>
       </c>
       <c r="U101" s="1" t="s">
-        <v>1208</v>
+        <v>1138</v>
       </c>
       <c r="V101" s="1" t="s">
-        <v>1208</v>
+        <v>1138</v>
       </c>
       <c r="W101" s="1"/>
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
       <c r="Z101" s="1" t="s">
-        <v>1205</v>
+        <v>1135</v>
       </c>
       <c r="AA101" s="1" t="s">
-        <v>1202</v>
+        <v>1132</v>
       </c>
       <c r="AB101" s="1" t="s">
-        <v>1209</v>
+        <v>1139</v>
       </c>
       <c r="AC101" s="1" t="s">
-        <v>1205</v>
+        <v>1135</v>
       </c>
       <c r="AD101" s="1" t="s">
         <v>168</v>
@@ -13254,7 +13254,7 @@
     </row>
     <row r="102" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>1210</v>
+        <v>1140</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>213</v>
@@ -13263,19 +13263,19 @@
         <v>213</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>1211</v>
+        <v>1141</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>1212</v>
+        <v>1142</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>1212</v>
+        <v>1142</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>1213</v>
+        <v>1143</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>1213</v>
+        <v>1143</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>213</v>
@@ -13299,25 +13299,25 @@
         <v>213</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>1214</v>
+        <v>1144</v>
       </c>
       <c r="Q102" s="1" t="s">
-        <v>1214</v>
+        <v>1144</v>
       </c>
       <c r="R102" s="1" t="s">
-        <v>1214</v>
+        <v>1144</v>
       </c>
       <c r="S102" s="1" t="s">
-        <v>1214</v>
+        <v>1144</v>
       </c>
       <c r="T102" s="1" t="s">
-        <v>1215</v>
+        <v>1145</v>
       </c>
       <c r="U102" s="1" t="s">
-        <v>1214</v>
+        <v>1144</v>
       </c>
       <c r="V102" s="1" t="s">
-        <v>1214</v>
+        <v>1144</v>
       </c>
       <c r="W102" s="1"/>
       <c r="X102" s="1"/>
@@ -13329,10 +13329,10 @@
         <v>213</v>
       </c>
       <c r="AB102" s="1" t="s">
-        <v>1216</v>
+        <v>1146</v>
       </c>
       <c r="AC102" s="1" t="s">
-        <v>1212</v>
+        <v>1142</v>
       </c>
       <c r="AD102" s="1" t="s">
         <v>213</v>
@@ -13340,179 +13340,179 @@
     </row>
     <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>1217</v>
+        <v>1147</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1218</v>
+        <v>1148</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1218</v>
+        <v>1148</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>1219</v>
+        <v>1149</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>1220</v>
+        <v>1150</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>1220</v>
+        <v>1150</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>1221</v>
+        <v>1151</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>1221</v>
+        <v>1151</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>1218</v>
+        <v>1148</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>1218</v>
+        <v>1148</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>1218</v>
+        <v>1148</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>1222</v>
+        <v>1152</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>1222</v>
+        <v>1152</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>1218</v>
+        <v>1148</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>1222</v>
+        <v>1152</v>
       </c>
       <c r="P103" s="1" t="s">
-        <v>1223</v>
+        <v>1153</v>
       </c>
       <c r="Q103" s="1" t="s">
-        <v>1224</v>
+        <v>1154</v>
       </c>
       <c r="R103" s="1" t="s">
-        <v>1223</v>
+        <v>1153</v>
       </c>
       <c r="S103" s="1" t="s">
-        <v>1225</v>
+        <v>1155</v>
       </c>
       <c r="T103" s="1" t="s">
-        <v>1224</v>
+        <v>1154</v>
       </c>
       <c r="U103" s="1" t="s">
-        <v>1225</v>
+        <v>1155</v>
       </c>
       <c r="V103" s="1" t="s">
-        <v>1225</v>
+        <v>1155</v>
       </c>
       <c r="W103" s="1"/>
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
       <c r="Z103" s="1" t="s">
-        <v>1222</v>
+        <v>1152</v>
       </c>
       <c r="AA103" s="1" t="s">
-        <v>1219</v>
+        <v>1149</v>
       </c>
       <c r="AB103" s="1" t="s">
-        <v>1226</v>
+        <v>1156</v>
       </c>
       <c r="AC103" s="1" t="s">
-        <v>1222</v>
+        <v>1152</v>
       </c>
       <c r="AD103" s="1" t="s">
-        <v>1218</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="104" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>1227</v>
+        <v>1157</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1228</v>
+        <v>1158</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1228</v>
+        <v>1158</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>1229</v>
+        <v>1159</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>1230</v>
+        <v>1160</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>1230</v>
+        <v>1160</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>1231</v>
+        <v>1161</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>1231</v>
+        <v>1161</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>1228</v>
+        <v>1158</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>1228</v>
+        <v>1158</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>1228</v>
+        <v>1158</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>1228</v>
+        <v>1158</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>1228</v>
+        <v>1158</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>1228</v>
+        <v>1158</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>1228</v>
+        <v>1158</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>1232</v>
+        <v>1162</v>
       </c>
       <c r="Q104" s="1" t="s">
-        <v>1232</v>
+        <v>1162</v>
       </c>
       <c r="R104" s="1" t="s">
-        <v>1232</v>
+        <v>1162</v>
       </c>
       <c r="S104" s="1" t="s">
-        <v>1232</v>
+        <v>1162</v>
       </c>
       <c r="T104" s="1" t="s">
-        <v>1233</v>
+        <v>1163</v>
       </c>
       <c r="U104" s="1" t="s">
-        <v>1232</v>
+        <v>1162</v>
       </c>
       <c r="V104" s="1" t="s">
-        <v>1232</v>
+        <v>1162</v>
       </c>
       <c r="W104" s="1"/>
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
       <c r="Z104" s="1" t="s">
-        <v>1228</v>
+        <v>1158</v>
       </c>
       <c r="AA104" s="1" t="s">
-        <v>1228</v>
+        <v>1158</v>
       </c>
       <c r="AB104" s="1" t="s">
-        <v>1234</v>
+        <v>1164</v>
       </c>
       <c r="AC104" s="1" t="s">
-        <v>1230</v>
+        <v>1160</v>
       </c>
       <c r="AD104" s="1" t="s">
-        <v>1228</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="105" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>1335</v>
+        <v>1251</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>380</v>
@@ -13598,7 +13598,7 @@
     </row>
     <row r="106" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>1336</v>
+        <v>1252</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>388</v>
@@ -13684,7 +13684,7 @@
     </row>
     <row r="107" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>1337</v>
+        <v>1253</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>396</v>
@@ -13770,7 +13770,7 @@
     </row>
     <row r="108" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>1338</v>
+        <v>1254</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>404</v>
@@ -13854,7 +13854,7 @@
     </row>
     <row r="109" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>1339</v>
+        <v>1255</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>412</v>
@@ -13940,7 +13940,7 @@
     </row>
     <row r="110" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>1340</v>
+        <v>1256</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>420</v>
@@ -14026,7 +14026,7 @@
     </row>
     <row r="111" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>1341</v>
+        <v>1257</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>428</v>
@@ -14110,7 +14110,7 @@
     </row>
     <row r="112" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>1342</v>
+        <v>1258</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>436</v>
@@ -14194,7 +14194,7 @@
     </row>
     <row r="113" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>1343</v>
+        <v>1259</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>444</v>
@@ -14280,7 +14280,7 @@
     </row>
     <row r="114" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>1344</v>
+        <v>1260</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>452</v>
@@ -14364,7 +14364,7 @@
     </row>
     <row r="115" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>1345</v>
+        <v>1261</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>460</v>
@@ -14448,7 +14448,7 @@
     </row>
     <row r="116" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>1346</v>
+        <v>1262</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>468</v>
@@ -14532,7 +14532,7 @@
     </row>
     <row r="117" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>1347</v>
+        <v>1263</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>476</v>
@@ -14618,7 +14618,7 @@
     </row>
     <row r="118" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>1348</v>
+        <v>1264</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>484</v>
@@ -14704,7 +14704,7 @@
     </row>
     <row r="119" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>1349</v>
+        <v>1265</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>492</v>
@@ -14790,7 +14790,7 @@
     </row>
     <row r="120" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>1350</v>
+        <v>1266</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>500</v>
@@ -14874,7 +14874,7 @@
     </row>
     <row r="121" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>1351</v>
+        <v>1267</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>508</v>
@@ -14960,7 +14960,7 @@
     </row>
     <row r="122" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>1352</v>
+        <v>1268</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>516</v>
@@ -15046,7 +15046,7 @@
     </row>
     <row r="123" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>1353</v>
+        <v>1269</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>524</v>
@@ -15130,7 +15130,7 @@
     </row>
     <row r="124" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>1354</v>
+        <v>1270</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>532</v>
@@ -15216,7 +15216,7 @@
     </row>
     <row r="125" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>1355</v>
+        <v>1271</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>540</v>
@@ -15300,7 +15300,7 @@
     </row>
     <row r="126" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>1356</v>
+        <v>1272</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>548</v>
@@ -15384,7 +15384,7 @@
     </row>
     <row r="127" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>1357</v>
+        <v>1273</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>556</v>
@@ -15468,7 +15468,7 @@
     </row>
     <row r="128" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>1358</v>
+        <v>1274</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>564</v>
@@ -15552,70 +15552,70 @@
     </row>
     <row r="129" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>1311</v>
+        <v>1239</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>991</v>
       </c>
       <c r="C129" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="E129" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="F129" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G129" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="H129" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="I129" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="G129" s="1" t="s">
+      <c r="J129" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="M129" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="N129" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="O129" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="P129" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="Q129" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="R129" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="H129" s="1" t="s">
+      <c r="S129" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="T129" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="U129" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="I129" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="J129" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="K129" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="L129" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="M129" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="N129" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="O129" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="P129" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="Q129" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="R129" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="S129" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="T129" s="1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="U129" s="1" t="s">
-        <v>1003</v>
-      </c>
       <c r="V129" s="1" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="W129" s="1"/>
       <c r="X129" s="1"/>
@@ -15624,13 +15624,13 @@
         <v>991</v>
       </c>
       <c r="AA129" s="1" t="s">
-        <v>992</v>
+        <v>1287</v>
       </c>
       <c r="AB129" s="1" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="AC129" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AD129" s="1" t="s">
         <v>991</v>
@@ -15638,1968 +15638,1968 @@
     </row>
     <row r="130" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>1312</v>
+        <v>1240</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="L130" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="M130" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="N130" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="O130" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="P130" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="Q130" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="R130" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="S130" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="T130" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="U130" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="C130" s="1" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>1010</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="I130" s="1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="J130" s="1" t="s">
-        <v>1013</v>
-      </c>
-      <c r="K130" s="1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="L130" s="1" t="s">
-        <v>1013</v>
-      </c>
-      <c r="M130" s="1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="N130" s="1" t="s">
-        <v>1013</v>
-      </c>
-      <c r="O130" s="1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="P130" s="1" t="s">
-        <v>1014</v>
-      </c>
-      <c r="Q130" s="1" t="s">
-        <v>1014</v>
-      </c>
-      <c r="R130" s="1" t="s">
-        <v>1015</v>
-      </c>
-      <c r="S130" s="1" t="s">
-        <v>1015</v>
-      </c>
-      <c r="T130" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="U130" s="1" t="s">
-        <v>1017</v>
-      </c>
       <c r="V130" s="1" t="s">
-        <v>1017</v>
+        <v>1005</v>
       </c>
       <c r="W130" s="1"/>
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
       <c r="Z130" s="1" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="AA130" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="AB130" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="AB130" s="1" t="s">
-        <v>1018</v>
-      </c>
       <c r="AC130" s="1" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="AD130" s="1" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
     </row>
     <row r="131" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>1313</v>
+        <v>1241</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1019</v>
+        <v>1007</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1020</v>
+        <v>1299</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>1242</v>
+        <v>1172</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>1243</v>
+        <v>1173</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>1244</v>
+        <v>1300</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>1021</v>
+        <v>1008</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>1022</v>
+        <v>1301</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>1024</v>
+        <v>1302</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>1024</v>
+        <v>1302</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>1024</v>
+        <v>1302</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
       <c r="P131" s="1" t="s">
-        <v>1025</v>
+        <v>1303</v>
       </c>
       <c r="Q131" s="1" t="s">
-        <v>1025</v>
+        <v>1303</v>
       </c>
       <c r="R131" s="1" t="s">
-        <v>1026</v>
+        <v>1010</v>
       </c>
       <c r="S131" s="1" t="s">
-        <v>1026</v>
+        <v>1010</v>
       </c>
       <c r="T131" s="1" t="s">
-        <v>1245</v>
+        <v>1304</v>
       </c>
       <c r="U131" s="1" t="s">
-        <v>1246</v>
+        <v>1174</v>
       </c>
       <c r="V131" s="1" t="s">
-        <v>1246</v>
+        <v>1174</v>
       </c>
       <c r="W131" s="1"/>
       <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
       <c r="Z131" s="1" t="s">
-        <v>1019</v>
+        <v>1007</v>
       </c>
       <c r="AA131" s="1" t="s">
-        <v>1020</v>
+        <v>1299</v>
       </c>
       <c r="AB131" s="1" t="s">
-        <v>1247</v>
+        <v>1175</v>
       </c>
       <c r="AC131" s="1" t="s">
-        <v>1243</v>
+        <v>1173</v>
       </c>
       <c r="AD131" s="1" t="s">
-        <v>1019</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="132" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>1314</v>
+        <v>1242</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1027</v>
+        <v>1011</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1028</v>
+        <v>1305</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>1029</v>
+        <v>1012</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>1030</v>
+        <v>1013</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>1031</v>
+        <v>1306</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>1032</v>
+        <v>1014</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>1033</v>
+        <v>1307</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>1034</v>
+        <v>1015</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>1035</v>
+        <v>1308</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>1034</v>
+        <v>1015</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>1035</v>
+        <v>1308</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>1034</v>
+        <v>1015</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>1035</v>
+        <v>1308</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>1034</v>
+        <v>1015</v>
       </c>
       <c r="P132" s="1" t="s">
-        <v>1036</v>
+        <v>1309</v>
       </c>
       <c r="Q132" s="1" t="s">
-        <v>1036</v>
+        <v>1309</v>
       </c>
       <c r="R132" s="1" t="s">
-        <v>1037</v>
+        <v>1016</v>
       </c>
       <c r="S132" s="1" t="s">
-        <v>1037</v>
+        <v>1016</v>
       </c>
       <c r="T132" s="1" t="s">
-        <v>1038</v>
+        <v>1310</v>
       </c>
       <c r="U132" s="1" t="s">
-        <v>1039</v>
+        <v>1017</v>
       </c>
       <c r="V132" s="1" t="s">
-        <v>1039</v>
+        <v>1017</v>
       </c>
       <c r="W132" s="1"/>
       <c r="Z132" s="1" t="s">
-        <v>1027</v>
+        <v>1011</v>
       </c>
       <c r="AA132" s="1" t="s">
-        <v>1028</v>
+        <v>1305</v>
       </c>
       <c r="AB132" s="1" t="s">
-        <v>1040</v>
+        <v>1018</v>
       </c>
       <c r="AC132" s="1" t="s">
-        <v>1030</v>
+        <v>1013</v>
       </c>
       <c r="AD132" s="1" t="s">
-        <v>1027</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="133" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L133" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="M133" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="N133" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="O133" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="P133" s="1" t="s">
         <v>1315</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>1043</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>1044</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>1045</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="I133" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="J133" s="1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="K133" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="L133" s="1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="M133" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="N133" s="1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="O133" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="P133" s="1" t="s">
-        <v>1050</v>
-      </c>
       <c r="Q133" s="1" t="s">
-        <v>1050</v>
+        <v>1315</v>
       </c>
       <c r="R133" s="1" t="s">
-        <v>1051</v>
+        <v>1024</v>
       </c>
       <c r="S133" s="1" t="s">
-        <v>1051</v>
+        <v>1024</v>
       </c>
       <c r="T133" s="1" t="s">
-        <v>1052</v>
+        <v>1316</v>
       </c>
       <c r="U133" s="1" t="s">
-        <v>1053</v>
+        <v>1025</v>
       </c>
       <c r="V133" s="1" t="s">
-        <v>1053</v>
+        <v>1025</v>
       </c>
       <c r="W133" s="1"/>
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
       <c r="Z133" s="1" t="s">
-        <v>1041</v>
+        <v>1019</v>
       </c>
       <c r="AA133" s="1" t="s">
-        <v>1042</v>
+        <v>1311</v>
       </c>
       <c r="AB133" s="1" t="s">
-        <v>1054</v>
+        <v>1026</v>
       </c>
       <c r="AC133" s="1" t="s">
-        <v>1044</v>
+        <v>1021</v>
       </c>
       <c r="AD133" s="1" t="s">
-        <v>1041</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="134" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>1316</v>
+        <v>1244</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1055</v>
+        <v>1027</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1056</v>
+        <v>1317</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>1057</v>
+        <v>1028</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>1058</v>
+        <v>1029</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>1059</v>
+        <v>1318</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>1060</v>
+        <v>1030</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>1061</v>
+        <v>1319</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>1062</v>
+        <v>1031</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>1063</v>
+        <v>1320</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>1062</v>
+        <v>1031</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>1063</v>
+        <v>1320</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>1062</v>
+        <v>1031</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>1063</v>
+        <v>1320</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>1062</v>
+        <v>1031</v>
       </c>
       <c r="P134" s="1" t="s">
-        <v>1064</v>
+        <v>1321</v>
       </c>
       <c r="Q134" s="1" t="s">
-        <v>1064</v>
+        <v>1321</v>
       </c>
       <c r="R134" s="1" t="s">
-        <v>1065</v>
+        <v>1032</v>
       </c>
       <c r="S134" s="1" t="s">
-        <v>1065</v>
+        <v>1032</v>
       </c>
       <c r="T134" s="1" t="s">
-        <v>1066</v>
+        <v>1322</v>
       </c>
       <c r="U134" s="1" t="s">
-        <v>1067</v>
+        <v>1033</v>
       </c>
       <c r="V134" s="1" t="s">
-        <v>1067</v>
+        <v>1033</v>
       </c>
       <c r="W134" s="1"/>
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
       <c r="Z134" s="1" t="s">
-        <v>1055</v>
+        <v>1027</v>
       </c>
       <c r="AA134" s="1" t="s">
-        <v>1056</v>
+        <v>1317</v>
       </c>
       <c r="AB134" s="1" t="s">
-        <v>1068</v>
+        <v>1034</v>
       </c>
       <c r="AC134" s="1" t="s">
-        <v>1058</v>
+        <v>1029</v>
       </c>
       <c r="AD134" s="1" t="s">
-        <v>1055</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="135" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>1317</v>
+        <v>1245</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1069</v>
+        <v>1035</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1069</v>
+        <v>1035</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>1252</v>
+        <v>1180</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>1253</v>
+        <v>1181</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>1253</v>
+        <v>1181</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>1070</v>
+        <v>1036</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>1070</v>
+        <v>1036</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>1071</v>
+        <v>1037</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>1071</v>
+        <v>1037</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>1071</v>
+        <v>1037</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>1071</v>
+        <v>1037</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>1071</v>
+        <v>1037</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>1071</v>
+        <v>1037</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>1071</v>
+        <v>1037</v>
       </c>
       <c r="P135" s="1" t="s">
-        <v>1072</v>
+        <v>1038</v>
       </c>
       <c r="Q135" s="1" t="s">
-        <v>1072</v>
+        <v>1038</v>
       </c>
       <c r="R135" s="1" t="s">
-        <v>1072</v>
+        <v>1038</v>
       </c>
       <c r="S135" s="1" t="s">
-        <v>1072</v>
+        <v>1038</v>
       </c>
       <c r="T135" s="1" t="s">
-        <v>1254</v>
+        <v>1182</v>
       </c>
       <c r="U135" s="1" t="s">
-        <v>1254</v>
+        <v>1182</v>
       </c>
       <c r="V135" s="1" t="s">
-        <v>1254</v>
+        <v>1182</v>
       </c>
       <c r="W135" s="1"/>
       <c r="Z135" s="1" t="s">
-        <v>1069</v>
+        <v>1035</v>
       </c>
       <c r="AA135" s="1" t="s">
-        <v>1069</v>
+        <v>1035</v>
       </c>
       <c r="AB135" s="1" t="s">
-        <v>1255</v>
+        <v>1183</v>
       </c>
       <c r="AC135" s="1" t="s">
-        <v>1253</v>
+        <v>1181</v>
       </c>
       <c r="AD135" s="1" t="s">
-        <v>1069</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="136" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>1318</v>
+        <v>1246</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1073</v>
+        <v>1039</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1073</v>
+        <v>1039</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>1256</v>
+        <v>1184</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>1257</v>
+        <v>1185</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>1257</v>
+        <v>1185</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>1074</v>
+        <v>1040</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>1074</v>
+        <v>1040</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>1075</v>
+        <v>1041</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>1075</v>
+        <v>1041</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>1075</v>
+        <v>1041</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>1075</v>
+        <v>1041</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>1075</v>
+        <v>1041</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>1075</v>
+        <v>1041</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>1075</v>
+        <v>1041</v>
       </c>
       <c r="P136" s="1" t="s">
-        <v>1076</v>
+        <v>1042</v>
       </c>
       <c r="Q136" s="1" t="s">
-        <v>1076</v>
+        <v>1042</v>
       </c>
       <c r="R136" s="1" t="s">
-        <v>1076</v>
+        <v>1042</v>
       </c>
       <c r="S136" s="1" t="s">
-        <v>1076</v>
+        <v>1042</v>
       </c>
       <c r="T136" s="1" t="s">
-        <v>1258</v>
+        <v>1186</v>
       </c>
       <c r="U136" s="1" t="s">
-        <v>1258</v>
+        <v>1186</v>
       </c>
       <c r="V136" s="1" t="s">
-        <v>1258</v>
+        <v>1186</v>
       </c>
       <c r="W136" s="1"/>
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
       <c r="Z136" s="1" t="s">
-        <v>1073</v>
+        <v>1039</v>
       </c>
       <c r="AA136" s="1" t="s">
-        <v>1073</v>
+        <v>1039</v>
       </c>
       <c r="AB136" s="1" t="s">
-        <v>1259</v>
+        <v>1187</v>
       </c>
       <c r="AC136" s="1" t="s">
-        <v>1257</v>
+        <v>1185</v>
       </c>
       <c r="AD136" s="1" t="s">
-        <v>1073</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="137" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>1319</v>
+        <v>1247</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1077</v>
+        <v>1043</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1077</v>
+        <v>1043</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>1248</v>
+        <v>1176</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>1249</v>
+        <v>1177</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>1249</v>
+        <v>1177</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>1078</v>
+        <v>1044</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>1078</v>
+        <v>1044</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>1079</v>
+        <v>1045</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>1079</v>
+        <v>1045</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>1079</v>
+        <v>1045</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>1079</v>
+        <v>1045</v>
       </c>
       <c r="M137" s="1" t="s">
-        <v>1079</v>
+        <v>1045</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>1079</v>
+        <v>1045</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>1079</v>
+        <v>1045</v>
       </c>
       <c r="P137" s="1" t="s">
-        <v>1080</v>
+        <v>1046</v>
       </c>
       <c r="Q137" s="1" t="s">
-        <v>1080</v>
+        <v>1046</v>
       </c>
       <c r="R137" s="1" t="s">
-        <v>1080</v>
+        <v>1046</v>
       </c>
       <c r="S137" s="1" t="s">
-        <v>1080</v>
+        <v>1046</v>
       </c>
       <c r="T137" s="1" t="s">
-        <v>1250</v>
+        <v>1178</v>
       </c>
       <c r="U137" s="1" t="s">
-        <v>1250</v>
+        <v>1178</v>
       </c>
       <c r="V137" s="1" t="s">
-        <v>1250</v>
+        <v>1178</v>
       </c>
       <c r="W137" s="1"/>
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
       <c r="Z137" s="1" t="s">
-        <v>1077</v>
+        <v>1043</v>
       </c>
       <c r="AA137" s="1" t="s">
-        <v>1077</v>
+        <v>1043</v>
       </c>
       <c r="AB137" s="1" t="s">
-        <v>1251</v>
+        <v>1179</v>
       </c>
       <c r="AC137" s="1" t="s">
-        <v>1249</v>
+        <v>1177</v>
       </c>
       <c r="AD137" s="1" t="s">
-        <v>1077</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="138" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>1320</v>
+        <v>1248</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1081</v>
+        <v>1047</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1081</v>
+        <v>1047</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>1260</v>
+        <v>1188</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>1261</v>
+        <v>1189</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>1261</v>
+        <v>1189</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>1082</v>
+        <v>1048</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>1082</v>
+        <v>1048</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>1083</v>
+        <v>1049</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>1083</v>
+        <v>1049</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>1083</v>
+        <v>1049</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>1083</v>
+        <v>1049</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>1083</v>
+        <v>1049</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>1083</v>
+        <v>1049</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>1083</v>
+        <v>1049</v>
       </c>
       <c r="P138" s="1" t="s">
-        <v>1084</v>
+        <v>1050</v>
       </c>
       <c r="Q138" s="1" t="s">
-        <v>1084</v>
+        <v>1050</v>
       </c>
       <c r="R138" s="1" t="s">
-        <v>1084</v>
+        <v>1050</v>
       </c>
       <c r="S138" s="1" t="s">
-        <v>1084</v>
+        <v>1050</v>
       </c>
       <c r="T138" s="1" t="s">
-        <v>1262</v>
+        <v>1190</v>
       </c>
       <c r="U138" s="1" t="s">
-        <v>1262</v>
+        <v>1190</v>
       </c>
       <c r="V138" s="1" t="s">
-        <v>1262</v>
+        <v>1190</v>
       </c>
       <c r="W138" s="1"/>
       <c r="Z138" s="1" t="s">
-        <v>1081</v>
+        <v>1047</v>
       </c>
       <c r="AA138" s="1" t="s">
-        <v>1081</v>
+        <v>1047</v>
       </c>
       <c r="AB138" s="1" t="s">
-        <v>1263</v>
+        <v>1191</v>
       </c>
       <c r="AC138" s="1" t="s">
-        <v>1261</v>
+        <v>1189</v>
       </c>
       <c r="AD138" s="1" t="s">
-        <v>1081</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="139" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>1321</v>
+        <v>1249</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1085</v>
+        <v>1051</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1085</v>
+        <v>1051</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>1264</v>
+        <v>1192</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>1265</v>
+        <v>1193</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>1265</v>
+        <v>1193</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>1086</v>
+        <v>1052</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>1086</v>
+        <v>1052</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>1087</v>
+        <v>1053</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>1087</v>
+        <v>1053</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>1087</v>
+        <v>1053</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>1087</v>
+        <v>1053</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>1087</v>
+        <v>1053</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>1087</v>
+        <v>1053</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>1087</v>
+        <v>1053</v>
       </c>
       <c r="P139" s="1" t="s">
-        <v>1088</v>
+        <v>1054</v>
       </c>
       <c r="Q139" s="1" t="s">
-        <v>1088</v>
+        <v>1054</v>
       </c>
       <c r="R139" s="1" t="s">
-        <v>1088</v>
+        <v>1054</v>
       </c>
       <c r="S139" s="1" t="s">
-        <v>1088</v>
+        <v>1054</v>
       </c>
       <c r="T139" s="1" t="s">
-        <v>1266</v>
+        <v>1194</v>
       </c>
       <c r="U139" s="1" t="s">
-        <v>1266</v>
+        <v>1194</v>
       </c>
       <c r="V139" s="1" t="s">
-        <v>1266</v>
+        <v>1194</v>
       </c>
       <c r="W139" s="1"/>
       <c r="Z139" s="1" t="s">
-        <v>1085</v>
+        <v>1051</v>
       </c>
       <c r="AA139" s="1" t="s">
-        <v>1085</v>
+        <v>1051</v>
       </c>
       <c r="AB139" s="1" t="s">
-        <v>1267</v>
+        <v>1195</v>
       </c>
       <c r="AC139" s="1" t="s">
-        <v>1265</v>
+        <v>1193</v>
       </c>
       <c r="AD139" s="1" t="s">
-        <v>1085</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="140" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>1322</v>
+        <v>1250</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>1089</v>
+        <v>1055</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1089</v>
+        <v>1055</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>1268</v>
+        <v>1196</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>1269</v>
+        <v>1197</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>1269</v>
+        <v>1197</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>1090</v>
+        <v>1056</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>1090</v>
+        <v>1056</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>1091</v>
+        <v>1057</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>1091</v>
+        <v>1057</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>1091</v>
+        <v>1057</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>1091</v>
+        <v>1057</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>1091</v>
+        <v>1057</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>1091</v>
+        <v>1057</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>1091</v>
+        <v>1057</v>
       </c>
       <c r="P140" s="1" t="s">
-        <v>1092</v>
+        <v>1058</v>
       </c>
       <c r="Q140" s="1" t="s">
-        <v>1092</v>
+        <v>1058</v>
       </c>
       <c r="R140" s="1" t="s">
-        <v>1092</v>
+        <v>1058</v>
       </c>
       <c r="S140" s="1" t="s">
-        <v>1092</v>
+        <v>1058</v>
       </c>
       <c r="T140" s="1" t="s">
-        <v>1270</v>
+        <v>1198</v>
       </c>
       <c r="U140" s="1" t="s">
-        <v>1270</v>
+        <v>1198</v>
       </c>
       <c r="V140" s="1" t="s">
-        <v>1270</v>
+        <v>1198</v>
       </c>
       <c r="W140" s="1"/>
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
       <c r="Z140" s="1" t="s">
-        <v>1089</v>
+        <v>1055</v>
       </c>
       <c r="AA140" s="1" t="s">
-        <v>1089</v>
+        <v>1055</v>
       </c>
       <c r="AB140" s="1" t="s">
-        <v>1271</v>
+        <v>1199</v>
       </c>
       <c r="AC140" s="1" t="s">
-        <v>1269</v>
+        <v>1197</v>
       </c>
       <c r="AD140" s="1" t="s">
-        <v>1089</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="141" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>1323</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>1094</v>
-      </c>
       <c r="D141" s="1" t="s">
-        <v>1095</v>
+        <v>1060</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>1096</v>
+        <v>1061</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>1097</v>
+        <v>1324</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>1098</v>
+        <v>1062</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>1099</v>
+        <v>1325</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>1100</v>
+        <v>1063</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>1101</v>
+        <v>1326</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>1100</v>
+        <v>1063</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>1101</v>
+        <v>1326</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>1100</v>
+        <v>1063</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>1101</v>
+        <v>1326</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>1100</v>
+        <v>1063</v>
       </c>
       <c r="P141" s="1" t="s">
-        <v>1102</v>
+        <v>1327</v>
       </c>
       <c r="Q141" s="1" t="s">
-        <v>1102</v>
+        <v>1327</v>
       </c>
       <c r="R141" s="1" t="s">
-        <v>1103</v>
+        <v>1064</v>
       </c>
       <c r="S141" s="1" t="s">
-        <v>1103</v>
+        <v>1064</v>
       </c>
       <c r="T141" s="1" t="s">
-        <v>1104</v>
+        <v>1328</v>
       </c>
       <c r="U141" s="1" t="s">
-        <v>1105</v>
+        <v>1065</v>
       </c>
       <c r="V141" s="1" t="s">
-        <v>1105</v>
+        <v>1065</v>
       </c>
       <c r="W141" s="1"/>
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
       <c r="Z141" s="1" t="s">
-        <v>1093</v>
+        <v>1059</v>
       </c>
       <c r="AA141" s="1" t="s">
-        <v>1094</v>
+        <v>1323</v>
       </c>
       <c r="AB141" s="1" t="s">
-        <v>1106</v>
+        <v>1066</v>
       </c>
       <c r="AC141" s="1" t="s">
-        <v>1096</v>
+        <v>1061</v>
       </c>
       <c r="AD141" s="1" t="s">
-        <v>1093</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="142" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>1324</v>
+        <v>1276</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1107</v>
+        <v>1067</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1108</v>
+        <v>1329</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>1109</v>
+        <v>1068</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>1110</v>
+        <v>1069</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>1111</v>
+        <v>1330</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>1112</v>
+        <v>1070</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>1113</v>
+        <v>1331</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>1114</v>
+        <v>1071</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>1115</v>
+        <v>1332</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>1114</v>
+        <v>1071</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>1115</v>
+        <v>1332</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>1114</v>
+        <v>1071</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>1115</v>
+        <v>1332</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>1114</v>
+        <v>1071</v>
       </c>
       <c r="P142" s="1" t="s">
-        <v>1116</v>
+        <v>1333</v>
       </c>
       <c r="Q142" s="1" t="s">
-        <v>1116</v>
+        <v>1333</v>
       </c>
       <c r="R142" s="1" t="s">
-        <v>1117</v>
+        <v>1072</v>
       </c>
       <c r="S142" s="1" t="s">
-        <v>1117</v>
+        <v>1072</v>
       </c>
       <c r="T142" s="1" t="s">
-        <v>1118</v>
+        <v>1334</v>
       </c>
       <c r="U142" s="1" t="s">
-        <v>1119</v>
+        <v>1073</v>
       </c>
       <c r="V142" s="1" t="s">
-        <v>1119</v>
+        <v>1073</v>
       </c>
       <c r="W142" s="1"/>
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
       <c r="Z142" s="1" t="s">
-        <v>1107</v>
+        <v>1067</v>
       </c>
       <c r="AA142" s="1" t="s">
-        <v>1108</v>
+        <v>1329</v>
       </c>
       <c r="AB142" s="1" t="s">
-        <v>1120</v>
+        <v>1074</v>
       </c>
       <c r="AC142" s="1" t="s">
-        <v>1110</v>
+        <v>1069</v>
       </c>
       <c r="AD142" s="1" t="s">
-        <v>1107</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="143" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>1325</v>
+        <v>1277</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1121</v>
+        <v>1075</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>1122</v>
+        <v>1335</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>1123</v>
+        <v>1076</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>1124</v>
+        <v>1077</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>1125</v>
+        <v>1336</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>1126</v>
+        <v>1078</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>1127</v>
+        <v>1337</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>1128</v>
+        <v>1079</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>1129</v>
+        <v>1338</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>1128</v>
+        <v>1079</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>1129</v>
+        <v>1338</v>
       </c>
       <c r="M143" s="1" t="s">
-        <v>1128</v>
+        <v>1079</v>
       </c>
       <c r="N143" s="1" t="s">
-        <v>1129</v>
+        <v>1338</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>1128</v>
+        <v>1079</v>
       </c>
       <c r="P143" s="1" t="s">
-        <v>1130</v>
+        <v>1339</v>
       </c>
       <c r="Q143" s="1" t="s">
-        <v>1130</v>
+        <v>1339</v>
       </c>
       <c r="R143" s="1" t="s">
-        <v>1131</v>
+        <v>1080</v>
       </c>
       <c r="S143" s="1" t="s">
-        <v>1131</v>
+        <v>1080</v>
       </c>
       <c r="T143" s="1" t="s">
-        <v>1132</v>
+        <v>1340</v>
       </c>
       <c r="U143" s="1" t="s">
-        <v>1133</v>
+        <v>1081</v>
       </c>
       <c r="V143" s="1" t="s">
-        <v>1133</v>
+        <v>1081</v>
       </c>
       <c r="W143" s="1"/>
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
       <c r="Z143" s="1" t="s">
-        <v>1121</v>
+        <v>1075</v>
       </c>
       <c r="AA143" s="1" t="s">
-        <v>1122</v>
+        <v>1335</v>
       </c>
       <c r="AB143" s="1" t="s">
-        <v>1134</v>
+        <v>1082</v>
       </c>
       <c r="AC143" s="1" t="s">
-        <v>1124</v>
+        <v>1077</v>
       </c>
       <c r="AD143" s="1" t="s">
-        <v>1121</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="144" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>1326</v>
+        <v>1278</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1135</v>
+        <v>1083</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>1136</v>
+        <v>1341</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>1137</v>
+        <v>1084</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>1138</v>
+        <v>1085</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>1139</v>
+        <v>1342</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>1140</v>
+        <v>1086</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>1141</v>
+        <v>1343</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>1142</v>
+        <v>1087</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>1143</v>
+        <v>1344</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>1142</v>
+        <v>1087</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>1143</v>
+        <v>1344</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>1142</v>
+        <v>1087</v>
       </c>
       <c r="N144" s="1" t="s">
-        <v>1143</v>
+        <v>1344</v>
       </c>
       <c r="O144" s="1" t="s">
-        <v>1142</v>
+        <v>1087</v>
       </c>
       <c r="P144" s="1" t="s">
-        <v>1144</v>
+        <v>1345</v>
       </c>
       <c r="Q144" s="1" t="s">
-        <v>1144</v>
+        <v>1345</v>
       </c>
       <c r="R144" s="1" t="s">
-        <v>1145</v>
+        <v>1088</v>
       </c>
       <c r="S144" s="1" t="s">
-        <v>1145</v>
+        <v>1088</v>
       </c>
       <c r="T144" s="1" t="s">
-        <v>1146</v>
+        <v>1346</v>
       </c>
       <c r="U144" s="1" t="s">
-        <v>1147</v>
+        <v>1089</v>
       </c>
       <c r="V144" s="1" t="s">
-        <v>1147</v>
+        <v>1089</v>
       </c>
       <c r="W144" s="1"/>
       <c r="Z144" s="1" t="s">
-        <v>1135</v>
+        <v>1083</v>
       </c>
       <c r="AA144" s="1" t="s">
-        <v>1136</v>
+        <v>1341</v>
       </c>
       <c r="AB144" s="1" t="s">
-        <v>1148</v>
+        <v>1090</v>
       </c>
       <c r="AC144" s="1" t="s">
-        <v>1138</v>
+        <v>1085</v>
       </c>
       <c r="AD144" s="1" t="s">
-        <v>1135</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="145" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>1327</v>
+        <v>1279</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1149</v>
+        <v>1091</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>1150</v>
+        <v>1347</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>1151</v>
+        <v>1092</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>1152</v>
+        <v>1093</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>1153</v>
+        <v>1348</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>1154</v>
+        <v>1094</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>1155</v>
+        <v>1349</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>1156</v>
+        <v>1095</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>1157</v>
+        <v>1350</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>1156</v>
+        <v>1095</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>1157</v>
+        <v>1350</v>
       </c>
       <c r="M145" s="1" t="s">
-        <v>1156</v>
+        <v>1095</v>
       </c>
       <c r="N145" s="1" t="s">
-        <v>1157</v>
+        <v>1350</v>
       </c>
       <c r="O145" s="1" t="s">
-        <v>1156</v>
+        <v>1095</v>
       </c>
       <c r="P145" s="1" t="s">
-        <v>1158</v>
+        <v>1351</v>
       </c>
       <c r="Q145" s="1" t="s">
-        <v>1158</v>
+        <v>1351</v>
       </c>
       <c r="R145" s="1" t="s">
-        <v>1159</v>
+        <v>1096</v>
       </c>
       <c r="S145" s="1" t="s">
-        <v>1159</v>
+        <v>1096</v>
       </c>
       <c r="T145" s="1" t="s">
-        <v>1160</v>
+        <v>1352</v>
       </c>
       <c r="U145" s="1" t="s">
-        <v>1161</v>
+        <v>1097</v>
       </c>
       <c r="V145" s="1" t="s">
-        <v>1161</v>
+        <v>1097</v>
       </c>
       <c r="W145" s="1"/>
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
       <c r="Z145" s="1" t="s">
-        <v>1149</v>
+        <v>1091</v>
       </c>
       <c r="AA145" s="1" t="s">
-        <v>1150</v>
+        <v>1347</v>
       </c>
       <c r="AB145" s="1" t="s">
-        <v>1162</v>
+        <v>1098</v>
       </c>
       <c r="AC145" s="1" t="s">
-        <v>1152</v>
+        <v>1093</v>
       </c>
       <c r="AD145" s="1" t="s">
-        <v>1149</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="146" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>1328</v>
+        <v>1280</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1163</v>
+        <v>1099</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>1164</v>
+        <v>1353</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>1165</v>
+        <v>1100</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>1166</v>
+        <v>1101</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>1167</v>
+        <v>1354</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>1168</v>
+        <v>1102</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>1169</v>
+        <v>1355</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>1170</v>
+        <v>1103</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>1171</v>
+        <v>1356</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>1170</v>
+        <v>1103</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>1171</v>
+        <v>1356</v>
       </c>
       <c r="M146" s="1" t="s">
-        <v>1170</v>
+        <v>1103</v>
       </c>
       <c r="N146" s="1" t="s">
-        <v>1171</v>
+        <v>1356</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>1170</v>
+        <v>1103</v>
       </c>
       <c r="P146" s="1" t="s">
-        <v>1172</v>
+        <v>1357</v>
       </c>
       <c r="Q146" s="1" t="s">
-        <v>1172</v>
+        <v>1357</v>
       </c>
       <c r="R146" s="1" t="s">
-        <v>1173</v>
+        <v>1104</v>
       </c>
       <c r="S146" s="1" t="s">
-        <v>1173</v>
+        <v>1104</v>
       </c>
       <c r="T146" s="1" t="s">
-        <v>1174</v>
+        <v>1358</v>
       </c>
       <c r="U146" s="1" t="s">
-        <v>1175</v>
+        <v>1105</v>
       </c>
       <c r="V146" s="1" t="s">
-        <v>1175</v>
+        <v>1105</v>
       </c>
       <c r="W146" s="1"/>
       <c r="X146" s="1"/>
       <c r="Y146" s="1"/>
       <c r="Z146" s="1" t="s">
-        <v>1163</v>
+        <v>1099</v>
       </c>
       <c r="AA146" s="1" t="s">
-        <v>1164</v>
+        <v>1353</v>
       </c>
       <c r="AB146" s="1" t="s">
-        <v>1176</v>
+        <v>1106</v>
       </c>
       <c r="AC146" s="1" t="s">
-        <v>1166</v>
+        <v>1101</v>
       </c>
       <c r="AD146" s="1" t="s">
-        <v>1163</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="147" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>1329</v>
+        <v>1281</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1177</v>
+        <v>1107</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>1177</v>
+        <v>1107</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>1272</v>
+        <v>1200</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>1273</v>
+        <v>1201</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>1273</v>
+        <v>1201</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>1178</v>
+        <v>1108</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>1178</v>
+        <v>1108</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>1179</v>
+        <v>1109</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>1179</v>
+        <v>1109</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>1179</v>
+        <v>1109</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>1179</v>
+        <v>1109</v>
       </c>
       <c r="M147" s="1" t="s">
-        <v>1179</v>
+        <v>1109</v>
       </c>
       <c r="N147" s="1" t="s">
-        <v>1179</v>
+        <v>1109</v>
       </c>
       <c r="O147" s="1" t="s">
-        <v>1179</v>
+        <v>1109</v>
       </c>
       <c r="P147" s="1" t="s">
-        <v>1180</v>
+        <v>1110</v>
       </c>
       <c r="Q147" s="1" t="s">
-        <v>1180</v>
+        <v>1110</v>
       </c>
       <c r="R147" s="1" t="s">
-        <v>1180</v>
+        <v>1110</v>
       </c>
       <c r="S147" s="1" t="s">
-        <v>1180</v>
+        <v>1110</v>
       </c>
       <c r="T147" s="1" t="s">
-        <v>1274</v>
+        <v>1202</v>
       </c>
       <c r="U147" s="1" t="s">
-        <v>1274</v>
+        <v>1202</v>
       </c>
       <c r="V147" s="1" t="s">
-        <v>1274</v>
+        <v>1202</v>
       </c>
       <c r="W147" s="1"/>
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
       <c r="Z147" s="1" t="s">
-        <v>1177</v>
+        <v>1107</v>
       </c>
       <c r="AA147" s="1" t="s">
-        <v>1177</v>
+        <v>1107</v>
       </c>
       <c r="AB147" s="1" t="s">
-        <v>1275</v>
+        <v>1203</v>
       </c>
       <c r="AC147" s="1" t="s">
-        <v>1273</v>
+        <v>1201</v>
       </c>
       <c r="AD147" s="1" t="s">
-        <v>1177</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="148" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>1330</v>
+        <v>1282</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>1181</v>
+        <v>1111</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1181</v>
+        <v>1111</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>1276</v>
+        <v>1204</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>1277</v>
+        <v>1205</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>1277</v>
+        <v>1205</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>1182</v>
+        <v>1112</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>1182</v>
+        <v>1112</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>1183</v>
+        <v>1113</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>1183</v>
+        <v>1113</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>1183</v>
+        <v>1113</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>1183</v>
+        <v>1113</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>1183</v>
+        <v>1113</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>1183</v>
+        <v>1113</v>
       </c>
       <c r="O148" s="1" t="s">
-        <v>1183</v>
+        <v>1113</v>
       </c>
       <c r="P148" s="1" t="s">
-        <v>1184</v>
+        <v>1114</v>
       </c>
       <c r="Q148" s="1" t="s">
-        <v>1184</v>
+        <v>1114</v>
       </c>
       <c r="R148" s="1" t="s">
-        <v>1184</v>
+        <v>1114</v>
       </c>
       <c r="S148" s="1" t="s">
-        <v>1184</v>
+        <v>1114</v>
       </c>
       <c r="T148" s="1" t="s">
-        <v>1278</v>
+        <v>1206</v>
       </c>
       <c r="U148" s="1" t="s">
-        <v>1278</v>
+        <v>1206</v>
       </c>
       <c r="V148" s="1" t="s">
-        <v>1278</v>
+        <v>1206</v>
       </c>
       <c r="W148" s="1"/>
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
       <c r="Z148" s="1" t="s">
-        <v>1181</v>
+        <v>1111</v>
       </c>
       <c r="AA148" s="1" t="s">
-        <v>1181</v>
+        <v>1111</v>
       </c>
       <c r="AB148" s="1" t="s">
-        <v>1279</v>
+        <v>1207</v>
       </c>
       <c r="AC148" s="1" t="s">
-        <v>1277</v>
+        <v>1205</v>
       </c>
       <c r="AD148" s="1" t="s">
-        <v>1181</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="149" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>1331</v>
+        <v>1283</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>1185</v>
+        <v>1115</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>1185</v>
+        <v>1115</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>1280</v>
+        <v>1208</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>1281</v>
+        <v>1209</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>1281</v>
+        <v>1209</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>1186</v>
+        <v>1116</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>1186</v>
+        <v>1116</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>1187</v>
+        <v>1117</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>1187</v>
+        <v>1117</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>1187</v>
+        <v>1117</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>1187</v>
+        <v>1117</v>
       </c>
       <c r="M149" s="1" t="s">
-        <v>1187</v>
+        <v>1117</v>
       </c>
       <c r="N149" s="1" t="s">
-        <v>1187</v>
+        <v>1117</v>
       </c>
       <c r="O149" s="1" t="s">
-        <v>1187</v>
+        <v>1117</v>
       </c>
       <c r="P149" s="1" t="s">
-        <v>1188</v>
+        <v>1118</v>
       </c>
       <c r="Q149" s="1" t="s">
-        <v>1188</v>
+        <v>1118</v>
       </c>
       <c r="R149" s="1" t="s">
-        <v>1188</v>
+        <v>1118</v>
       </c>
       <c r="S149" s="1" t="s">
-        <v>1188</v>
+        <v>1118</v>
       </c>
       <c r="T149" s="1" t="s">
-        <v>1282</v>
+        <v>1210</v>
       </c>
       <c r="U149" s="1" t="s">
-        <v>1282</v>
+        <v>1210</v>
       </c>
       <c r="V149" s="1" t="s">
-        <v>1282</v>
+        <v>1210</v>
       </c>
       <c r="W149" s="1"/>
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
       <c r="Z149" s="1" t="s">
-        <v>1185</v>
+        <v>1115</v>
       </c>
       <c r="AA149" s="1" t="s">
-        <v>1185</v>
+        <v>1115</v>
       </c>
       <c r="AB149" s="1" t="s">
-        <v>1283</v>
+        <v>1211</v>
       </c>
       <c r="AC149" s="1" t="s">
-        <v>1281</v>
+        <v>1209</v>
       </c>
       <c r="AD149" s="1" t="s">
-        <v>1185</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="150" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>1332</v>
+        <v>1284</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1189</v>
+        <v>1119</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1189</v>
+        <v>1119</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>1284</v>
+        <v>1212</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>1285</v>
+        <v>1213</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>1285</v>
+        <v>1213</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>1190</v>
+        <v>1120</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>1190</v>
+        <v>1120</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>1191</v>
+        <v>1121</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>1191</v>
+        <v>1121</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>1191</v>
+        <v>1121</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>1191</v>
+        <v>1121</v>
       </c>
       <c r="M150" s="1" t="s">
-        <v>1191</v>
+        <v>1121</v>
       </c>
       <c r="N150" s="1" t="s">
-        <v>1191</v>
+        <v>1121</v>
       </c>
       <c r="O150" s="1" t="s">
-        <v>1191</v>
+        <v>1121</v>
       </c>
       <c r="P150" s="1" t="s">
-        <v>1192</v>
+        <v>1122</v>
       </c>
       <c r="Q150" s="1" t="s">
-        <v>1192</v>
+        <v>1122</v>
       </c>
       <c r="R150" s="1" t="s">
-        <v>1192</v>
+        <v>1122</v>
       </c>
       <c r="S150" s="1" t="s">
-        <v>1192</v>
+        <v>1122</v>
       </c>
       <c r="T150" s="1" t="s">
-        <v>1286</v>
+        <v>1214</v>
       </c>
       <c r="U150" s="1" t="s">
-        <v>1286</v>
+        <v>1214</v>
       </c>
       <c r="V150" s="1" t="s">
-        <v>1286</v>
+        <v>1214</v>
       </c>
       <c r="W150" s="1"/>
       <c r="Z150" s="1" t="s">
-        <v>1189</v>
+        <v>1119</v>
       </c>
       <c r="AA150" s="1" t="s">
-        <v>1189</v>
+        <v>1119</v>
       </c>
       <c r="AB150" s="1" t="s">
-        <v>1287</v>
+        <v>1215</v>
       </c>
       <c r="AC150" s="1" t="s">
-        <v>1285</v>
+        <v>1213</v>
       </c>
       <c r="AD150" s="1" t="s">
-        <v>1189</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="151" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>1333</v>
+        <v>1285</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1193</v>
+        <v>1123</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1193</v>
+        <v>1123</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>1288</v>
+        <v>1216</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>1289</v>
+        <v>1217</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>1289</v>
+        <v>1217</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>1194</v>
+        <v>1124</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>1194</v>
+        <v>1124</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>1195</v>
+        <v>1125</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>1195</v>
+        <v>1125</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>1195</v>
+        <v>1125</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>1195</v>
+        <v>1125</v>
       </c>
       <c r="M151" s="1" t="s">
-        <v>1195</v>
+        <v>1125</v>
       </c>
       <c r="N151" s="1" t="s">
-        <v>1195</v>
+        <v>1125</v>
       </c>
       <c r="O151" s="1" t="s">
-        <v>1195</v>
+        <v>1125</v>
       </c>
       <c r="P151" s="1" t="s">
-        <v>1196</v>
+        <v>1126</v>
       </c>
       <c r="Q151" s="1" t="s">
-        <v>1196</v>
+        <v>1126</v>
       </c>
       <c r="R151" s="1" t="s">
-        <v>1196</v>
+        <v>1126</v>
       </c>
       <c r="S151" s="1" t="s">
-        <v>1196</v>
+        <v>1126</v>
       </c>
       <c r="T151" s="1" t="s">
-        <v>1290</v>
+        <v>1218</v>
       </c>
       <c r="U151" s="1" t="s">
-        <v>1290</v>
+        <v>1218</v>
       </c>
       <c r="V151" s="1" t="s">
-        <v>1290</v>
+        <v>1218</v>
       </c>
       <c r="W151" s="1"/>
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
       <c r="Z151" s="1" t="s">
-        <v>1193</v>
+        <v>1123</v>
       </c>
       <c r="AA151" s="1" t="s">
-        <v>1193</v>
+        <v>1123</v>
       </c>
       <c r="AB151" s="1" t="s">
-        <v>1291</v>
+        <v>1219</v>
       </c>
       <c r="AC151" s="1" t="s">
-        <v>1289</v>
+        <v>1217</v>
       </c>
       <c r="AD151" s="1" t="s">
-        <v>1193</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="152" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>1334</v>
+        <v>1286</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1197</v>
+        <v>1127</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>1197</v>
+        <v>1127</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>1292</v>
+        <v>1220</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>1293</v>
+        <v>1221</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>1293</v>
+        <v>1221</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>1198</v>
+        <v>1128</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>1198</v>
+        <v>1128</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>1199</v>
+        <v>1129</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>1199</v>
+        <v>1129</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>1199</v>
+        <v>1129</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>1199</v>
+        <v>1129</v>
       </c>
       <c r="M152" s="1" t="s">
-        <v>1199</v>
+        <v>1129</v>
       </c>
       <c r="N152" s="1" t="s">
-        <v>1199</v>
+        <v>1129</v>
       </c>
       <c r="O152" s="1" t="s">
-        <v>1199</v>
+        <v>1129</v>
       </c>
       <c r="P152" s="1" t="s">
-        <v>1200</v>
+        <v>1130</v>
       </c>
       <c r="Q152" s="1" t="s">
-        <v>1200</v>
+        <v>1130</v>
       </c>
       <c r="R152" s="1" t="s">
-        <v>1200</v>
+        <v>1130</v>
       </c>
       <c r="S152" s="1" t="s">
-        <v>1200</v>
+        <v>1130</v>
       </c>
       <c r="T152" s="1" t="s">
-        <v>1294</v>
+        <v>1222</v>
       </c>
       <c r="U152" s="1" t="s">
-        <v>1294</v>
+        <v>1222</v>
       </c>
       <c r="V152" s="1" t="s">
-        <v>1294</v>
+        <v>1222</v>
       </c>
       <c r="W152" s="1"/>
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
       <c r="Z152" s="1" t="s">
-        <v>1197</v>
+        <v>1127</v>
       </c>
       <c r="AA152" s="1" t="s">
-        <v>1197</v>
+        <v>1127</v>
       </c>
       <c r="AB152" s="1" t="s">
-        <v>1295</v>
+        <v>1223</v>
       </c>
       <c r="AC152" s="1" t="s">
-        <v>1293</v>
+        <v>1221</v>
       </c>
       <c r="AD152" s="1" t="s">
-        <v>1197</v>
+        <v>1127</v>
       </c>
     </row>
   </sheetData>

--- a/VerbConjugation/XLSX/TransStemmed.xlsx
+++ b/VerbConjugation/XLSX/TransStemmed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hovsep/Library/CloudStorage/GoogleDrive-hovsep443@hotmail.com/My Drive/Dialectal kickstarts/2021 kickstart  - Tehran/Archive/iranian_armenian/VerbConjugation/XLSX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C936ED-B0A3-BF49-8D0D-FCCF4123849D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D1DA09-AB58-2646-94EC-64B31A40A73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1080" windowWidth="28040" windowHeight="15460" xr2:uid="{F4A8DE63-4361-ED43-8851-AA04255BF1C7}"/>
+    <workbookView xWindow="7600" yWindow="500" windowWidth="28040" windowHeight="15440" xr2:uid="{F4A8DE63-4361-ED43-8851-AA04255BF1C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2746,9 +2746,6 @@
     <t>t͡ʃʰ{Xprs}nɒn</t>
   </si>
   <si>
-    <t>subjunctive past imperfective 1SG</t>
-  </si>
-  <si>
     <t>{X}nɒjim</t>
   </si>
   <si>
@@ -2767,9 +2764,6 @@
     <t>{Xprs}nɒjim</t>
   </si>
   <si>
-    <t>subjunctive past imperfective 2SG</t>
-  </si>
-  <si>
     <t>{X}nɒjiɻ</t>
   </si>
   <si>
@@ -2788,9 +2782,6 @@
     <t>{Xprs}nɒjiɻ</t>
   </si>
   <si>
-    <t>subjunctive past imperfective 3SG</t>
-  </si>
-  <si>
     <t>{X}nɒɻ</t>
   </si>
   <si>
@@ -2809,9 +2800,6 @@
     <t>{Xprs}nɒɻ</t>
   </si>
   <si>
-    <t>subjunctive past imperfective 1PL</t>
-  </si>
-  <si>
     <t>{X}nɒjiŋkʰ</t>
   </si>
   <si>
@@ -2830,9 +2818,6 @@
     <t>{Xprs}nɒjiŋkʰ</t>
   </si>
   <si>
-    <t>subjunctive past imperfective 2PL</t>
-  </si>
-  <si>
     <t>{X}nɒjikʰ</t>
   </si>
   <si>
@@ -2851,9 +2836,6 @@
     <t>{Xprs}nɒjikʰ</t>
   </si>
   <si>
-    <t>subjunctive past imperfective 3PL</t>
-  </si>
-  <si>
     <t>{X}in</t>
   </si>
   <si>
@@ -2878,9 +2860,6 @@
     <t>{Xprs}nɒjin</t>
   </si>
   <si>
-    <t>negative subjunctive past imperfective 1SG</t>
-  </si>
-  <si>
     <t>t͡ʃʰ{X}nɒjim</t>
   </si>
   <si>
@@ -2899,9 +2878,6 @@
     <t>t͡ʃʰ{Xprs}nɒjim</t>
   </si>
   <si>
-    <t>negative subjunctive past imperfective 2SG</t>
-  </si>
-  <si>
     <t>t͡ʃʰ{X}nɒjiɻ</t>
   </si>
   <si>
@@ -2920,9 +2896,6 @@
     <t>t͡ʃʰ{Xprs}nɒjiɻ</t>
   </si>
   <si>
-    <t>negative subjunctive past imperfective 3SG</t>
-  </si>
-  <si>
     <t>t͡ʃʰ{X}nɒɻ</t>
   </si>
   <si>
@@ -2941,9 +2914,6 @@
     <t>t͡ʃʰ{Xprs}nɒɻ</t>
   </si>
   <si>
-    <t>negative subjunctive past imperfective 1PL</t>
-  </si>
-  <si>
     <t>t͡ʃʰ{X}nɒjiŋkʰ</t>
   </si>
   <si>
@@ -2962,9 +2932,6 @@
     <t>t͡ʃʰ{Xprs}nɒjiŋkʰ</t>
   </si>
   <si>
-    <t>negative subjunctive past imperfective 2PL</t>
-  </si>
-  <si>
     <t>t͡ʃʰ{X}nɒjikʰ</t>
   </si>
   <si>
@@ -2983,9 +2950,6 @@
     <t>t͡ʃʰ{Xprs}nɒjikʰ</t>
   </si>
   <si>
-    <t>negative subjunctive past imperfective 3PL</t>
-  </si>
-  <si>
     <t>t͡ʃʰ{X}in</t>
   </si>
   <si>
@@ -3826,42 +3790,6 @@
     <t>negative of periphrastic future 3PL</t>
   </si>
   <si>
-    <t>future in the past 1SG</t>
-  </si>
-  <si>
-    <t>future in the past 2SG</t>
-  </si>
-  <si>
-    <t>future in the past 3SG</t>
-  </si>
-  <si>
-    <t>future in the past 1PL</t>
-  </si>
-  <si>
-    <t>future in the past 2PL</t>
-  </si>
-  <si>
-    <t>future in the past 3PL</t>
-  </si>
-  <si>
-    <t>negative future in the past 1SG</t>
-  </si>
-  <si>
-    <t>negative future in the past 2SG</t>
-  </si>
-  <si>
-    <t>negative future in the past 3SG</t>
-  </si>
-  <si>
-    <t>negative future in the past 1PL</t>
-  </si>
-  <si>
-    <t>negative future in the past 2PL</t>
-  </si>
-  <si>
-    <t>negative future in the past 3PL</t>
-  </si>
-  <si>
     <t>conditional past 1SG</t>
   </si>
   <si>
@@ -4112,6 +4040,78 @@
   </si>
   <si>
     <t>k{Xprs}ɒjin</t>
+  </si>
+  <si>
+    <t>subjunctive past 1SG</t>
+  </si>
+  <si>
+    <t>subjunctive past 2SG</t>
+  </si>
+  <si>
+    <t>subjunctive past 3SG</t>
+  </si>
+  <si>
+    <t>subjunctive past 1PL</t>
+  </si>
+  <si>
+    <t>subjunctive past 2PL</t>
+  </si>
+  <si>
+    <t>subjunctive past 3PL</t>
+  </si>
+  <si>
+    <t>negative subjunctive past 1SG</t>
+  </si>
+  <si>
+    <t>negative subjunctive past 2SG</t>
+  </si>
+  <si>
+    <t>negative subjunctive past 3SG</t>
+  </si>
+  <si>
+    <t>negative subjunctive past 1PL</t>
+  </si>
+  <si>
+    <t>negative subjunctive past 2PL</t>
+  </si>
+  <si>
+    <t>negative subjunctive past 3PL</t>
+  </si>
+  <si>
+    <t>past future 1SG</t>
+  </si>
+  <si>
+    <t>past future 2SG</t>
+  </si>
+  <si>
+    <t>past future 3SG</t>
+  </si>
+  <si>
+    <t>past future 1PL</t>
+  </si>
+  <si>
+    <t>past future 2PL</t>
+  </si>
+  <si>
+    <t>past future 3PL</t>
+  </si>
+  <si>
+    <t>negative past future 1SG</t>
+  </si>
+  <si>
+    <t>negative past future 2SG</t>
+  </si>
+  <si>
+    <t>negative past future 3SG</t>
+  </si>
+  <si>
+    <t>negative past future 1PL</t>
+  </si>
+  <si>
+    <t>negative past future 2PL</t>
+  </si>
+  <si>
+    <t>negative past future 3PL</t>
   </si>
 </sst>
 </file>
@@ -4472,8 +4472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74E9808-725B-4140-9F3A-E401D057D6B9}">
   <dimension ref="A1:AD152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="F145" sqref="F145"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="B144" sqref="A1:AD152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4828,7 +4828,7 @@
         <v>39</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>1236</v>
+        <v>1224</v>
       </c>
       <c r="Z4" s="1" t="s">
         <v>40</v>
@@ -4920,7 +4920,7 @@
         <v>67</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>1238</v>
+        <v>1226</v>
       </c>
       <c r="Z5" s="1" t="s">
         <v>68</v>
@@ -5012,7 +5012,7 @@
         <v>95</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>1237</v>
+        <v>1225</v>
       </c>
       <c r="Z6" s="1" t="s">
         <v>96</v>
@@ -5753,13 +5753,13 @@
         <v>168</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1132</v>
+        <v>1120</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1165</v>
+        <v>1153</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1165</v>
+        <v>1153</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>169</v>
@@ -5801,13 +5801,13 @@
         <v>171</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>1166</v>
+        <v>1154</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>1166</v>
+        <v>1154</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>1166</v>
+        <v>1154</v>
       </c>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
@@ -5819,10 +5819,10 @@
         <v>168</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>1167</v>
+        <v>1155</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>1165</v>
+        <v>1153</v>
       </c>
       <c r="AD16" s="1" t="s">
         <v>168</v>
@@ -6080,7 +6080,7 @@
         <v>195</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>1132</v>
+        <v>1120</v>
       </c>
       <c r="X19" s="1" t="s">
         <v>168</v>
@@ -6632,7 +6632,7 @@
         <v>247</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>1168</v>
+        <v>1156</v>
       </c>
       <c r="X25" s="1" t="s">
         <v>248</v>
@@ -7460,13 +7460,13 @@
         <v>326</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="Z34" s="1" t="s">
         <v>322</v>
@@ -10249,85 +10249,85 @@
         <v>759</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1224</v>
+        <v>1212</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1224</v>
+        <v>1212</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>120</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>1225</v>
+        <v>1213</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>1225</v>
+        <v>1213</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>1226</v>
+        <v>1214</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>1226</v>
+        <v>1214</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>1224</v>
+        <v>1212</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>1224</v>
+        <v>1212</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>1224</v>
+        <v>1212</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>1224</v>
+        <v>1212</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>1224</v>
+        <v>1212</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>1224</v>
+        <v>1212</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>1224</v>
+        <v>1212</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>1227</v>
+        <v>1215</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>1227</v>
+        <v>1215</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>1227</v>
+        <v>1215</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>1227</v>
+        <v>1215</v>
       </c>
       <c r="T67" s="1" t="s">
-        <v>1228</v>
+        <v>1216</v>
       </c>
       <c r="U67" s="1" t="s">
-        <v>1227</v>
+        <v>1215</v>
       </c>
       <c r="V67" s="1" t="s">
-        <v>1227</v>
+        <v>1215</v>
       </c>
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
       <c r="Z67" s="1" t="s">
-        <v>1224</v>
+        <v>1212</v>
       </c>
       <c r="AA67" s="1" t="s">
-        <v>1224</v>
+        <v>1212</v>
       </c>
       <c r="AB67" s="1" t="s">
-        <v>1229</v>
+        <v>1217</v>
       </c>
       <c r="AC67" s="1" t="s">
         <v>760</v>
       </c>
       <c r="AD67" s="1" t="s">
-        <v>1224</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.2">
@@ -10765,85 +10765,85 @@
         <v>801</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1230</v>
+        <v>1218</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1230</v>
+        <v>1218</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>802</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1231</v>
+        <v>1219</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>1231</v>
+        <v>1219</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>1232</v>
+        <v>1220</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>1232</v>
+        <v>1220</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>1230</v>
+        <v>1218</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>1230</v>
+        <v>1218</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>1230</v>
+        <v>1218</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>1230</v>
+        <v>1218</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>1230</v>
+        <v>1218</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>1230</v>
+        <v>1218</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>1230</v>
+        <v>1218</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>1233</v>
+        <v>1221</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>1233</v>
+        <v>1221</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>1233</v>
+        <v>1221</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>1233</v>
+        <v>1221</v>
       </c>
       <c r="T73" s="1" t="s">
-        <v>1234</v>
+        <v>1222</v>
       </c>
       <c r="U73" s="1" t="s">
-        <v>1233</v>
+        <v>1221</v>
       </c>
       <c r="V73" s="1" t="s">
-        <v>1233</v>
+        <v>1221</v>
       </c>
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1" t="s">
-        <v>1230</v>
+        <v>1218</v>
       </c>
       <c r="AA73" s="1" t="s">
-        <v>1230</v>
+        <v>1218</v>
       </c>
       <c r="AB73" s="1" t="s">
-        <v>1235</v>
+        <v>1223</v>
       </c>
       <c r="AC73" s="1" t="s">
         <v>803</v>
       </c>
       <c r="AD73" s="1" t="s">
-        <v>1230</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.2">
@@ -11287,13 +11287,13 @@
         <v>168</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1132</v>
+        <v>1120</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>1165</v>
+        <v>1153</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>1165</v>
+        <v>1153</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>169</v>
@@ -11335,13 +11335,13 @@
         <v>171</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>1166</v>
+        <v>1154</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>1166</v>
+        <v>1154</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>1166</v>
+        <v>1154</v>
       </c>
       <c r="W79" s="1"/>
       <c r="X79" s="1"/>
@@ -11353,10 +11353,10 @@
         <v>168</v>
       </c>
       <c r="AB79" s="1" t="s">
-        <v>1167</v>
+        <v>1155</v>
       </c>
       <c r="AC79" s="1" t="s">
-        <v>1165</v>
+        <v>1153</v>
       </c>
       <c r="AD79" s="1" t="s">
         <v>168</v>
@@ -11803,13 +11803,13 @@
         <v>248</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>1168</v>
+        <v>1156</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>1169</v>
+        <v>1157</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>1169</v>
+        <v>1157</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>879</v>
@@ -11851,13 +11851,13 @@
         <v>881</v>
       </c>
       <c r="T85" s="1" t="s">
-        <v>1170</v>
+        <v>1158</v>
       </c>
       <c r="U85" s="1" t="s">
-        <v>1170</v>
+        <v>1158</v>
       </c>
       <c r="V85" s="1" t="s">
-        <v>1170</v>
+        <v>1158</v>
       </c>
       <c r="W85" s="1"/>
       <c r="X85" s="1"/>
@@ -11869,10 +11869,10 @@
         <v>248</v>
       </c>
       <c r="AB85" s="1" t="s">
-        <v>1171</v>
+        <v>1159</v>
       </c>
       <c r="AC85" s="1" t="s">
-        <v>1169</v>
+        <v>1157</v>
       </c>
       <c r="AD85" s="1" t="s">
         <v>248</v>
@@ -12138,7 +12138,7 @@
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>903</v>
+        <v>1335</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>284</v>
@@ -12150,58 +12150,58 @@
         <v>283</v>
       </c>
       <c r="E89" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="H89" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="I89" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="H89" s="1" t="s">
+      <c r="J89" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="I89" s="1" t="s">
+      <c r="K89" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="P89" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="J89" s="1" t="s">
+      <c r="Q89" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="K89" s="1" t="s">
+      <c r="R89" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="L89" s="1" t="s">
+      <c r="S89" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="M89" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="N89" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="O89" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="P89" s="1" t="s">
+      <c r="T89" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="Q89" s="1" t="s">
+      <c r="U89" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="R89" s="1" t="s">
+      <c r="V89" s="1" t="s">
         <v>907</v>
-      </c>
-      <c r="S89" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="T89" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="U89" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="V89" s="1" t="s">
-        <v>908</v>
       </c>
       <c r="W89" s="1"/>
       <c r="X89" s="1"/>
@@ -12213,10 +12213,10 @@
         <v>284</v>
       </c>
       <c r="AB89" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="AC89" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="AD89" s="1" t="s">
         <v>284</v>
@@ -12224,7 +12224,7 @@
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>910</v>
+        <v>1336</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>293</v>
@@ -12236,58 +12236,58 @@
         <v>292</v>
       </c>
       <c r="E90" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="I90" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="J90" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="K90" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="P90" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="H90" s="1" t="s">
+      <c r="Q90" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="I90" s="1" t="s">
+      <c r="R90" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="S90" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="T90" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="J90" s="1" t="s">
+      <c r="U90" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="K90" s="1" t="s">
+      <c r="V90" s="1" t="s">
         <v>913</v>
-      </c>
-      <c r="L90" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="M90" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="N90" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="O90" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="P90" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="Q90" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="R90" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="S90" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="T90" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="U90" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="V90" s="1" t="s">
-        <v>915</v>
       </c>
       <c r="W90" s="1"/>
       <c r="X90" s="1"/>
@@ -12299,10 +12299,10 @@
         <v>293</v>
       </c>
       <c r="AB90" s="1" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="AC90" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="AD90" s="1" t="s">
         <v>293</v>
@@ -12310,7 +12310,7 @@
     </row>
     <row r="91" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>917</v>
+        <v>1337</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>151</v>
@@ -12322,58 +12322,58 @@
         <v>301</v>
       </c>
       <c r="E91" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="P91" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="Q91" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="R91" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="S91" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="T91" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="H91" s="1" t="s">
+      <c r="U91" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="I91" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="K91" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="L91" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="M91" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="N91" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="O91" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="P91" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="Q91" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="R91" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="S91" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="T91" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="U91" s="1" t="s">
-        <v>922</v>
-      </c>
       <c r="V91" s="1" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="W91" s="1"/>
       <c r="X91" s="1"/>
@@ -12385,10 +12385,10 @@
         <v>151</v>
       </c>
       <c r="AB91" s="1" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="AC91" s="1" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="AD91" s="1" t="s">
         <v>151</v>
@@ -12396,7 +12396,7 @@
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>924</v>
+        <v>1338</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>310</v>
@@ -12408,58 +12408,58 @@
         <v>309</v>
       </c>
       <c r="E92" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="R92" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="S92" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="T92" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="U92" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="G92" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="L92" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="M92" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="N92" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="O92" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="P92" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="Q92" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="R92" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="S92" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="T92" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="U92" s="1" t="s">
-        <v>929</v>
-      </c>
       <c r="V92" s="1" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="W92" s="1"/>
       <c r="X92" s="1"/>
@@ -12471,10 +12471,10 @@
         <v>310</v>
       </c>
       <c r="AB92" s="1" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="AC92" s="1" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="AD92" s="1" t="s">
         <v>310</v>
@@ -12482,7 +12482,7 @@
     </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>931</v>
+        <v>1339</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>319</v>
@@ -12494,58 +12494,58 @@
         <v>318</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="Q93" s="1" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="R93" s="1" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="S93" s="1" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="T93" s="1" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="U93" s="1" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="V93" s="1" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="W93" s="1"/>
       <c r="X93" s="1"/>
@@ -12557,10 +12557,10 @@
         <v>319</v>
       </c>
       <c r="AB93" s="1" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="AC93" s="1" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="AD93" s="1" t="s">
         <v>319</v>
@@ -12568,93 +12568,93 @@
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="P94" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="Q94" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="R94" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="S94" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="T94" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="U94" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>940</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>941</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>941</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>942</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>942</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="K94" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="L94" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="M94" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="N94" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="O94" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="P94" s="1" t="s">
-        <v>944</v>
-      </c>
-      <c r="Q94" s="1" t="s">
-        <v>944</v>
-      </c>
-      <c r="R94" s="1" t="s">
-        <v>944</v>
-      </c>
-      <c r="S94" s="1" t="s">
-        <v>944</v>
-      </c>
-      <c r="T94" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="U94" s="1" t="s">
-        <v>945</v>
-      </c>
       <c r="V94" s="1" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
       <c r="Z94" s="1" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="AA94" s="1" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="AB94" s="1" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="AC94" s="1" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="AD94" s="1" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>947</v>
+        <v>1341</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>335</v>
@@ -12666,58 +12666,58 @@
         <v>334</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="W95" s="1"/>
       <c r="X95" s="1"/>
@@ -12729,10 +12729,10 @@
         <v>335</v>
       </c>
       <c r="AB95" s="1" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="AC95" s="1" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="AD95" s="1" t="s">
         <v>335</v>
@@ -12740,7 +12740,7 @@
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>954</v>
+        <v>1342</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>344</v>
@@ -12752,58 +12752,58 @@
         <v>343</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="U96" s="1" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="W96" s="1"/>
       <c r="X96" s="1"/>
@@ -12815,10 +12815,10 @@
         <v>344</v>
       </c>
       <c r="AB96" s="1" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="AC96" s="1" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="AD96" s="1" t="s">
         <v>344</v>
@@ -12826,7 +12826,7 @@
     </row>
     <row r="97" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>961</v>
+        <v>1343</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>353</v>
@@ -12838,58 +12838,58 @@
         <v>352</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="R97" s="1" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="U97" s="1" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="W97" s="1"/>
       <c r="X97" s="1"/>
@@ -12901,10 +12901,10 @@
         <v>353</v>
       </c>
       <c r="AB97" s="1" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="AC97" s="1" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="AD97" s="1" t="s">
         <v>353</v>
@@ -12912,7 +12912,7 @@
     </row>
     <row r="98" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>968</v>
+        <v>1344</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>362</v>
@@ -12924,58 +12924,58 @@
         <v>361</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="U98" s="1" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="W98" s="1"/>
       <c r="Z98" s="1" t="s">
@@ -12985,10 +12985,10 @@
         <v>362</v>
       </c>
       <c r="AB98" s="1" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
       <c r="AC98" s="1" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="AD98" s="1" t="s">
         <v>362</v>
@@ -12996,7 +12996,7 @@
     </row>
     <row r="99" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>975</v>
+        <v>1345</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>371</v>
@@ -13008,58 +13008,58 @@
         <v>370</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>976</v>
+        <v>965</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>976</v>
+        <v>965</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>977</v>
+        <v>966</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>977</v>
+        <v>966</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>979</v>
+        <v>968</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>979</v>
+        <v>968</v>
       </c>
       <c r="R99" s="1" t="s">
-        <v>979</v>
+        <v>968</v>
       </c>
       <c r="S99" s="1" t="s">
-        <v>979</v>
+        <v>968</v>
       </c>
       <c r="T99" s="1" t="s">
-        <v>980</v>
+        <v>969</v>
       </c>
       <c r="U99" s="1" t="s">
-        <v>980</v>
+        <v>969</v>
       </c>
       <c r="V99" s="1" t="s">
-        <v>980</v>
+        <v>969</v>
       </c>
       <c r="W99" s="1"/>
       <c r="X99" s="1"/>
@@ -13071,10 +13071,10 @@
         <v>371</v>
       </c>
       <c r="AB99" s="1" t="s">
-        <v>981</v>
+        <v>970</v>
       </c>
       <c r="AC99" s="1" t="s">
-        <v>976</v>
+        <v>965</v>
       </c>
       <c r="AD99" s="1" t="s">
         <v>371</v>
@@ -13082,93 +13082,93 @@
     </row>
     <row r="100" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>982</v>
+        <v>1346</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>983</v>
+        <v>971</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>983</v>
+        <v>971</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>984</v>
+        <v>972</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>985</v>
+        <v>973</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>985</v>
+        <v>973</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>986</v>
+        <v>974</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>986</v>
+        <v>974</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>987</v>
+        <v>975</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>987</v>
+        <v>975</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>987</v>
+        <v>975</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>987</v>
+        <v>975</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>987</v>
+        <v>975</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>987</v>
+        <v>975</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>987</v>
+        <v>975</v>
       </c>
       <c r="P100" s="1" t="s">
-        <v>988</v>
+        <v>976</v>
       </c>
       <c r="Q100" s="1" t="s">
-        <v>988</v>
+        <v>976</v>
       </c>
       <c r="R100" s="1" t="s">
-        <v>988</v>
+        <v>976</v>
       </c>
       <c r="S100" s="1" t="s">
-        <v>988</v>
+        <v>976</v>
       </c>
       <c r="T100" s="1" t="s">
-        <v>989</v>
+        <v>977</v>
       </c>
       <c r="U100" s="1" t="s">
-        <v>989</v>
+        <v>977</v>
       </c>
       <c r="V100" s="1" t="s">
-        <v>989</v>
+        <v>977</v>
       </c>
       <c r="W100" s="1"/>
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
       <c r="Z100" s="1" t="s">
-        <v>983</v>
+        <v>971</v>
       </c>
       <c r="AA100" s="1" t="s">
-        <v>983</v>
+        <v>971</v>
       </c>
       <c r="AB100" s="1" t="s">
-        <v>990</v>
+        <v>978</v>
       </c>
       <c r="AC100" s="1" t="s">
-        <v>985</v>
+        <v>973</v>
       </c>
       <c r="AD100" s="1" t="s">
-        <v>983</v>
+        <v>971</v>
       </c>
     </row>
     <row r="101" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>1131</v>
+        <v>1119</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>168</v>
@@ -13177,19 +13177,19 @@
         <v>168</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>1132</v>
+        <v>1120</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>1133</v>
+        <v>1121</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>1133</v>
+        <v>1121</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>1134</v>
+        <v>1122</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>1134</v>
+        <v>1122</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>168</v>
@@ -13201,52 +13201,52 @@
         <v>168</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>1135</v>
+        <v>1123</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>1135</v>
+        <v>1123</v>
       </c>
       <c r="N101" s="1" t="s">
         <v>168</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>1135</v>
+        <v>1123</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>1136</v>
+        <v>1124</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>1137</v>
+        <v>1125</v>
       </c>
       <c r="R101" s="1" t="s">
-        <v>1136</v>
+        <v>1124</v>
       </c>
       <c r="S101" s="1" t="s">
-        <v>1138</v>
+        <v>1126</v>
       </c>
       <c r="T101" s="1" t="s">
-        <v>1137</v>
+        <v>1125</v>
       </c>
       <c r="U101" s="1" t="s">
-        <v>1138</v>
+        <v>1126</v>
       </c>
       <c r="V101" s="1" t="s">
-        <v>1138</v>
+        <v>1126</v>
       </c>
       <c r="W101" s="1"/>
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
       <c r="Z101" s="1" t="s">
-        <v>1135</v>
+        <v>1123</v>
       </c>
       <c r="AA101" s="1" t="s">
-        <v>1132</v>
+        <v>1120</v>
       </c>
       <c r="AB101" s="1" t="s">
-        <v>1139</v>
+        <v>1127</v>
       </c>
       <c r="AC101" s="1" t="s">
-        <v>1135</v>
+        <v>1123</v>
       </c>
       <c r="AD101" s="1" t="s">
         <v>168</v>
@@ -13254,7 +13254,7 @@
     </row>
     <row r="102" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>1140</v>
+        <v>1128</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>213</v>
@@ -13263,19 +13263,19 @@
         <v>213</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>1141</v>
+        <v>1129</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>1142</v>
+        <v>1130</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>1142</v>
+        <v>1130</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>213</v>
@@ -13299,25 +13299,25 @@
         <v>213</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="Q102" s="1" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="R102" s="1" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="S102" s="1" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="T102" s="1" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="U102" s="1" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="V102" s="1" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="W102" s="1"/>
       <c r="X102" s="1"/>
@@ -13329,10 +13329,10 @@
         <v>213</v>
       </c>
       <c r="AB102" s="1" t="s">
-        <v>1146</v>
+        <v>1134</v>
       </c>
       <c r="AC102" s="1" t="s">
-        <v>1142</v>
+        <v>1130</v>
       </c>
       <c r="AD102" s="1" t="s">
         <v>213</v>
@@ -13340,179 +13340,179 @@
     </row>
     <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>1147</v>
+        <v>1135</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1148</v>
+        <v>1136</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1148</v>
+        <v>1136</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>1149</v>
+        <v>1137</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>1151</v>
+        <v>1139</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>1151</v>
+        <v>1139</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>1148</v>
+        <v>1136</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>1148</v>
+        <v>1136</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>1148</v>
+        <v>1136</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>1152</v>
+        <v>1140</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>1152</v>
+        <v>1140</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>1148</v>
+        <v>1136</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>1152</v>
+        <v>1140</v>
       </c>
       <c r="P103" s="1" t="s">
-        <v>1153</v>
+        <v>1141</v>
       </c>
       <c r="Q103" s="1" t="s">
-        <v>1154</v>
+        <v>1142</v>
       </c>
       <c r="R103" s="1" t="s">
-        <v>1153</v>
+        <v>1141</v>
       </c>
       <c r="S103" s="1" t="s">
-        <v>1155</v>
+        <v>1143</v>
       </c>
       <c r="T103" s="1" t="s">
-        <v>1154</v>
+        <v>1142</v>
       </c>
       <c r="U103" s="1" t="s">
-        <v>1155</v>
+        <v>1143</v>
       </c>
       <c r="V103" s="1" t="s">
-        <v>1155</v>
+        <v>1143</v>
       </c>
       <c r="W103" s="1"/>
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
       <c r="Z103" s="1" t="s">
-        <v>1152</v>
+        <v>1140</v>
       </c>
       <c r="AA103" s="1" t="s">
-        <v>1149</v>
+        <v>1137</v>
       </c>
       <c r="AB103" s="1" t="s">
-        <v>1156</v>
+        <v>1144</v>
       </c>
       <c r="AC103" s="1" t="s">
-        <v>1152</v>
+        <v>1140</v>
       </c>
       <c r="AD103" s="1" t="s">
-        <v>1148</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="104" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>1157</v>
+        <v>1145</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1158</v>
+        <v>1146</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1158</v>
+        <v>1146</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>1159</v>
+        <v>1147</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>1161</v>
+        <v>1149</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>1161</v>
+        <v>1149</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>1158</v>
+        <v>1146</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>1158</v>
+        <v>1146</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>1158</v>
+        <v>1146</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>1158</v>
+        <v>1146</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>1158</v>
+        <v>1146</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>1158</v>
+        <v>1146</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>1158</v>
+        <v>1146</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>1162</v>
+        <v>1150</v>
       </c>
       <c r="Q104" s="1" t="s">
-        <v>1162</v>
+        <v>1150</v>
       </c>
       <c r="R104" s="1" t="s">
-        <v>1162</v>
+        <v>1150</v>
       </c>
       <c r="S104" s="1" t="s">
-        <v>1162</v>
+        <v>1150</v>
       </c>
       <c r="T104" s="1" t="s">
-        <v>1163</v>
+        <v>1151</v>
       </c>
       <c r="U104" s="1" t="s">
-        <v>1162</v>
+        <v>1150</v>
       </c>
       <c r="V104" s="1" t="s">
-        <v>1162</v>
+        <v>1150</v>
       </c>
       <c r="W104" s="1"/>
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
       <c r="Z104" s="1" t="s">
-        <v>1158</v>
+        <v>1146</v>
       </c>
       <c r="AA104" s="1" t="s">
-        <v>1158</v>
+        <v>1146</v>
       </c>
       <c r="AB104" s="1" t="s">
-        <v>1164</v>
+        <v>1152</v>
       </c>
       <c r="AC104" s="1" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="AD104" s="1" t="s">
-        <v>1158</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="105" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>1251</v>
+        <v>1239</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>380</v>
@@ -13598,7 +13598,7 @@
     </row>
     <row r="106" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>1252</v>
+        <v>1240</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>388</v>
@@ -13684,7 +13684,7 @@
     </row>
     <row r="107" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>1253</v>
+        <v>1241</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>396</v>
@@ -13770,7 +13770,7 @@
     </row>
     <row r="108" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>1254</v>
+        <v>1242</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>404</v>
@@ -13854,7 +13854,7 @@
     </row>
     <row r="109" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>1255</v>
+        <v>1243</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>412</v>
@@ -13940,7 +13940,7 @@
     </row>
     <row r="110" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>420</v>
@@ -14026,7 +14026,7 @@
     </row>
     <row r="111" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>1257</v>
+        <v>1245</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>428</v>
@@ -14110,7 +14110,7 @@
     </row>
     <row r="112" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>1258</v>
+        <v>1246</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>436</v>
@@ -14194,7 +14194,7 @@
     </row>
     <row r="113" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>1259</v>
+        <v>1247</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>444</v>
@@ -14280,7 +14280,7 @@
     </row>
     <row r="114" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>1260</v>
+        <v>1248</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>452</v>
@@ -14364,7 +14364,7 @@
     </row>
     <row r="115" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>1261</v>
+        <v>1249</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>460</v>
@@ -14448,7 +14448,7 @@
     </row>
     <row r="116" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>1262</v>
+        <v>1250</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>468</v>
@@ -14532,7 +14532,7 @@
     </row>
     <row r="117" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>1263</v>
+        <v>1347</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>476</v>
@@ -14618,7 +14618,7 @@
     </row>
     <row r="118" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>1264</v>
+        <v>1348</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>484</v>
@@ -14704,7 +14704,7 @@
     </row>
     <row r="119" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>1265</v>
+        <v>1349</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>492</v>
@@ -14790,7 +14790,7 @@
     </row>
     <row r="120" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>1266</v>
+        <v>1350</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>500</v>
@@ -14874,7 +14874,7 @@
     </row>
     <row r="121" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>1267</v>
+        <v>1351</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>508</v>
@@ -14960,7 +14960,7 @@
     </row>
     <row r="122" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>1268</v>
+        <v>1352</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>516</v>
@@ -15046,7 +15046,7 @@
     </row>
     <row r="123" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>1269</v>
+        <v>1353</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>524</v>
@@ -15130,7 +15130,7 @@
     </row>
     <row r="124" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>1270</v>
+        <v>1354</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>532</v>
@@ -15216,7 +15216,7 @@
     </row>
     <row r="125" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>1271</v>
+        <v>1355</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>540</v>
@@ -15300,7 +15300,7 @@
     </row>
     <row r="126" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>1272</v>
+        <v>1356</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>548</v>
@@ -15384,7 +15384,7 @@
     </row>
     <row r="127" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>1273</v>
+        <v>1357</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>556</v>
@@ -15468,7 +15468,7 @@
     </row>
     <row r="128" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>1274</v>
+        <v>1358</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>564</v>
@@ -15552,2054 +15552,2054 @@
     </row>
     <row r="129" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>1239</v>
+        <v>1227</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>991</v>
+        <v>979</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1287</v>
+        <v>1263</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>992</v>
+        <v>980</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>993</v>
+        <v>981</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>1288</v>
+        <v>1264</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>994</v>
+        <v>982</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>1289</v>
+        <v>1265</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>995</v>
+        <v>983</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>1290</v>
+        <v>1266</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>995</v>
+        <v>983</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>1290</v>
+        <v>1266</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>995</v>
+        <v>983</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>1290</v>
+        <v>1266</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>995</v>
+        <v>983</v>
       </c>
       <c r="P129" s="1" t="s">
-        <v>1291</v>
+        <v>1267</v>
       </c>
       <c r="Q129" s="1" t="s">
-        <v>1291</v>
+        <v>1267</v>
       </c>
       <c r="R129" s="1" t="s">
-        <v>996</v>
+        <v>984</v>
       </c>
       <c r="S129" s="1" t="s">
-        <v>996</v>
+        <v>984</v>
       </c>
       <c r="T129" s="1" t="s">
-        <v>1292</v>
+        <v>1268</v>
       </c>
       <c r="U129" s="1" t="s">
-        <v>997</v>
+        <v>985</v>
       </c>
       <c r="V129" s="1" t="s">
-        <v>997</v>
+        <v>985</v>
       </c>
       <c r="W129" s="1"/>
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
       <c r="Z129" s="1" t="s">
-        <v>991</v>
+        <v>979</v>
       </c>
       <c r="AA129" s="1" t="s">
-        <v>1287</v>
+        <v>1263</v>
       </c>
       <c r="AB129" s="1" t="s">
-        <v>998</v>
+        <v>986</v>
       </c>
       <c r="AC129" s="1" t="s">
-        <v>993</v>
+        <v>981</v>
       </c>
       <c r="AD129" s="1" t="s">
-        <v>991</v>
+        <v>979</v>
       </c>
     </row>
     <row r="130" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>1240</v>
+        <v>1228</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>999</v>
+        <v>987</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>1293</v>
+        <v>1269</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>1000</v>
+        <v>988</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>1001</v>
+        <v>989</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>1294</v>
+        <v>1270</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>1002</v>
+        <v>990</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>1295</v>
+        <v>1271</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>1296</v>
+        <v>1272</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>1296</v>
+        <v>1272</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
       <c r="N130" s="1" t="s">
-        <v>1296</v>
+        <v>1272</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
       <c r="P130" s="1" t="s">
-        <v>1297</v>
+        <v>1273</v>
       </c>
       <c r="Q130" s="1" t="s">
-        <v>1297</v>
+        <v>1273</v>
       </c>
       <c r="R130" s="1" t="s">
-        <v>1004</v>
+        <v>992</v>
       </c>
       <c r="S130" s="1" t="s">
-        <v>1004</v>
+        <v>992</v>
       </c>
       <c r="T130" s="1" t="s">
-        <v>1298</v>
+        <v>1274</v>
       </c>
       <c r="U130" s="1" t="s">
-        <v>1005</v>
+        <v>993</v>
       </c>
       <c r="V130" s="1" t="s">
-        <v>1005</v>
+        <v>993</v>
       </c>
       <c r="W130" s="1"/>
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
       <c r="Z130" s="1" t="s">
-        <v>999</v>
+        <v>987</v>
       </c>
       <c r="AA130" s="1" t="s">
-        <v>1293</v>
+        <v>1269</v>
       </c>
       <c r="AB130" s="1" t="s">
-        <v>1006</v>
+        <v>994</v>
       </c>
       <c r="AC130" s="1" t="s">
-        <v>1001</v>
+        <v>989</v>
       </c>
       <c r="AD130" s="1" t="s">
-        <v>999</v>
+        <v>987</v>
       </c>
     </row>
     <row r="131" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>1241</v>
+        <v>1229</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1299</v>
+        <v>1275</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>1172</v>
+        <v>1160</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>1173</v>
+        <v>1161</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>1300</v>
+        <v>1276</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>1008</v>
+        <v>996</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>1301</v>
+        <v>1277</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>1009</v>
+        <v>997</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>1302</v>
+        <v>1278</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>1009</v>
+        <v>997</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>1302</v>
+        <v>1278</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>1009</v>
+        <v>997</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>1302</v>
+        <v>1278</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>1009</v>
+        <v>997</v>
       </c>
       <c r="P131" s="1" t="s">
-        <v>1303</v>
+        <v>1279</v>
       </c>
       <c r="Q131" s="1" t="s">
-        <v>1303</v>
+        <v>1279</v>
       </c>
       <c r="R131" s="1" t="s">
-        <v>1010</v>
+        <v>998</v>
       </c>
       <c r="S131" s="1" t="s">
-        <v>1010</v>
+        <v>998</v>
       </c>
       <c r="T131" s="1" t="s">
-        <v>1304</v>
+        <v>1280</v>
       </c>
       <c r="U131" s="1" t="s">
-        <v>1174</v>
+        <v>1162</v>
       </c>
       <c r="V131" s="1" t="s">
-        <v>1174</v>
+        <v>1162</v>
       </c>
       <c r="W131" s="1"/>
       <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
       <c r="Z131" s="1" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
       <c r="AA131" s="1" t="s">
-        <v>1299</v>
+        <v>1275</v>
       </c>
       <c r="AB131" s="1" t="s">
-        <v>1175</v>
+        <v>1163</v>
       </c>
       <c r="AC131" s="1" t="s">
-        <v>1173</v>
+        <v>1161</v>
       </c>
       <c r="AD131" s="1" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
     </row>
     <row r="132" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>1242</v>
+        <v>1230</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1011</v>
+        <v>999</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1305</v>
+        <v>1281</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>1013</v>
+        <v>1001</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>1306</v>
+        <v>1282</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>1014</v>
+        <v>1002</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>1307</v>
+        <v>1283</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>1015</v>
+        <v>1003</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>1308</v>
+        <v>1284</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>1015</v>
+        <v>1003</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>1308</v>
+        <v>1284</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>1015</v>
+        <v>1003</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>1308</v>
+        <v>1284</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>1015</v>
+        <v>1003</v>
       </c>
       <c r="P132" s="1" t="s">
-        <v>1309</v>
+        <v>1285</v>
       </c>
       <c r="Q132" s="1" t="s">
-        <v>1309</v>
+        <v>1285</v>
       </c>
       <c r="R132" s="1" t="s">
-        <v>1016</v>
+        <v>1004</v>
       </c>
       <c r="S132" s="1" t="s">
-        <v>1016</v>
+        <v>1004</v>
       </c>
       <c r="T132" s="1" t="s">
-        <v>1310</v>
+        <v>1286</v>
       </c>
       <c r="U132" s="1" t="s">
-        <v>1017</v>
+        <v>1005</v>
       </c>
       <c r="V132" s="1" t="s">
-        <v>1017</v>
+        <v>1005</v>
       </c>
       <c r="W132" s="1"/>
       <c r="Z132" s="1" t="s">
-        <v>1011</v>
+        <v>999</v>
       </c>
       <c r="AA132" s="1" t="s">
-        <v>1305</v>
+        <v>1281</v>
       </c>
       <c r="AB132" s="1" t="s">
-        <v>1018</v>
+        <v>1006</v>
       </c>
       <c r="AC132" s="1" t="s">
-        <v>1013</v>
+        <v>1001</v>
       </c>
       <c r="AD132" s="1" t="s">
-        <v>1011</v>
+        <v>999</v>
       </c>
     </row>
     <row r="133" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>1243</v>
+        <v>1231</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1019</v>
+        <v>1007</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1311</v>
+        <v>1287</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>1020</v>
+        <v>1008</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>1021</v>
+        <v>1009</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>1312</v>
+        <v>1288</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>1022</v>
+        <v>1010</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>1313</v>
+        <v>1289</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>1023</v>
+        <v>1011</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>1314</v>
+        <v>1290</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>1023</v>
+        <v>1011</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>1314</v>
+        <v>1290</v>
       </c>
       <c r="M133" s="1" t="s">
-        <v>1023</v>
+        <v>1011</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>1314</v>
+        <v>1290</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>1023</v>
+        <v>1011</v>
       </c>
       <c r="P133" s="1" t="s">
-        <v>1315</v>
+        <v>1291</v>
       </c>
       <c r="Q133" s="1" t="s">
-        <v>1315</v>
+        <v>1291</v>
       </c>
       <c r="R133" s="1" t="s">
-        <v>1024</v>
+        <v>1012</v>
       </c>
       <c r="S133" s="1" t="s">
-        <v>1024</v>
+        <v>1012</v>
       </c>
       <c r="T133" s="1" t="s">
-        <v>1316</v>
+        <v>1292</v>
       </c>
       <c r="U133" s="1" t="s">
-        <v>1025</v>
+        <v>1013</v>
       </c>
       <c r="V133" s="1" t="s">
-        <v>1025</v>
+        <v>1013</v>
       </c>
       <c r="W133" s="1"/>
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
       <c r="Z133" s="1" t="s">
-        <v>1019</v>
+        <v>1007</v>
       </c>
       <c r="AA133" s="1" t="s">
-        <v>1311</v>
+        <v>1287</v>
       </c>
       <c r="AB133" s="1" t="s">
-        <v>1026</v>
+        <v>1014</v>
       </c>
       <c r="AC133" s="1" t="s">
-        <v>1021</v>
+        <v>1009</v>
       </c>
       <c r="AD133" s="1" t="s">
-        <v>1019</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="134" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>1244</v>
+        <v>1232</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1317</v>
+        <v>1293</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>1318</v>
+        <v>1294</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>1030</v>
+        <v>1018</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>1319</v>
+        <v>1295</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>1320</v>
+        <v>1296</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>1320</v>
+        <v>1296</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>1320</v>
+        <v>1296</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
       <c r="P134" s="1" t="s">
-        <v>1321</v>
+        <v>1297</v>
       </c>
       <c r="Q134" s="1" t="s">
-        <v>1321</v>
+        <v>1297</v>
       </c>
       <c r="R134" s="1" t="s">
-        <v>1032</v>
+        <v>1020</v>
       </c>
       <c r="S134" s="1" t="s">
-        <v>1032</v>
+        <v>1020</v>
       </c>
       <c r="T134" s="1" t="s">
-        <v>1322</v>
+        <v>1298</v>
       </c>
       <c r="U134" s="1" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
       <c r="V134" s="1" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
       <c r="W134" s="1"/>
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
       <c r="Z134" s="1" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
       <c r="AA134" s="1" t="s">
-        <v>1317</v>
+        <v>1293</v>
       </c>
       <c r="AB134" s="1" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
       <c r="AC134" s="1" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
       <c r="AD134" s="1" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="135" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>1245</v>
+        <v>1233</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1035</v>
+        <v>1023</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1035</v>
+        <v>1023</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>1180</v>
+        <v>1168</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>1181</v>
+        <v>1169</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>1181</v>
+        <v>1169</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
       <c r="P135" s="1" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
       <c r="Q135" s="1" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
       <c r="R135" s="1" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
       <c r="S135" s="1" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
       <c r="T135" s="1" t="s">
-        <v>1182</v>
+        <v>1170</v>
       </c>
       <c r="U135" s="1" t="s">
-        <v>1182</v>
+        <v>1170</v>
       </c>
       <c r="V135" s="1" t="s">
-        <v>1182</v>
+        <v>1170</v>
       </c>
       <c r="W135" s="1"/>
       <c r="Z135" s="1" t="s">
-        <v>1035</v>
+        <v>1023</v>
       </c>
       <c r="AA135" s="1" t="s">
-        <v>1035</v>
+        <v>1023</v>
       </c>
       <c r="AB135" s="1" t="s">
-        <v>1183</v>
+        <v>1171</v>
       </c>
       <c r="AC135" s="1" t="s">
-        <v>1181</v>
+        <v>1169</v>
       </c>
       <c r="AD135" s="1" t="s">
-        <v>1035</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="136" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>1246</v>
+        <v>1234</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1039</v>
+        <v>1027</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1039</v>
+        <v>1027</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>1184</v>
+        <v>1172</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>1185</v>
+        <v>1173</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>1185</v>
+        <v>1173</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>1041</v>
+        <v>1029</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>1041</v>
+        <v>1029</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>1041</v>
+        <v>1029</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>1041</v>
+        <v>1029</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>1041</v>
+        <v>1029</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>1041</v>
+        <v>1029</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>1041</v>
+        <v>1029</v>
       </c>
       <c r="P136" s="1" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
       <c r="Q136" s="1" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
       <c r="R136" s="1" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
       <c r="S136" s="1" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
       <c r="T136" s="1" t="s">
-        <v>1186</v>
+        <v>1174</v>
       </c>
       <c r="U136" s="1" t="s">
-        <v>1186</v>
+        <v>1174</v>
       </c>
       <c r="V136" s="1" t="s">
-        <v>1186</v>
+        <v>1174</v>
       </c>
       <c r="W136" s="1"/>
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
       <c r="Z136" s="1" t="s">
-        <v>1039</v>
+        <v>1027</v>
       </c>
       <c r="AA136" s="1" t="s">
-        <v>1039</v>
+        <v>1027</v>
       </c>
       <c r="AB136" s="1" t="s">
-        <v>1187</v>
+        <v>1175</v>
       </c>
       <c r="AC136" s="1" t="s">
-        <v>1185</v>
+        <v>1173</v>
       </c>
       <c r="AD136" s="1" t="s">
-        <v>1039</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="137" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>1247</v>
+        <v>1235</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>1176</v>
+        <v>1164</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>1177</v>
+        <v>1165</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>1177</v>
+        <v>1165</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="M137" s="1" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="P137" s="1" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
       <c r="Q137" s="1" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
       <c r="R137" s="1" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
       <c r="S137" s="1" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
       <c r="T137" s="1" t="s">
-        <v>1178</v>
+        <v>1166</v>
       </c>
       <c r="U137" s="1" t="s">
-        <v>1178</v>
+        <v>1166</v>
       </c>
       <c r="V137" s="1" t="s">
-        <v>1178</v>
+        <v>1166</v>
       </c>
       <c r="W137" s="1"/>
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
       <c r="Z137" s="1" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="AA137" s="1" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="AB137" s="1" t="s">
-        <v>1179</v>
+        <v>1167</v>
       </c>
       <c r="AC137" s="1" t="s">
-        <v>1177</v>
+        <v>1165</v>
       </c>
       <c r="AD137" s="1" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="138" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>1248</v>
+        <v>1236</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1047</v>
+        <v>1035</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1047</v>
+        <v>1035</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>1188</v>
+        <v>1176</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>1189</v>
+        <v>1177</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>1189</v>
+        <v>1177</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>1048</v>
+        <v>1036</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>1048</v>
+        <v>1036</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>1049</v>
+        <v>1037</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>1049</v>
+        <v>1037</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>1049</v>
+        <v>1037</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>1049</v>
+        <v>1037</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>1049</v>
+        <v>1037</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>1049</v>
+        <v>1037</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>1049</v>
+        <v>1037</v>
       </c>
       <c r="P138" s="1" t="s">
-        <v>1050</v>
+        <v>1038</v>
       </c>
       <c r="Q138" s="1" t="s">
-        <v>1050</v>
+        <v>1038</v>
       </c>
       <c r="R138" s="1" t="s">
-        <v>1050</v>
+        <v>1038</v>
       </c>
       <c r="S138" s="1" t="s">
-        <v>1050</v>
+        <v>1038</v>
       </c>
       <c r="T138" s="1" t="s">
-        <v>1190</v>
+        <v>1178</v>
       </c>
       <c r="U138" s="1" t="s">
-        <v>1190</v>
+        <v>1178</v>
       </c>
       <c r="V138" s="1" t="s">
-        <v>1190</v>
+        <v>1178</v>
       </c>
       <c r="W138" s="1"/>
       <c r="Z138" s="1" t="s">
-        <v>1047</v>
+        <v>1035</v>
       </c>
       <c r="AA138" s="1" t="s">
-        <v>1047</v>
+        <v>1035</v>
       </c>
       <c r="AB138" s="1" t="s">
-        <v>1191</v>
+        <v>1179</v>
       </c>
       <c r="AC138" s="1" t="s">
-        <v>1189</v>
+        <v>1177</v>
       </c>
       <c r="AD138" s="1" t="s">
-        <v>1047</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="139" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>1249</v>
+        <v>1237</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1051</v>
+        <v>1039</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1051</v>
+        <v>1039</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>1192</v>
+        <v>1180</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>1193</v>
+        <v>1181</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>1193</v>
+        <v>1181</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>1052</v>
+        <v>1040</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>1052</v>
+        <v>1040</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>1053</v>
+        <v>1041</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>1053</v>
+        <v>1041</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>1053</v>
+        <v>1041</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>1053</v>
+        <v>1041</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>1053</v>
+        <v>1041</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>1053</v>
+        <v>1041</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>1053</v>
+        <v>1041</v>
       </c>
       <c r="P139" s="1" t="s">
-        <v>1054</v>
+        <v>1042</v>
       </c>
       <c r="Q139" s="1" t="s">
-        <v>1054</v>
+        <v>1042</v>
       </c>
       <c r="R139" s="1" t="s">
-        <v>1054</v>
+        <v>1042</v>
       </c>
       <c r="S139" s="1" t="s">
-        <v>1054</v>
+        <v>1042</v>
       </c>
       <c r="T139" s="1" t="s">
-        <v>1194</v>
+        <v>1182</v>
       </c>
       <c r="U139" s="1" t="s">
-        <v>1194</v>
+        <v>1182</v>
       </c>
       <c r="V139" s="1" t="s">
-        <v>1194</v>
+        <v>1182</v>
       </c>
       <c r="W139" s="1"/>
       <c r="Z139" s="1" t="s">
-        <v>1051</v>
+        <v>1039</v>
       </c>
       <c r="AA139" s="1" t="s">
-        <v>1051</v>
+        <v>1039</v>
       </c>
       <c r="AB139" s="1" t="s">
-        <v>1195</v>
+        <v>1183</v>
       </c>
       <c r="AC139" s="1" t="s">
-        <v>1193</v>
+        <v>1181</v>
       </c>
       <c r="AD139" s="1" t="s">
-        <v>1051</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="140" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>1250</v>
+        <v>1238</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>1055</v>
+        <v>1043</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1055</v>
+        <v>1043</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>1196</v>
+        <v>1184</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>1197</v>
+        <v>1185</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>1197</v>
+        <v>1185</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>1056</v>
+        <v>1044</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>1056</v>
+        <v>1044</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>1057</v>
+        <v>1045</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>1057</v>
+        <v>1045</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>1057</v>
+        <v>1045</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>1057</v>
+        <v>1045</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>1057</v>
+        <v>1045</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>1057</v>
+        <v>1045</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>1057</v>
+        <v>1045</v>
       </c>
       <c r="P140" s="1" t="s">
-        <v>1058</v>
+        <v>1046</v>
       </c>
       <c r="Q140" s="1" t="s">
-        <v>1058</v>
+        <v>1046</v>
       </c>
       <c r="R140" s="1" t="s">
-        <v>1058</v>
+        <v>1046</v>
       </c>
       <c r="S140" s="1" t="s">
-        <v>1058</v>
+        <v>1046</v>
       </c>
       <c r="T140" s="1" t="s">
-        <v>1198</v>
+        <v>1186</v>
       </c>
       <c r="U140" s="1" t="s">
-        <v>1198</v>
+        <v>1186</v>
       </c>
       <c r="V140" s="1" t="s">
-        <v>1198</v>
+        <v>1186</v>
       </c>
       <c r="W140" s="1"/>
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
       <c r="Z140" s="1" t="s">
-        <v>1055</v>
+        <v>1043</v>
       </c>
       <c r="AA140" s="1" t="s">
-        <v>1055</v>
+        <v>1043</v>
       </c>
       <c r="AB140" s="1" t="s">
-        <v>1199</v>
+        <v>1187</v>
       </c>
       <c r="AC140" s="1" t="s">
-        <v>1197</v>
+        <v>1185</v>
       </c>
       <c r="AD140" s="1" t="s">
-        <v>1055</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="141" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>1275</v>
+        <v>1251</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1059</v>
+        <v>1047</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1323</v>
+        <v>1299</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>1060</v>
+        <v>1048</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>1061</v>
+        <v>1049</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>1324</v>
+        <v>1300</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>1062</v>
+        <v>1050</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>1325</v>
+        <v>1301</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>1063</v>
+        <v>1051</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>1326</v>
+        <v>1302</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>1063</v>
+        <v>1051</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>1326</v>
+        <v>1302</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>1063</v>
+        <v>1051</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>1326</v>
+        <v>1302</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>1063</v>
+        <v>1051</v>
       </c>
       <c r="P141" s="1" t="s">
-        <v>1327</v>
+        <v>1303</v>
       </c>
       <c r="Q141" s="1" t="s">
-        <v>1327</v>
+        <v>1303</v>
       </c>
       <c r="R141" s="1" t="s">
-        <v>1064</v>
+        <v>1052</v>
       </c>
       <c r="S141" s="1" t="s">
-        <v>1064</v>
+        <v>1052</v>
       </c>
       <c r="T141" s="1" t="s">
-        <v>1328</v>
+        <v>1304</v>
       </c>
       <c r="U141" s="1" t="s">
-        <v>1065</v>
+        <v>1053</v>
       </c>
       <c r="V141" s="1" t="s">
-        <v>1065</v>
+        <v>1053</v>
       </c>
       <c r="W141" s="1"/>
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
       <c r="Z141" s="1" t="s">
-        <v>1059</v>
+        <v>1047</v>
       </c>
       <c r="AA141" s="1" t="s">
-        <v>1323</v>
+        <v>1299</v>
       </c>
       <c r="AB141" s="1" t="s">
-        <v>1066</v>
+        <v>1054</v>
       </c>
       <c r="AC141" s="1" t="s">
-        <v>1061</v>
+        <v>1049</v>
       </c>
       <c r="AD141" s="1" t="s">
-        <v>1059</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="142" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>1276</v>
+        <v>1252</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1067</v>
+        <v>1055</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1329</v>
+        <v>1305</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>1068</v>
+        <v>1056</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>1069</v>
+        <v>1057</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>1330</v>
+        <v>1306</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>1070</v>
+        <v>1058</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>1331</v>
+        <v>1307</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>1071</v>
+        <v>1059</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>1332</v>
+        <v>1308</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>1071</v>
+        <v>1059</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>1332</v>
+        <v>1308</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>1071</v>
+        <v>1059</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>1332</v>
+        <v>1308</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>1071</v>
+        <v>1059</v>
       </c>
       <c r="P142" s="1" t="s">
-        <v>1333</v>
+        <v>1309</v>
       </c>
       <c r="Q142" s="1" t="s">
-        <v>1333</v>
+        <v>1309</v>
       </c>
       <c r="R142" s="1" t="s">
-        <v>1072</v>
+        <v>1060</v>
       </c>
       <c r="S142" s="1" t="s">
-        <v>1072</v>
+        <v>1060</v>
       </c>
       <c r="T142" s="1" t="s">
-        <v>1334</v>
+        <v>1310</v>
       </c>
       <c r="U142" s="1" t="s">
-        <v>1073</v>
+        <v>1061</v>
       </c>
       <c r="V142" s="1" t="s">
-        <v>1073</v>
+        <v>1061</v>
       </c>
       <c r="W142" s="1"/>
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
       <c r="Z142" s="1" t="s">
-        <v>1067</v>
+        <v>1055</v>
       </c>
       <c r="AA142" s="1" t="s">
-        <v>1329</v>
+        <v>1305</v>
       </c>
       <c r="AB142" s="1" t="s">
-        <v>1074</v>
+        <v>1062</v>
       </c>
       <c r="AC142" s="1" t="s">
-        <v>1069</v>
+        <v>1057</v>
       </c>
       <c r="AD142" s="1" t="s">
-        <v>1067</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="143" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>1277</v>
+        <v>1253</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1075</v>
+        <v>1063</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>1335</v>
+        <v>1311</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>1076</v>
+        <v>1064</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>1077</v>
+        <v>1065</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>1336</v>
+        <v>1312</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>1078</v>
+        <v>1066</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>1337</v>
+        <v>1313</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>1079</v>
+        <v>1067</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>1338</v>
+        <v>1314</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>1079</v>
+        <v>1067</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>1338</v>
+        <v>1314</v>
       </c>
       <c r="M143" s="1" t="s">
-        <v>1079</v>
+        <v>1067</v>
       </c>
       <c r="N143" s="1" t="s">
-        <v>1338</v>
+        <v>1314</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>1079</v>
+        <v>1067</v>
       </c>
       <c r="P143" s="1" t="s">
-        <v>1339</v>
+        <v>1315</v>
       </c>
       <c r="Q143" s="1" t="s">
-        <v>1339</v>
+        <v>1315</v>
       </c>
       <c r="R143" s="1" t="s">
-        <v>1080</v>
+        <v>1068</v>
       </c>
       <c r="S143" s="1" t="s">
-        <v>1080</v>
+        <v>1068</v>
       </c>
       <c r="T143" s="1" t="s">
-        <v>1340</v>
+        <v>1316</v>
       </c>
       <c r="U143" s="1" t="s">
-        <v>1081</v>
+        <v>1069</v>
       </c>
       <c r="V143" s="1" t="s">
-        <v>1081</v>
+        <v>1069</v>
       </c>
       <c r="W143" s="1"/>
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
       <c r="Z143" s="1" t="s">
-        <v>1075</v>
+        <v>1063</v>
       </c>
       <c r="AA143" s="1" t="s">
-        <v>1335</v>
+        <v>1311</v>
       </c>
       <c r="AB143" s="1" t="s">
-        <v>1082</v>
+        <v>1070</v>
       </c>
       <c r="AC143" s="1" t="s">
-        <v>1077</v>
+        <v>1065</v>
       </c>
       <c r="AD143" s="1" t="s">
-        <v>1075</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="144" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>1278</v>
+        <v>1254</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1083</v>
+        <v>1071</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>1341</v>
+        <v>1317</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>1084</v>
+        <v>1072</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>1085</v>
+        <v>1073</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>1342</v>
+        <v>1318</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>1086</v>
+        <v>1074</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>1343</v>
+        <v>1319</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>1087</v>
+        <v>1075</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>1344</v>
+        <v>1320</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>1087</v>
+        <v>1075</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>1344</v>
+        <v>1320</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>1087</v>
+        <v>1075</v>
       </c>
       <c r="N144" s="1" t="s">
-        <v>1344</v>
+        <v>1320</v>
       </c>
       <c r="O144" s="1" t="s">
-        <v>1087</v>
+        <v>1075</v>
       </c>
       <c r="P144" s="1" t="s">
-        <v>1345</v>
+        <v>1321</v>
       </c>
       <c r="Q144" s="1" t="s">
-        <v>1345</v>
+        <v>1321</v>
       </c>
       <c r="R144" s="1" t="s">
-        <v>1088</v>
+        <v>1076</v>
       </c>
       <c r="S144" s="1" t="s">
-        <v>1088</v>
+        <v>1076</v>
       </c>
       <c r="T144" s="1" t="s">
-        <v>1346</v>
+        <v>1322</v>
       </c>
       <c r="U144" s="1" t="s">
-        <v>1089</v>
+        <v>1077</v>
       </c>
       <c r="V144" s="1" t="s">
-        <v>1089</v>
+        <v>1077</v>
       </c>
       <c r="W144" s="1"/>
       <c r="Z144" s="1" t="s">
-        <v>1083</v>
+        <v>1071</v>
       </c>
       <c r="AA144" s="1" t="s">
-        <v>1341</v>
+        <v>1317</v>
       </c>
       <c r="AB144" s="1" t="s">
-        <v>1090</v>
+        <v>1078</v>
       </c>
       <c r="AC144" s="1" t="s">
-        <v>1085</v>
+        <v>1073</v>
       </c>
       <c r="AD144" s="1" t="s">
-        <v>1083</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="145" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>1279</v>
+        <v>1255</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1091</v>
+        <v>1079</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>1347</v>
+        <v>1323</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>1092</v>
+        <v>1080</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>1093</v>
+        <v>1081</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>1348</v>
+        <v>1324</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>1349</v>
+        <v>1325</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>1095</v>
+        <v>1083</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>1350</v>
+        <v>1326</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>1095</v>
+        <v>1083</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>1350</v>
+        <v>1326</v>
       </c>
       <c r="M145" s="1" t="s">
-        <v>1095</v>
+        <v>1083</v>
       </c>
       <c r="N145" s="1" t="s">
-        <v>1350</v>
+        <v>1326</v>
       </c>
       <c r="O145" s="1" t="s">
-        <v>1095</v>
+        <v>1083</v>
       </c>
       <c r="P145" s="1" t="s">
-        <v>1351</v>
+        <v>1327</v>
       </c>
       <c r="Q145" s="1" t="s">
-        <v>1351</v>
+        <v>1327</v>
       </c>
       <c r="R145" s="1" t="s">
-        <v>1096</v>
+        <v>1084</v>
       </c>
       <c r="S145" s="1" t="s">
-        <v>1096</v>
+        <v>1084</v>
       </c>
       <c r="T145" s="1" t="s">
-        <v>1352</v>
+        <v>1328</v>
       </c>
       <c r="U145" s="1" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
       <c r="V145" s="1" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
       <c r="W145" s="1"/>
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
       <c r="Z145" s="1" t="s">
-        <v>1091</v>
+        <v>1079</v>
       </c>
       <c r="AA145" s="1" t="s">
-        <v>1347</v>
+        <v>1323</v>
       </c>
       <c r="AB145" s="1" t="s">
-        <v>1098</v>
+        <v>1086</v>
       </c>
       <c r="AC145" s="1" t="s">
-        <v>1093</v>
+        <v>1081</v>
       </c>
       <c r="AD145" s="1" t="s">
-        <v>1091</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="146" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>1280</v>
+        <v>1256</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1099</v>
+        <v>1087</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>1353</v>
+        <v>1329</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>1100</v>
+        <v>1088</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>1101</v>
+        <v>1089</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>1354</v>
+        <v>1330</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>1102</v>
+        <v>1090</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>1355</v>
+        <v>1331</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>1103</v>
+        <v>1091</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>1356</v>
+        <v>1332</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>1103</v>
+        <v>1091</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>1356</v>
+        <v>1332</v>
       </c>
       <c r="M146" s="1" t="s">
-        <v>1103</v>
+        <v>1091</v>
       </c>
       <c r="N146" s="1" t="s">
-        <v>1356</v>
+        <v>1332</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>1103</v>
+        <v>1091</v>
       </c>
       <c r="P146" s="1" t="s">
-        <v>1357</v>
+        <v>1333</v>
       </c>
       <c r="Q146" s="1" t="s">
-        <v>1357</v>
+        <v>1333</v>
       </c>
       <c r="R146" s="1" t="s">
-        <v>1104</v>
+        <v>1092</v>
       </c>
       <c r="S146" s="1" t="s">
-        <v>1104</v>
+        <v>1092</v>
       </c>
       <c r="T146" s="1" t="s">
-        <v>1358</v>
+        <v>1334</v>
       </c>
       <c r="U146" s="1" t="s">
-        <v>1105</v>
+        <v>1093</v>
       </c>
       <c r="V146" s="1" t="s">
-        <v>1105</v>
+        <v>1093</v>
       </c>
       <c r="W146" s="1"/>
       <c r="X146" s="1"/>
       <c r="Y146" s="1"/>
       <c r="Z146" s="1" t="s">
-        <v>1099</v>
+        <v>1087</v>
       </c>
       <c r="AA146" s="1" t="s">
-        <v>1353</v>
+        <v>1329</v>
       </c>
       <c r="AB146" s="1" t="s">
-        <v>1106</v>
+        <v>1094</v>
       </c>
       <c r="AC146" s="1" t="s">
-        <v>1101</v>
+        <v>1089</v>
       </c>
       <c r="AD146" s="1" t="s">
-        <v>1099</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="147" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>1281</v>
+        <v>1257</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1107</v>
+        <v>1095</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>1107</v>
+        <v>1095</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>1200</v>
+        <v>1188</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>1201</v>
+        <v>1189</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>1201</v>
+        <v>1189</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>1108</v>
+        <v>1096</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>1108</v>
+        <v>1096</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>1109</v>
+        <v>1097</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>1109</v>
+        <v>1097</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>1109</v>
+        <v>1097</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>1109</v>
+        <v>1097</v>
       </c>
       <c r="M147" s="1" t="s">
-        <v>1109</v>
+        <v>1097</v>
       </c>
       <c r="N147" s="1" t="s">
-        <v>1109</v>
+        <v>1097</v>
       </c>
       <c r="O147" s="1" t="s">
-        <v>1109</v>
+        <v>1097</v>
       </c>
       <c r="P147" s="1" t="s">
-        <v>1110</v>
+        <v>1098</v>
       </c>
       <c r="Q147" s="1" t="s">
-        <v>1110</v>
+        <v>1098</v>
       </c>
       <c r="R147" s="1" t="s">
-        <v>1110</v>
+        <v>1098</v>
       </c>
       <c r="S147" s="1" t="s">
-        <v>1110</v>
+        <v>1098</v>
       </c>
       <c r="T147" s="1" t="s">
-        <v>1202</v>
+        <v>1190</v>
       </c>
       <c r="U147" s="1" t="s">
-        <v>1202</v>
+        <v>1190</v>
       </c>
       <c r="V147" s="1" t="s">
-        <v>1202</v>
+        <v>1190</v>
       </c>
       <c r="W147" s="1"/>
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
       <c r="Z147" s="1" t="s">
-        <v>1107</v>
+        <v>1095</v>
       </c>
       <c r="AA147" s="1" t="s">
-        <v>1107</v>
+        <v>1095</v>
       </c>
       <c r="AB147" s="1" t="s">
-        <v>1203</v>
+        <v>1191</v>
       </c>
       <c r="AC147" s="1" t="s">
-        <v>1201</v>
+        <v>1189</v>
       </c>
       <c r="AD147" s="1" t="s">
-        <v>1107</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="148" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>1282</v>
+        <v>1258</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>1111</v>
+        <v>1099</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1111</v>
+        <v>1099</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>1204</v>
+        <v>1192</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>1205</v>
+        <v>1193</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>1205</v>
+        <v>1193</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>1112</v>
+        <v>1100</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>1112</v>
+        <v>1100</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>1113</v>
+        <v>1101</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>1113</v>
+        <v>1101</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>1113</v>
+        <v>1101</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>1113</v>
+        <v>1101</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>1113</v>
+        <v>1101</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>1113</v>
+        <v>1101</v>
       </c>
       <c r="O148" s="1" t="s">
-        <v>1113</v>
+        <v>1101</v>
       </c>
       <c r="P148" s="1" t="s">
-        <v>1114</v>
+        <v>1102</v>
       </c>
       <c r="Q148" s="1" t="s">
-        <v>1114</v>
+        <v>1102</v>
       </c>
       <c r="R148" s="1" t="s">
-        <v>1114</v>
+        <v>1102</v>
       </c>
       <c r="S148" s="1" t="s">
-        <v>1114</v>
+        <v>1102</v>
       </c>
       <c r="T148" s="1" t="s">
-        <v>1206</v>
+        <v>1194</v>
       </c>
       <c r="U148" s="1" t="s">
-        <v>1206</v>
+        <v>1194</v>
       </c>
       <c r="V148" s="1" t="s">
-        <v>1206</v>
+        <v>1194</v>
       </c>
       <c r="W148" s="1"/>
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
       <c r="Z148" s="1" t="s">
-        <v>1111</v>
+        <v>1099</v>
       </c>
       <c r="AA148" s="1" t="s">
-        <v>1111</v>
+        <v>1099</v>
       </c>
       <c r="AB148" s="1" t="s">
-        <v>1207</v>
+        <v>1195</v>
       </c>
       <c r="AC148" s="1" t="s">
-        <v>1205</v>
+        <v>1193</v>
       </c>
       <c r="AD148" s="1" t="s">
-        <v>1111</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="149" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>1283</v>
+        <v>1259</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>1115</v>
+        <v>1103</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>1115</v>
+        <v>1103</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>1208</v>
+        <v>1196</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>1209</v>
+        <v>1197</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>1209</v>
+        <v>1197</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>1116</v>
+        <v>1104</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>1116</v>
+        <v>1104</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>1117</v>
+        <v>1105</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>1117</v>
+        <v>1105</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>1117</v>
+        <v>1105</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>1117</v>
+        <v>1105</v>
       </c>
       <c r="M149" s="1" t="s">
-        <v>1117</v>
+        <v>1105</v>
       </c>
       <c r="N149" s="1" t="s">
-        <v>1117</v>
+        <v>1105</v>
       </c>
       <c r="O149" s="1" t="s">
-        <v>1117</v>
+        <v>1105</v>
       </c>
       <c r="P149" s="1" t="s">
-        <v>1118</v>
+        <v>1106</v>
       </c>
       <c r="Q149" s="1" t="s">
-        <v>1118</v>
+        <v>1106</v>
       </c>
       <c r="R149" s="1" t="s">
-        <v>1118</v>
+        <v>1106</v>
       </c>
       <c r="S149" s="1" t="s">
-        <v>1118</v>
+        <v>1106</v>
       </c>
       <c r="T149" s="1" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="U149" s="1" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="V149" s="1" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="W149" s="1"/>
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
       <c r="Z149" s="1" t="s">
-        <v>1115</v>
+        <v>1103</v>
       </c>
       <c r="AA149" s="1" t="s">
-        <v>1115</v>
+        <v>1103</v>
       </c>
       <c r="AB149" s="1" t="s">
-        <v>1211</v>
+        <v>1199</v>
       </c>
       <c r="AC149" s="1" t="s">
-        <v>1209</v>
+        <v>1197</v>
       </c>
       <c r="AD149" s="1" t="s">
-        <v>1115</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="150" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>1284</v>
+        <v>1260</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1119</v>
+        <v>1107</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1119</v>
+        <v>1107</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>1212</v>
+        <v>1200</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>1213</v>
+        <v>1201</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>1213</v>
+        <v>1201</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>1120</v>
+        <v>1108</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>1120</v>
+        <v>1108</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>1121</v>
+        <v>1109</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>1121</v>
+        <v>1109</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>1121</v>
+        <v>1109</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>1121</v>
+        <v>1109</v>
       </c>
       <c r="M150" s="1" t="s">
-        <v>1121</v>
+        <v>1109</v>
       </c>
       <c r="N150" s="1" t="s">
-        <v>1121</v>
+        <v>1109</v>
       </c>
       <c r="O150" s="1" t="s">
-        <v>1121</v>
+        <v>1109</v>
       </c>
       <c r="P150" s="1" t="s">
-        <v>1122</v>
+        <v>1110</v>
       </c>
       <c r="Q150" s="1" t="s">
-        <v>1122</v>
+        <v>1110</v>
       </c>
       <c r="R150" s="1" t="s">
-        <v>1122</v>
+        <v>1110</v>
       </c>
       <c r="S150" s="1" t="s">
-        <v>1122</v>
+        <v>1110</v>
       </c>
       <c r="T150" s="1" t="s">
-        <v>1214</v>
+        <v>1202</v>
       </c>
       <c r="U150" s="1" t="s">
-        <v>1214</v>
+        <v>1202</v>
       </c>
       <c r="V150" s="1" t="s">
-        <v>1214</v>
+        <v>1202</v>
       </c>
       <c r="W150" s="1"/>
       <c r="Z150" s="1" t="s">
-        <v>1119</v>
+        <v>1107</v>
       </c>
       <c r="AA150" s="1" t="s">
-        <v>1119</v>
+        <v>1107</v>
       </c>
       <c r="AB150" s="1" t="s">
-        <v>1215</v>
+        <v>1203</v>
       </c>
       <c r="AC150" s="1" t="s">
-        <v>1213</v>
+        <v>1201</v>
       </c>
       <c r="AD150" s="1" t="s">
-        <v>1119</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="151" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>1285</v>
+        <v>1261</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1123</v>
+        <v>1111</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1123</v>
+        <v>1111</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>1216</v>
+        <v>1204</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>1217</v>
+        <v>1205</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>1217</v>
+        <v>1205</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>1124</v>
+        <v>1112</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>1124</v>
+        <v>1112</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>1125</v>
+        <v>1113</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>1125</v>
+        <v>1113</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>1125</v>
+        <v>1113</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>1125</v>
+        <v>1113</v>
       </c>
       <c r="M151" s="1" t="s">
-        <v>1125</v>
+        <v>1113</v>
       </c>
       <c r="N151" s="1" t="s">
-        <v>1125</v>
+        <v>1113</v>
       </c>
       <c r="O151" s="1" t="s">
-        <v>1125</v>
+        <v>1113</v>
       </c>
       <c r="P151" s="1" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="Q151" s="1" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="R151" s="1" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="S151" s="1" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="T151" s="1" t="s">
-        <v>1218</v>
+        <v>1206</v>
       </c>
       <c r="U151" s="1" t="s">
-        <v>1218</v>
+        <v>1206</v>
       </c>
       <c r="V151" s="1" t="s">
-        <v>1218</v>
+        <v>1206</v>
       </c>
       <c r="W151" s="1"/>
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
       <c r="Z151" s="1" t="s">
-        <v>1123</v>
+        <v>1111</v>
       </c>
       <c r="AA151" s="1" t="s">
-        <v>1123</v>
+        <v>1111</v>
       </c>
       <c r="AB151" s="1" t="s">
-        <v>1219</v>
+        <v>1207</v>
       </c>
       <c r="AC151" s="1" t="s">
-        <v>1217</v>
+        <v>1205</v>
       </c>
       <c r="AD151" s="1" t="s">
-        <v>1123</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="152" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>1286</v>
+        <v>1262</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1127</v>
+        <v>1115</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>1127</v>
+        <v>1115</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>1221</v>
+        <v>1209</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>1221</v>
+        <v>1209</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>1128</v>
+        <v>1116</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>1128</v>
+        <v>1116</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>1129</v>
+        <v>1117</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>1129</v>
+        <v>1117</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>1129</v>
+        <v>1117</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>1129</v>
+        <v>1117</v>
       </c>
       <c r="M152" s="1" t="s">
-        <v>1129</v>
+        <v>1117</v>
       </c>
       <c r="N152" s="1" t="s">
-        <v>1129</v>
+        <v>1117</v>
       </c>
       <c r="O152" s="1" t="s">
-        <v>1129</v>
+        <v>1117</v>
       </c>
       <c r="P152" s="1" t="s">
-        <v>1130</v>
+        <v>1118</v>
       </c>
       <c r="Q152" s="1" t="s">
-        <v>1130</v>
+        <v>1118</v>
       </c>
       <c r="R152" s="1" t="s">
-        <v>1130</v>
+        <v>1118</v>
       </c>
       <c r="S152" s="1" t="s">
-        <v>1130</v>
+        <v>1118</v>
       </c>
       <c r="T152" s="1" t="s">
-        <v>1222</v>
+        <v>1210</v>
       </c>
       <c r="U152" s="1" t="s">
-        <v>1222</v>
+        <v>1210</v>
       </c>
       <c r="V152" s="1" t="s">
-        <v>1222</v>
+        <v>1210</v>
       </c>
       <c r="W152" s="1"/>
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
       <c r="Z152" s="1" t="s">
-        <v>1127</v>
+        <v>1115</v>
       </c>
       <c r="AA152" s="1" t="s">
-        <v>1127</v>
+        <v>1115</v>
       </c>
       <c r="AB152" s="1" t="s">
-        <v>1223</v>
+        <v>1211</v>
       </c>
       <c r="AC152" s="1" t="s">
-        <v>1221</v>
+        <v>1209</v>
       </c>
       <c r="AD152" s="1" t="s">
-        <v>1127</v>
+        <v>1115</v>
       </c>
     </row>
   </sheetData>
